--- a/Online Questionnaire Data.xlsx
+++ b/Online Questionnaire Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBB6873-AB88-44FF-AF66-8AACF99D9DB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA1B1A2-5E8C-4830-A820-2EC142DFE631}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="359">
   <si>
     <t>ID</t>
   </si>
@@ -1143,6 +1143,18 @@
   <si>
     <t>Pregunta 20 + 19</t>
   </si>
+  <si>
+    <t>Pregunta 14</t>
+  </si>
+  <si>
+    <t>Pregunta 14 para gente con nivel excelente y muy bueno</t>
+  </si>
+  <si>
+    <t>Pregunta 19</t>
+  </si>
+  <si>
+    <t>Pregunta 19 para gente con nivel excelente y muy bueno</t>
+  </si>
 </sst>
 </file>
 
@@ -1863,7 +1875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2117,22 +2129,28 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2144,13 +2162,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2160,6 +2175,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2196,27 +2232,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -14134,6 +14149,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-762B-47F7-B5B9-DDDFF50E1938}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -14154,6 +14174,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-762B-47F7-B5B9-DDDFF50E1938}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -15267,6 +15292,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0ACB-4CB9-9BC1-95961BBE294A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -15287,6 +15317,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0ACB-4CB9-9BC1-95961BBE294A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -15963,6 +15998,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-093E-4010-A4C4-ADD09A22D519}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -15983,6 +16023,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-093E-4010-A4C4-ADD09A22D519}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -16222,6 +16267,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-675E-47C3-B1CF-3A605A726467}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -16242,6 +16292,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-675E-47C3-B1CF-3A605A726467}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -16262,6 +16317,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-675E-47C3-B1CF-3A605A726467}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -16282,6 +16342,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-675E-47C3-B1CF-3A605A726467}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -16302,6 +16367,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-675E-47C3-B1CF-3A605A726467}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -16631,6 +16701,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-238B-4D42-9E2E-B89F3473932D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -16651,6 +16726,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-238B-4D42-9E2E-B89F3473932D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -16671,6 +16751,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-238B-4D42-9E2E-B89F3473932D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -16691,6 +16776,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-238B-4D42-9E2E-B89F3473932D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -16711,6 +16801,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-238B-4D42-9E2E-B89F3473932D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -17040,6 +17135,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D895-481A-8EA5-427F669902B7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -17060,6 +17160,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D895-481A-8EA5-427F669902B7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -17080,6 +17185,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D895-481A-8EA5-427F669902B7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -17100,6 +17210,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D895-481A-8EA5-427F669902B7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -17120,6 +17235,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D895-481A-8EA5-427F669902B7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -17449,6 +17569,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-20E6-4CB0-9356-C1E960B6DEFC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -17469,6 +17594,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-20E6-4CB0-9356-C1E960B6DEFC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -17489,6 +17619,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-20E6-4CB0-9356-C1E960B6DEFC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -17509,6 +17644,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-20E6-4CB0-9356-C1E960B6DEFC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -17529,6 +17669,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-20E6-4CB0-9356-C1E960B6DEFC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -18229,6 +18374,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0134-4D64-8EB0-782DB3CDD86E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -18249,6 +18399,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0134-4D64-8EB0-782DB3CDD86E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -18269,6 +18424,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0134-4D64-8EB0-782DB3CDD86E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -18289,6 +18449,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0134-4D64-8EB0-782DB3CDD86E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -18309,6 +18474,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0134-4D64-8EB0-782DB3CDD86E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -18638,6 +18808,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-61A9-421C-BB63-9A3EE63E170B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -18658,6 +18833,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-61A9-421C-BB63-9A3EE63E170B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -18678,6 +18858,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-61A9-421C-BB63-9A3EE63E170B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -18698,6 +18883,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-61A9-421C-BB63-9A3EE63E170B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -18718,6 +18908,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-61A9-421C-BB63-9A3EE63E170B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -19047,6 +19242,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9DA4-4831-BB0C-117D40325497}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -19067,6 +19267,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9DA4-4831-BB0C-117D40325497}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -19378,6 +19583,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-52C2-4C03-8003-96300AB46A9A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -19398,6 +19608,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-52C2-4C03-8003-96300AB46A9A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -19579,6 +19794,1206 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráficas!$C$729:$C$732</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Monolingual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bilingual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Trilingual</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Multilingual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráficas!$D$729:$D$732</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.69565217391304346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84313725490196079</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76470588235294112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC88-40FD-837A-A3126AF3F6CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1358559584"/>
+        <c:axId val="1358560416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1358559584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358560416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1358560416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358559584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráficas!$C$740:$C$744</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Strongly Agree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Agree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Disagree</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Strongly Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráficas!$E$740:$E$744</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81AB-43C8-B211-3E3953122C0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1358560832"/>
+        <c:axId val="1358562496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1358560832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358562496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1358562496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358560832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráficas!$C$774:$C$777</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Monolingual</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bilingual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Trilingual</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Multilingual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráficas!$D$774:$D$777</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.43478260869565216</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52941176470588236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58823529411764708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D15-4014-BDB9-098BDE2CFD75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1350875920"/>
+        <c:axId val="1350877584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1350875920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1350877584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1350877584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1350875920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráficas!$C$785:$C$789</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Strongly Agree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Agree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Disagree</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Strongly Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráficas!$E$785:$E$789</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD77-4A3A-928F-186A55691404}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1377617488"/>
+        <c:axId val="1377617904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1377617488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377617904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1377617904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377617488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -23419,6 +24834,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors44.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors45.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors46.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors47.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -44411,6 +45986,2018 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style44.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style45.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style46.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style47.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -48761,6 +52348,150 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>710</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>440055</xdr:colOff>
+      <xdr:row>724</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3622FC-6866-4451-A19C-C4129862263E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750570</xdr:colOff>
+      <xdr:row>733</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>192405</xdr:colOff>
+      <xdr:row>747</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name="Chart 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA479DBE-48E8-48C3-84DD-0564DDC1C1DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>757</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>470535</xdr:colOff>
+      <xdr:row>771</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="32" name="Chart 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75BFF3E-AD43-4489-87C8-B24789136BAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>776</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>531495</xdr:colOff>
+      <xdr:row>790</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="47" name="Chart 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9F0F84-243F-4719-AB6E-D6D8193BB72B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -49103,8 +52834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z120"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58859,7 +62590,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:L10"/>
+      <selection activeCell="B14" sqref="B14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58889,382 +62620,392 @@
       <c r="A2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="86"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="88"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="88"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="88"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="88"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="86"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="88"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="88"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="88"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="88"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="87" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="88"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="88"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="88"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="88"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="88"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="88"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="88"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="87" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="88"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="88"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B2:L2"/>
@@ -59277,16 +63018,6 @@
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="B10:L10"/>
     <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -59296,10 +63027,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7370BF-1852-4AC6-B458-05BE13F3FE63}">
-  <dimension ref="B6:H696"/>
+  <dimension ref="B6:H790"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A681" workbookViewId="0">
-      <selection activeCell="D695" sqref="D695"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G780" sqref="G780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59316,12 +63047,12 @@
   <sheetData>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="105" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="107"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
@@ -59354,10 +63085,10 @@
     </row>
     <row r="23" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="112" t="s">
+      <c r="C24" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="D24" s="113"/>
+      <c r="D24" s="102"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="30" t="s">
@@ -59388,10 +63119,10 @@
     </row>
     <row r="43" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="104" t="s">
+      <c r="C44" s="112" t="s">
         <v>236</v>
       </c>
-      <c r="D44" s="106"/>
+      <c r="D44" s="114"/>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" s="33" t="s">
@@ -59437,10 +63168,10 @@
     </row>
     <row r="66" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="100" t="s">
+      <c r="C67" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="D67" s="100"/>
+      <c r="D67" s="108"/>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="7" t="s">
@@ -59489,10 +63220,10 @@
     </row>
     <row r="81" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="101" t="s">
+      <c r="C82" s="109" t="s">
         <v>241</v>
       </c>
-      <c r="D82" s="102"/>
+      <c r="D82" s="110"/>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="8" t="s">
@@ -59541,10 +63272,10 @@
     </row>
     <row r="98" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="101" t="s">
+      <c r="C99" s="109" t="s">
         <v>246</v>
       </c>
-      <c r="D99" s="102"/>
+      <c r="D99" s="110"/>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="8" t="s">
@@ -59602,12 +63333,12 @@
     </row>
     <row r="116" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="117" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="107" t="s">
+      <c r="B117" s="115" t="s">
         <v>271</v>
       </c>
-      <c r="C117" s="108"/>
-      <c r="D117" s="108"/>
-      <c r="E117" s="109"/>
+      <c r="C117" s="116"/>
+      <c r="D117" s="116"/>
+      <c r="E117" s="117"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="25" t="s">
@@ -59665,11 +63396,11 @@
       </c>
     </row>
     <row r="123" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="110" t="s">
+      <c r="B123" s="118" t="s">
         <v>230</v>
       </c>
-      <c r="C123" s="111"/>
-      <c r="D123" s="111"/>
+      <c r="C123" s="119"/>
+      <c r="D123" s="119"/>
       <c r="E123" s="16">
         <f>SUM(E118:E122)</f>
         <v>119</v>
@@ -59677,13 +63408,13 @@
     </row>
     <row r="132" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="104" t="s">
+      <c r="B133" s="112" t="s">
         <v>277</v>
       </c>
-      <c r="C133" s="105"/>
-      <c r="D133" s="105"/>
-      <c r="E133" s="105"/>
-      <c r="F133" s="106"/>
+      <c r="C133" s="113"/>
+      <c r="D133" s="113"/>
+      <c r="E133" s="113"/>
+      <c r="F133" s="114"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="44" t="s">
@@ -59771,11 +63502,11 @@
     </row>
     <row r="152" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B153" s="101" t="s">
+      <c r="B153" s="109" t="s">
         <v>284</v>
       </c>
-      <c r="C153" s="103"/>
-      <c r="D153" s="102"/>
+      <c r="C153" s="111"/>
+      <c r="D153" s="110"/>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="s">
@@ -59818,10 +63549,10 @@
       </c>
     </row>
     <row r="158" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="114" t="s">
+      <c r="B158" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="C158" s="115"/>
+      <c r="C158" s="104"/>
       <c r="D158" s="16">
         <f>SUM(D154:D157)</f>
         <v>119</v>
@@ -59829,11 +63560,11 @@
     </row>
     <row r="169" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="91" t="s">
+      <c r="B170" s="93" t="s">
         <v>294</v>
       </c>
-      <c r="C170" s="92"/>
-      <c r="D170" s="93"/>
+      <c r="C170" s="94"/>
+      <c r="D170" s="95"/>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" s="48" t="s">
@@ -59897,12 +63628,12 @@
     </row>
     <row r="189" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="190" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B190" s="91" t="s">
+      <c r="B190" s="93" t="s">
         <v>303</v>
       </c>
-      <c r="C190" s="92"/>
-      <c r="D190" s="92"/>
-      <c r="E190" s="93"/>
+      <c r="C190" s="94"/>
+      <c r="D190" s="94"/>
+      <c r="E190" s="95"/>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="17" t="s">
@@ -59999,13 +63730,13 @@
     </row>
     <row r="207" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B208" s="97" t="s">
+      <c r="B208" s="98" t="s">
         <v>304</v>
       </c>
-      <c r="C208" s="98"/>
-      <c r="D208" s="98"/>
-      <c r="E208" s="98"/>
-      <c r="F208" s="99"/>
+      <c r="C208" s="99"/>
+      <c r="D208" s="99"/>
+      <c r="E208" s="99"/>
+      <c r="F208" s="100"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="17" t="s">
@@ -60158,13 +63889,13 @@
     </row>
     <row r="225" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B226" s="97" t="s">
+      <c r="B226" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="C226" s="98"/>
-      <c r="D226" s="98"/>
-      <c r="E226" s="98"/>
-      <c r="F226" s="99"/>
+      <c r="C226" s="99"/>
+      <c r="D226" s="99"/>
+      <c r="E226" s="99"/>
+      <c r="F226" s="100"/>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="17" t="s">
@@ -60323,13 +64054,13 @@
     </row>
     <row r="236" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="237" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B237" s="97" t="s">
+      <c r="B237" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="C237" s="98"/>
-      <c r="D237" s="98"/>
-      <c r="E237" s="98"/>
-      <c r="F237" s="99"/>
+      <c r="C237" s="99"/>
+      <c r="D237" s="99"/>
+      <c r="E237" s="99"/>
+      <c r="F237" s="100"/>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" s="17" t="s">
@@ -60469,14 +64200,14 @@
     </row>
     <row r="252" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="253" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B253" s="91" t="s">
+      <c r="B253" s="93" t="s">
         <v>318</v>
       </c>
-      <c r="C253" s="92"/>
-      <c r="D253" s="92"/>
-      <c r="E253" s="92"/>
-      <c r="F253" s="92"/>
-      <c r="G253" s="93"/>
+      <c r="C253" s="94"/>
+      <c r="D253" s="94"/>
+      <c r="E253" s="94"/>
+      <c r="F253" s="94"/>
+      <c r="G253" s="95"/>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B254" s="17" t="s">
@@ -60613,14 +64344,14 @@
     </row>
     <row r="261" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="262" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B262" s="91" t="s">
+      <c r="B262" s="93" t="s">
         <v>318</v>
       </c>
-      <c r="C262" s="92"/>
-      <c r="D262" s="92"/>
-      <c r="E262" s="92"/>
-      <c r="F262" s="92"/>
-      <c r="G262" s="93"/>
+      <c r="C262" s="94"/>
+      <c r="D262" s="94"/>
+      <c r="E262" s="94"/>
+      <c r="F262" s="94"/>
+      <c r="G262" s="95"/>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="17" t="s">
@@ -60753,13 +64484,13 @@
     </row>
     <row r="274" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="275" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B275" s="97" t="s">
+      <c r="B275" s="98" t="s">
         <v>304</v>
       </c>
-      <c r="C275" s="98"/>
-      <c r="D275" s="98"/>
-      <c r="E275" s="98"/>
-      <c r="F275" s="99"/>
+      <c r="C275" s="99"/>
+      <c r="D275" s="99"/>
+      <c r="E275" s="99"/>
+      <c r="F275" s="100"/>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B276" s="17" t="s">
@@ -60891,13 +64622,13 @@
     </row>
     <row r="290" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="291" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B291" s="97" t="s">
+      <c r="B291" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="C291" s="98"/>
-      <c r="D291" s="98"/>
-      <c r="E291" s="98"/>
-      <c r="F291" s="99"/>
+      <c r="C291" s="99"/>
+      <c r="D291" s="99"/>
+      <c r="E291" s="99"/>
+      <c r="F291" s="100"/>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B292" s="17" t="s">
@@ -61035,13 +64766,13 @@
     </row>
     <row r="301" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="302" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B302" s="97" t="s">
+      <c r="B302" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="C302" s="98"/>
-      <c r="D302" s="98"/>
-      <c r="E302" s="98"/>
-      <c r="F302" s="99"/>
+      <c r="C302" s="99"/>
+      <c r="D302" s="99"/>
+      <c r="E302" s="99"/>
+      <c r="F302" s="100"/>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B303" s="17" t="s">
@@ -61153,12 +64884,12 @@
     </row>
     <row r="315" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="316" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B316" s="91" t="s">
+      <c r="B316" s="93" t="s">
         <v>327</v>
       </c>
-      <c r="C316" s="92"/>
-      <c r="D316" s="92"/>
-      <c r="E316" s="93"/>
+      <c r="C316" s="94"/>
+      <c r="D316" s="94"/>
+      <c r="E316" s="95"/>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317" s="17" t="s">
@@ -61255,13 +64986,13 @@
     </row>
     <row r="333" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="334" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B334" s="97" t="s">
+      <c r="B334" s="98" t="s">
         <v>328</v>
       </c>
-      <c r="C334" s="98"/>
-      <c r="D334" s="98"/>
-      <c r="E334" s="98"/>
-      <c r="F334" s="99"/>
+      <c r="C334" s="99"/>
+      <c r="D334" s="99"/>
+      <c r="E334" s="99"/>
+      <c r="F334" s="100"/>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B335" s="17" t="s">
@@ -61414,13 +65145,13 @@
     </row>
     <row r="351" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="352" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B352" s="97" t="s">
+      <c r="B352" s="98" t="s">
         <v>329</v>
       </c>
-      <c r="C352" s="98"/>
-      <c r="D352" s="98"/>
-      <c r="E352" s="98"/>
-      <c r="F352" s="99"/>
+      <c r="C352" s="99"/>
+      <c r="D352" s="99"/>
+      <c r="E352" s="99"/>
+      <c r="F352" s="100"/>
     </row>
     <row r="353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B353" s="17" t="s">
@@ -61579,13 +65310,13 @@
     </row>
     <row r="362" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="363" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B363" s="97" t="s">
+      <c r="B363" s="98" t="s">
         <v>329</v>
       </c>
-      <c r="C363" s="98"/>
-      <c r="D363" s="98"/>
-      <c r="E363" s="98"/>
-      <c r="F363" s="99"/>
+      <c r="C363" s="99"/>
+      <c r="D363" s="99"/>
+      <c r="E363" s="99"/>
+      <c r="F363" s="100"/>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B364" s="17" t="s">
@@ -61711,11 +65442,11 @@
     </row>
     <row r="377" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="378" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B378" s="91" t="s">
+      <c r="B378" s="93" t="s">
         <v>330</v>
       </c>
-      <c r="C378" s="92"/>
-      <c r="D378" s="93"/>
+      <c r="C378" s="94"/>
+      <c r="D378" s="95"/>
     </row>
     <row r="379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B379" s="48" t="s">
@@ -61779,13 +65510,13 @@
     </row>
     <row r="395" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="396" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B396" s="97" t="s">
+      <c r="B396" s="98" t="s">
         <v>333</v>
       </c>
-      <c r="C396" s="98"/>
-      <c r="D396" s="98"/>
-      <c r="E396" s="98"/>
-      <c r="F396" s="99"/>
+      <c r="C396" s="99"/>
+      <c r="D396" s="99"/>
+      <c r="E396" s="99"/>
+      <c r="F396" s="100"/>
     </row>
     <row r="397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B397" s="17" t="s">
@@ -61933,13 +65664,13 @@
     </row>
     <row r="414" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="415" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B415" s="97" t="s">
+      <c r="B415" s="98" t="s">
         <v>332</v>
       </c>
-      <c r="C415" s="98"/>
-      <c r="D415" s="98"/>
-      <c r="E415" s="98"/>
-      <c r="F415" s="99"/>
+      <c r="C415" s="99"/>
+      <c r="D415" s="99"/>
+      <c r="E415" s="99"/>
+      <c r="F415" s="100"/>
     </row>
     <row r="416" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B416" s="17" t="s">
@@ -62080,11 +65811,11 @@
     </row>
     <row r="433" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="434" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B434" s="91" t="s">
+      <c r="B434" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="C434" s="92"/>
-      <c r="D434" s="93"/>
+      <c r="C434" s="94"/>
+      <c r="D434" s="95"/>
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B435" s="48" t="s">
@@ -62148,12 +65879,12 @@
     </row>
     <row r="453" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="454" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B454" s="94" t="s">
+      <c r="B454" s="105" t="s">
         <v>335</v>
       </c>
-      <c r="C454" s="95"/>
-      <c r="D454" s="95"/>
-      <c r="E454" s="96"/>
+      <c r="C454" s="106"/>
+      <c r="D454" s="106"/>
+      <c r="E454" s="107"/>
     </row>
     <row r="455" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B455" s="23" t="s">
@@ -62191,12 +65922,12 @@
     </row>
     <row r="470" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="471" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B471" s="94" t="s">
+      <c r="B471" s="105" t="s">
         <v>337</v>
       </c>
-      <c r="C471" s="95"/>
-      <c r="D471" s="95"/>
-      <c r="E471" s="96"/>
+      <c r="C471" s="106"/>
+      <c r="D471" s="106"/>
+      <c r="E471" s="107"/>
     </row>
     <row r="472" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B472" s="23" t="s">
@@ -62246,13 +65977,13 @@
     </row>
     <row r="489" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="490" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B490" s="91" t="s">
+      <c r="B490" s="93" t="s">
         <v>341</v>
       </c>
-      <c r="C490" s="92"/>
-      <c r="D490" s="92"/>
-      <c r="E490" s="92"/>
-      <c r="F490" s="93"/>
+      <c r="C490" s="94"/>
+      <c r="D490" s="94"/>
+      <c r="E490" s="94"/>
+      <c r="F490" s="95"/>
     </row>
     <row r="491" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B491" s="17" t="s">
@@ -62393,16 +66124,16 @@
     </row>
     <row r="499" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="500" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C500" s="117" t="s">
+      <c r="C500" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="D500" s="118"/>
+      <c r="D500" s="97"/>
     </row>
     <row r="501" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C501" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="D501" s="116">
+      <c r="D501" s="86">
         <f>SUM(E492:E493)</f>
         <v>0.86792452830188682</v>
       </c>
@@ -62418,13 +66149,13 @@
     </row>
     <row r="509" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="510" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B510" s="91" t="s">
+      <c r="B510" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="C510" s="92"/>
-      <c r="D510" s="92"/>
-      <c r="E510" s="92"/>
-      <c r="F510" s="93"/>
+      <c r="C510" s="94"/>
+      <c r="D510" s="94"/>
+      <c r="E510" s="94"/>
+      <c r="F510" s="95"/>
     </row>
     <row r="511" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B511" s="17" t="s">
@@ -62565,16 +66296,16 @@
     </row>
     <row r="519" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="520" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C520" s="117" t="s">
+      <c r="C520" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="D520" s="118"/>
+      <c r="D520" s="97"/>
     </row>
     <row r="521" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C521" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="D521" s="116">
+      <c r="D521" s="86">
         <f>SUM(E512:E513)</f>
         <v>0.49056603773584906</v>
       </c>
@@ -62590,13 +66321,13 @@
     </row>
     <row r="531" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="532" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B532" s="91" t="s">
+      <c r="B532" s="93" t="s">
         <v>341</v>
       </c>
-      <c r="C532" s="92"/>
-      <c r="D532" s="92"/>
-      <c r="E532" s="92"/>
-      <c r="F532" s="93"/>
+      <c r="C532" s="94"/>
+      <c r="D532" s="94"/>
+      <c r="E532" s="94"/>
+      <c r="F532" s="95"/>
     </row>
     <row r="533" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B533" s="17" t="s">
@@ -62737,16 +66468,16 @@
     </row>
     <row r="541" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="542" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C542" s="117" t="s">
+      <c r="C542" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="D542" s="118"/>
+      <c r="D542" s="97"/>
     </row>
     <row r="543" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C543" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="D543" s="116">
+      <c r="D543" s="86">
         <f>SUM(E534:E535)</f>
         <v>0.71052631578947367</v>
       </c>
@@ -62762,13 +66493,13 @@
     </row>
     <row r="551" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="552" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B552" s="91" t="s">
+      <c r="B552" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="C552" s="92"/>
-      <c r="D552" s="92"/>
-      <c r="E552" s="92"/>
-      <c r="F552" s="93"/>
+      <c r="C552" s="94"/>
+      <c r="D552" s="94"/>
+      <c r="E552" s="94"/>
+      <c r="F552" s="95"/>
     </row>
     <row r="553" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B553" s="17" t="s">
@@ -62909,16 +66640,16 @@
     </row>
     <row r="561" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="562" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C562" s="117" t="s">
+      <c r="C562" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="D562" s="118"/>
+      <c r="D562" s="97"/>
     </row>
     <row r="563" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C563" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="D563" s="116">
+      <c r="D563" s="86">
         <f>SUM(E554:E555)</f>
         <v>0.42105263157894735</v>
       </c>
@@ -62934,11 +66665,11 @@
     </row>
     <row r="572" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="573" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B573" s="91" t="s">
+      <c r="B573" s="93" t="s">
         <v>347</v>
       </c>
-      <c r="C573" s="92"/>
-      <c r="D573" s="93"/>
+      <c r="C573" s="94"/>
+      <c r="D573" s="95"/>
     </row>
     <row r="574" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B574" s="48" t="s">
@@ -63002,11 +66733,11 @@
     </row>
     <row r="590" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="591" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B591" s="91" t="s">
+      <c r="B591" s="93" t="s">
         <v>348</v>
       </c>
-      <c r="C591" s="92"/>
-      <c r="D591" s="93"/>
+      <c r="C591" s="94"/>
+      <c r="D591" s="95"/>
     </row>
     <row r="592" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B592" s="48" t="s">
@@ -63070,11 +66801,11 @@
     </row>
     <row r="607" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="608" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B608" s="91" t="s">
+      <c r="B608" s="93" t="s">
         <v>349</v>
       </c>
-      <c r="C608" s="92"/>
-      <c r="D608" s="93"/>
+      <c r="C608" s="94"/>
+      <c r="D608" s="95"/>
     </row>
     <row r="609" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B609" s="48" t="s">
@@ -63138,11 +66869,11 @@
     </row>
     <row r="624" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="625" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B625" s="91" t="s">
+      <c r="B625" s="93" t="s">
         <v>350</v>
       </c>
-      <c r="C625" s="92"/>
-      <c r="D625" s="93"/>
+      <c r="C625" s="94"/>
+      <c r="D625" s="95"/>
     </row>
     <row r="626" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B626" s="48" t="s">
@@ -63206,11 +66937,11 @@
     </row>
     <row r="641" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="642" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B642" s="91" t="s">
+      <c r="B642" s="93" t="s">
         <v>351</v>
       </c>
-      <c r="C642" s="92"/>
-      <c r="D642" s="93"/>
+      <c r="C642" s="94"/>
+      <c r="D642" s="95"/>
     </row>
     <row r="643" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B643" s="48" t="s">
@@ -63274,11 +67005,11 @@
     </row>
     <row r="658" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="659" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B659" s="91" t="s">
+      <c r="B659" s="93" t="s">
         <v>352</v>
       </c>
-      <c r="C659" s="92"/>
-      <c r="D659" s="93"/>
+      <c r="C659" s="94"/>
+      <c r="D659" s="95"/>
     </row>
     <row r="660" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B660" s="48" t="s">
@@ -63342,11 +67073,11 @@
     </row>
     <row r="676" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="677" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B677" s="91" t="s">
+      <c r="B677" s="93" t="s">
         <v>354</v>
       </c>
-      <c r="C677" s="92"/>
-      <c r="D677" s="93"/>
+      <c r="C677" s="94"/>
+      <c r="D677" s="95"/>
     </row>
     <row r="678" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B678" s="48" t="s">
@@ -63390,11 +67121,11 @@
     </row>
     <row r="693" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="694" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B694" s="91" t="s">
+      <c r="B694" s="93" t="s">
         <v>353</v>
       </c>
-      <c r="C694" s="92"/>
-      <c r="D694" s="93"/>
+      <c r="C694" s="94"/>
+      <c r="D694" s="95"/>
     </row>
     <row r="695" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B695" s="48" t="s">
@@ -63416,29 +67147,825 @@
         <v>18</v>
       </c>
     </row>
+    <row r="709" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="710" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B710" s="98" t="s">
+        <v>355</v>
+      </c>
+      <c r="C710" s="99"/>
+      <c r="D710" s="99"/>
+      <c r="E710" s="99"/>
+      <c r="F710" s="100"/>
+    </row>
+    <row r="711" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B711" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C711" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D711" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E711" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F711" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="712" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B712" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C712" s="46">
+        <f>COUNTIFS(Datos!G:G,1,Datos!R:R,"Totalmente de acuerdo")</f>
+        <v>9</v>
+      </c>
+      <c r="D712" s="51">
+        <f>COUNTIFS(Datos!G:G,2,Datos!R:R,"Totalmente de acuerdo")</f>
+        <v>29</v>
+      </c>
+      <c r="E712" s="61">
+        <f>COUNTIFS(Datos!G:G,3,Datos!R:R,"Totalmente de acuerdo")</f>
+        <v>8</v>
+      </c>
+      <c r="F712" s="61">
+        <f>COUNTIFS(Datos!G:G,"&gt;3",Datos!R:R,"Totalmente de acuerdo")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="713" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B713" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C713" s="46">
+        <f>COUNTIFS(Datos!G:G,1,Datos!R:R,"De acuerdo")</f>
+        <v>23</v>
+      </c>
+      <c r="D713" s="51">
+        <f>COUNTIFS(Datos!G:G,2,Datos!R:R,"De acuerdo")</f>
+        <v>14</v>
+      </c>
+      <c r="E713" s="61">
+        <f>COUNTIFS(Datos!G:G,3,Datos!R:R,"De acuerdo")</f>
+        <v>5</v>
+      </c>
+      <c r="F713" s="61">
+        <f>COUNTIFS(Datos!G:G,"&gt;3",Datos!R:R,"De acuerdo")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B714" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C714" s="53">
+        <f>COUNTIFS(Datos!G:G,1,Datos!R:R,"Neutral")</f>
+        <v>7</v>
+      </c>
+      <c r="D714" s="54">
+        <f>COUNTIFS(Datos!G:G,2,Datos!R:R,"Neutral")</f>
+        <v>7</v>
+      </c>
+      <c r="E714" s="61">
+        <f>COUNTIFS(Datos!G:G,3,Datos!R:R,"Neutral")</f>
+        <v>4</v>
+      </c>
+      <c r="F714" s="61">
+        <f>COUNTIFS(Datos!G:G,"&gt;3",Datos!R:R,"Neutral")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B715" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="C715" s="53">
+        <f>COUNTIFS(Datos!G:G,1,Datos!R:R,"En desacuerdo")</f>
+        <v>7</v>
+      </c>
+      <c r="D715" s="54">
+        <f>COUNTIFS(Datos!G:G,2,Datos!R:R,"En desacuerdo")</f>
+        <v>1</v>
+      </c>
+      <c r="E715" s="61">
+        <f>COUNTIFS(Datos!G:G,3,Datos!R:R,"En desacuerdo")</f>
+        <v>0</v>
+      </c>
+      <c r="F715" s="61">
+        <f>COUNTIFS(Datos!G:G,"&gt;3",Datos!R:R,"En desacuerdo")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B716" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="C716" s="47">
+        <f>COUNTIFS(Datos!G:G,1,Datos!R:R,"Totalmente en desacuerdo")</f>
+        <v>0</v>
+      </c>
+      <c r="D716" s="56">
+        <f>COUNTIFS(Datos!G:G,2,Datos!R:R,"Totalmente en desacuerdo")</f>
+        <v>0</v>
+      </c>
+      <c r="E716" s="61">
+        <f>COUNTIFS(Datos!G:G,3,Datos!R:R,"Totalmente en desacuerdo")</f>
+        <v>0</v>
+      </c>
+      <c r="F716" s="61">
+        <f>COUNTIFS(Datos!G:G,"&gt;3",Datos!R:R,"Totalmente en desacuerdo")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B717" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C717" s="21">
+        <f>SUM(C712:C716)</f>
+        <v>46</v>
+      </c>
+      <c r="D717" s="62">
+        <f>SUM(D712:D716)</f>
+        <v>51</v>
+      </c>
+      <c r="E717" s="21">
+        <f>SUM(E712:E716)</f>
+        <v>17</v>
+      </c>
+      <c r="F717" s="22">
+        <f>SUM(F712:F716)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="718" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B718" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="C718" s="47">
+        <f>SUM(C717:F717)</f>
+        <v>119</v>
+      </c>
+      <c r="D718" s="56"/>
+      <c r="E718" s="47"/>
+      <c r="F718" s="35"/>
+    </row>
+    <row r="720" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="721" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B721" s="98" t="s">
+        <v>355</v>
+      </c>
+      <c r="C721" s="99"/>
+      <c r="D721" s="99"/>
+      <c r="E721" s="99"/>
+      <c r="F721" s="100"/>
+    </row>
+    <row r="722" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B722" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C722" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="D722" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="E722" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="F722" s="19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="723" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B723" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C723" s="63">
+        <f>C712/C$717</f>
+        <v>0.19565217391304349</v>
+      </c>
+      <c r="D723" s="63">
+        <f t="shared" ref="D723:F723" si="31">D712/D$717</f>
+        <v>0.56862745098039214</v>
+      </c>
+      <c r="E723" s="63">
+        <f t="shared" si="31"/>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="F723" s="63">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B724" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C724" s="63">
+        <f t="shared" ref="C724:F727" si="32">C713/C$717</f>
+        <v>0.5</v>
+      </c>
+      <c r="D724" s="63">
+        <f t="shared" si="32"/>
+        <v>0.27450980392156865</v>
+      </c>
+      <c r="E724" s="63">
+        <f t="shared" si="32"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="F724" s="63">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B725" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C725" s="63">
+        <f t="shared" si="32"/>
+        <v>0.15217391304347827</v>
+      </c>
+      <c r="D725" s="63">
+        <f t="shared" si="32"/>
+        <v>0.13725490196078433</v>
+      </c>
+      <c r="E725" s="63">
+        <f t="shared" si="32"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="F725" s="63">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B726" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="C726" s="63">
+        <f t="shared" si="32"/>
+        <v>0.15217391304347827</v>
+      </c>
+      <c r="D726" s="63">
+        <f t="shared" si="32"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="E726" s="63">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F726" s="63">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B727" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="C727" s="63">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="D727" s="63">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E727" s="63">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F727" s="63">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C729" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D729" s="71">
+        <f>SUM(C723:C724)</f>
+        <v>0.69565217391304346</v>
+      </c>
+    </row>
+    <row r="730" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C730" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D730" s="71">
+        <f>SUM(D723:D724)</f>
+        <v>0.84313725490196079</v>
+      </c>
+    </row>
+    <row r="731" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C731" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D731" s="71">
+        <f>SUM(E723:E724)</f>
+        <v>0.76470588235294112</v>
+      </c>
+    </row>
+    <row r="732" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C732" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D732" s="71">
+        <f>SUM(F723:F724)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="739" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C739" s="93" t="s">
+        <v>356</v>
+      </c>
+      <c r="D739" s="94"/>
+      <c r="E739" s="95"/>
+    </row>
+    <row r="740" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C740" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="D740" s="49"/>
+      <c r="E740" s="9">
+        <f>COUNTIFS(Datos!H:H,"Excelente", Datos!R:R,"Totalmente de acuerdo") + COUNTIFS(Datos!H:H,"Muy bueno", Datos!R:R,"Totalmente de acuerdo")</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="741" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C741" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="D741" s="38"/>
+      <c r="E741" s="9">
+        <f>COUNTIFS(Datos!H:H,"Excelente", Datos!R:R,"De acuerdo") + COUNTIFS(Datos!H:H,"Muy bueno", Datos!R:R,"De acuerdo")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="742" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C742" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D742" s="38"/>
+      <c r="E742" s="9">
+        <f>COUNTIFS(Datos!H:H,"Excelente", Datos!R:R,"Neutral") + COUNTIFS(Datos!H:H,"Muy bueno", Datos!R:R,"Neutral")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="743" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C743" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="D743" s="38"/>
+      <c r="E743" s="9">
+        <f>COUNTIFS(Datos!H:H,"Excelente", Datos!R:R,"En desacuerdo") + COUNTIFS(Datos!H:H,"Muy bueno", Datos!R:R,"En desacuerdo")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C744" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="D744" s="42"/>
+      <c r="E744" s="35">
+        <f>COUNTIFS(Datos!H:H,"Excelente", Datos!R:R,"Totalmente en desacuerdo") + COUNTIFS(Datos!H:H,"Muy bueno", Datos!R:R,"Totalmente en desacuerdo")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C745" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="D745" s="28"/>
+      <c r="E745" s="16">
+        <f>SUM(E740:E744)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="754" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="755" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B755" s="98" t="s">
+        <v>357</v>
+      </c>
+      <c r="C755" s="99"/>
+      <c r="D755" s="99"/>
+      <c r="E755" s="99"/>
+      <c r="F755" s="100"/>
+    </row>
+    <row r="756" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B756" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C756" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D756" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E756" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F756" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="757" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B757" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C757" s="46">
+        <f>COUNTIFS(Datos!G:G,1,Datos!W:W,"Totalmente de acuerdo")</f>
+        <v>4</v>
+      </c>
+      <c r="D757" s="51">
+        <f>COUNTIFS(Datos!G:G,2,Datos!W:W,"Totalmente de acuerdo")</f>
+        <v>12</v>
+      </c>
+      <c r="E757" s="61">
+        <f>COUNTIFS(Datos!G:G,3,Datos!W:W,"Totalmente de acuerdo")</f>
+        <v>7</v>
+      </c>
+      <c r="F757" s="61">
+        <f>COUNTIFS(Datos!G:G,"&gt;3",Datos!W:W,"Totalmente de acuerdo")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B758" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C758" s="46">
+        <f>COUNTIFS(Datos!G:G,1,Datos!W:W,"De acuerdo")</f>
+        <v>16</v>
+      </c>
+      <c r="D758" s="51">
+        <f>COUNTIFS(Datos!G:G,2,Datos!W:W,"De acuerdo")</f>
+        <v>15</v>
+      </c>
+      <c r="E758" s="61">
+        <f>COUNTIFS(Datos!G:G,3,Datos!W:W,"De acuerdo")</f>
+        <v>3</v>
+      </c>
+      <c r="F758" s="61">
+        <f>COUNTIFS(Datos!G:G,"&gt;3",Datos!W:W,"De acuerdo")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B759" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C759" s="53">
+        <f>COUNTIFS(Datos!G:G,1,Datos!W:W,"Neutral")</f>
+        <v>11</v>
+      </c>
+      <c r="D759" s="54">
+        <f>COUNTIFS(Datos!G:G,2,Datos!W:W,"Neutral")</f>
+        <v>12</v>
+      </c>
+      <c r="E759" s="61">
+        <f>COUNTIFS(Datos!G:G,3,Datos!W:W,"Neutral")</f>
+        <v>4</v>
+      </c>
+      <c r="F759" s="61">
+        <f>COUNTIFS(Datos!G:G,"&gt;3",Datos!W:W,"Neutral")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="760" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B760" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="C760" s="53">
+        <f>COUNTIFS(Datos!G:G,1,Datos!W:W,"En desacuerdo")</f>
+        <v>10</v>
+      </c>
+      <c r="D760" s="54">
+        <f>COUNTIFS(Datos!G:G,2,Datos!W:W,"En desacuerdo")</f>
+        <v>8</v>
+      </c>
+      <c r="E760" s="61">
+        <f>COUNTIFS(Datos!G:G,3,Datos!W:W,"En desacuerdo")</f>
+        <v>0</v>
+      </c>
+      <c r="F760" s="61">
+        <f>COUNTIFS(Datos!G:G,"&gt;3",Datos!W:W,"En desacuerdo")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B761" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="C761" s="47">
+        <f>COUNTIFS(Datos!G:G,1,Datos!W:W,"Totalmente en desacuerdo")</f>
+        <v>5</v>
+      </c>
+      <c r="D761" s="56">
+        <f>COUNTIFS(Datos!G:G,2,Datos!W:W,"Totalmente en desacuerdo")</f>
+        <v>4</v>
+      </c>
+      <c r="E761" s="61">
+        <f>COUNTIFS(Datos!G:G,3,Datos!W:W,"Totalmente en desacuerdo")</f>
+        <v>3</v>
+      </c>
+      <c r="F761" s="61">
+        <f>COUNTIFS(Datos!G:G,"&gt;3",Datos!W:W,"Totalmente en desacuerdo")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B762" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C762" s="21">
+        <f>SUM(C757:C761)</f>
+        <v>46</v>
+      </c>
+      <c r="D762" s="62">
+        <f>SUM(D757:D761)</f>
+        <v>51</v>
+      </c>
+      <c r="E762" s="21">
+        <f>SUM(E757:E761)</f>
+        <v>17</v>
+      </c>
+      <c r="F762" s="22">
+        <f>SUM(F757:F761)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="763" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B763" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="C763" s="47">
+        <f>SUM(C762:F762)</f>
+        <v>119</v>
+      </c>
+      <c r="D763" s="56"/>
+      <c r="E763" s="47"/>
+      <c r="F763" s="35"/>
+    </row>
+    <row r="765" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="766" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B766" s="98" t="s">
+        <v>357</v>
+      </c>
+      <c r="C766" s="99"/>
+      <c r="D766" s="99"/>
+      <c r="E766" s="99"/>
+      <c r="F766" s="100"/>
+    </row>
+    <row r="767" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B767" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C767" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="D767" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="E767" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="F767" s="19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="768" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B768" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C768" s="63">
+        <f>C757/C$762</f>
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="D768" s="63">
+        <f t="shared" ref="D768:F768" si="33">D757/D$762</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="E768" s="63">
+        <f t="shared" si="33"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="F768" s="63">
+        <f t="shared" si="33"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="769" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B769" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C769" s="63">
+        <f t="shared" ref="C769:F772" si="34">C758/C$762</f>
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="D769" s="63">
+        <f t="shared" si="34"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="E769" s="63">
+        <f t="shared" si="34"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F769" s="63">
+        <f t="shared" si="34"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="770" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B770" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C770" s="63">
+        <f t="shared" si="34"/>
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="D770" s="63">
+        <f t="shared" si="34"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="E770" s="63">
+        <f t="shared" si="34"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="F770" s="63">
+        <f t="shared" si="34"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="771" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B771" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="C771" s="63">
+        <f t="shared" si="34"/>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="D771" s="63">
+        <f t="shared" si="34"/>
+        <v>0.15686274509803921</v>
+      </c>
+      <c r="E771" s="63">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F771" s="63">
+        <f t="shared" si="34"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="772" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B772" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="C772" s="63">
+        <f t="shared" si="34"/>
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="D772" s="63">
+        <f t="shared" si="34"/>
+        <v>7.8431372549019607E-2</v>
+      </c>
+      <c r="E772" s="63">
+        <f t="shared" si="34"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F772" s="63">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C774" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D774" s="71">
+        <f>SUM(C768:C769)</f>
+        <v>0.43478260869565216</v>
+      </c>
+    </row>
+    <row r="775" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C775" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D775" s="71">
+        <f>SUM(D768:D769)</f>
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="776" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C776" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D776" s="71">
+        <f>SUM(E768:E769)</f>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="777" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C777" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D777" s="71">
+        <f>SUM(F768:F769)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="783" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="784" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C784" s="93" t="s">
+        <v>358</v>
+      </c>
+      <c r="D784" s="94"/>
+      <c r="E784" s="95"/>
+    </row>
+    <row r="785" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C785" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="D785" s="49"/>
+      <c r="E785" s="9">
+        <f>COUNTIFS(Datos!H:H,"Excelente", Datos!W:W,"Totalmente de acuerdo") + COUNTIFS(Datos!H:H,"Muy bueno", Datos!W:W,"Totalmente de acuerdo")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="786" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C786" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="D786" s="38"/>
+      <c r="E786" s="9">
+        <f>COUNTIFS(Datos!H:H,"Excelente", Datos!W:W,"De acuerdo") + COUNTIFS(Datos!H:H,"Muy bueno", Datos!W:W,"De acuerdo")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="787" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C787" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D787" s="38"/>
+      <c r="E787" s="9">
+        <f>COUNTIFS(Datos!H:H,"Excelente", Datos!W:W,"Neutral") + COUNTIFS(Datos!H:H,"Muy bueno", Datos!W:W,"Neutral")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="788" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C788" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="D788" s="38"/>
+      <c r="E788" s="9">
+        <f>COUNTIFS(Datos!H:H,"Excelente", Datos!W:W,"En desacuerdo") + COUNTIFS(Datos!H:H,"Muy bueno", Datos!W:W,"En desacuerdo")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="789" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C789" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="D789" s="42"/>
+      <c r="E789" s="35">
+        <f>COUNTIFS(Datos!H:H,"Excelente", Datos!W:W,"Totalmente en desacuerdo") + COUNTIFS(Datos!H:H,"Muy bueno", Datos!W:W,"Totalmente en desacuerdo")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="790" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C790" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="D790" s="28"/>
+      <c r="E790" s="16">
+        <f>SUM(E785:E789)</f>
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="B677:D677"/>
-    <mergeCell ref="B694:D694"/>
-    <mergeCell ref="B591:D591"/>
-    <mergeCell ref="B608:D608"/>
-    <mergeCell ref="B625:D625"/>
-    <mergeCell ref="B642:D642"/>
-    <mergeCell ref="B659:D659"/>
-    <mergeCell ref="B532:F532"/>
-    <mergeCell ref="C542:D542"/>
-    <mergeCell ref="B552:F552"/>
-    <mergeCell ref="C562:D562"/>
-    <mergeCell ref="B573:D573"/>
-    <mergeCell ref="B490:F490"/>
-    <mergeCell ref="C500:D500"/>
-    <mergeCell ref="B510:F510"/>
-    <mergeCell ref="C520:D520"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B316:E316"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B363:F363"/>
+  <mergeCells count="53">
+    <mergeCell ref="C784:E784"/>
+    <mergeCell ref="B710:F710"/>
+    <mergeCell ref="B721:F721"/>
+    <mergeCell ref="C739:E739"/>
+    <mergeCell ref="B755:F755"/>
+    <mergeCell ref="B766:F766"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C44:D44"/>
     <mergeCell ref="B253:G253"/>
     <mergeCell ref="B262:G262"/>
     <mergeCell ref="B275:F275"/>
@@ -63450,21 +67977,33 @@
     <mergeCell ref="B226:F226"/>
     <mergeCell ref="B158:C158"/>
     <mergeCell ref="B170:D170"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B490:F490"/>
+    <mergeCell ref="C500:D500"/>
+    <mergeCell ref="B510:F510"/>
+    <mergeCell ref="C520:D520"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B316:E316"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B363:F363"/>
     <mergeCell ref="B434:D434"/>
     <mergeCell ref="B454:E454"/>
     <mergeCell ref="B471:E471"/>
     <mergeCell ref="B378:D378"/>
     <mergeCell ref="B396:F396"/>
     <mergeCell ref="B415:F415"/>
+    <mergeCell ref="B532:F532"/>
+    <mergeCell ref="C542:D542"/>
+    <mergeCell ref="B552:F552"/>
+    <mergeCell ref="C562:D562"/>
+    <mergeCell ref="B573:D573"/>
+    <mergeCell ref="B677:D677"/>
+    <mergeCell ref="B694:D694"/>
+    <mergeCell ref="B591:D591"/>
+    <mergeCell ref="B608:D608"/>
+    <mergeCell ref="B625:D625"/>
+    <mergeCell ref="B642:D642"/>
+    <mergeCell ref="B659:D659"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Online Questionnaire Data.xlsx
+++ b/Online Questionnaire Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3F9B6C-3F75-4F35-AC31-978321C446F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECAA293-A1FF-4368-8CFE-17234F3029E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="330">
   <si>
     <t>ID</t>
   </si>
@@ -1065,6 +1065,9 @@
   <si>
     <t>Si se me diera la oportunizad, viviría en Nueva Zelanda o India durante un tiempo.</t>
   </si>
+  <si>
+    <t>P21 (Gender)</t>
+  </si>
 </sst>
 </file>
 
@@ -2022,43 +2025,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2070,10 +2052,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2100,8 +2091,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3081,7 +3084,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1657395567"/>
@@ -3143,7 +3146,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1657398479"/>
@@ -3185,7 +3188,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3222,7 +3225,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3303,7 +3306,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3497,7 +3500,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3623,7 +3626,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3655,7 +3658,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3736,7 +3739,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3955,7 +3958,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4087,7 +4090,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4119,7 +4122,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4193,7 +4196,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4257,7 +4260,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -4422,7 +4425,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4460,7 +4463,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="651593135"/>
@@ -4542,7 +4545,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4574,7 +4577,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="651592719"/>
@@ -4617,7 +4620,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4691,7 +4694,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4877,7 +4880,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4915,7 +4918,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="265446559"/>
@@ -4997,7 +5000,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5029,7 +5032,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="265446143"/>
@@ -5072,7 +5075,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5146,7 +5149,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5411,7 +5414,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5449,7 +5452,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="237391039"/>
@@ -5531,7 +5534,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5563,7 +5566,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="237386047"/>
@@ -5605,7 +5608,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5637,7 +5640,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5724,7 +5727,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6173,7 +6176,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6211,7 +6214,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267384239"/>
@@ -6298,7 +6301,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6330,7 +6333,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267383823"/>
@@ -6372,7 +6375,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6404,7 +6407,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6483,7 +6486,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6736,7 +6739,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6774,7 +6777,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1809772751"/>
@@ -6856,7 +6859,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6888,7 +6891,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1809779823"/>
@@ -6930,7 +6933,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6962,7 +6965,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7036,7 +7039,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7461,7 +7464,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7499,7 +7502,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267380911"/>
@@ -7586,7 +7589,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7618,7 +7621,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267380495"/>
@@ -7660,7 +7663,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7692,7 +7695,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7768,7 +7771,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7987,7 +7990,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -8119,7 +8122,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8151,7 +8154,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8238,7 +8241,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8503,7 +8506,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8541,7 +8544,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="640767216"/>
@@ -8628,7 +8631,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8660,7 +8663,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="640765552"/>
@@ -8702,7 +8705,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8734,7 +8737,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8810,7 +8813,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8954,7 +8957,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -9068,7 +9071,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9100,7 +9103,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9187,7 +9190,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9452,7 +9455,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9490,7 +9493,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="640767632"/>
@@ -9577,7 +9580,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9609,7 +9612,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="640762224"/>
@@ -9651,7 +9654,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9683,7 +9686,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9764,7 +9767,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9983,7 +9986,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -10115,7 +10118,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10147,7 +10150,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10223,7 +10226,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10367,7 +10370,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -10481,7 +10484,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10513,7 +10516,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10600,7 +10603,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10865,7 +10868,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10903,7 +10906,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1548208111"/>
@@ -10990,7 +10993,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11022,7 +11025,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1548190223"/>
@@ -11064,7 +11067,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11096,7 +11099,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11183,7 +11186,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11448,7 +11451,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11486,7 +11489,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1383898831"/>
@@ -11568,7 +11571,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11600,7 +11603,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1383900079"/>
@@ -11642,7 +11645,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11674,7 +11677,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11805,7 +11808,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12070,7 +12073,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12108,7 +12111,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1551808671"/>
@@ -12195,7 +12198,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12227,7 +12230,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1551806591"/>
@@ -12269,7 +12272,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12301,7 +12304,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12384,7 +12387,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12649,7 +12652,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12687,7 +12690,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1687968495"/>
@@ -12769,7 +12772,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12801,7 +12804,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1687976399"/>
@@ -12843,7 +12846,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12875,7 +12878,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12956,7 +12959,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13175,7 +13178,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -13307,7 +13310,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13339,7 +13342,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13415,7 +13418,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13634,7 +13637,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -13766,7 +13769,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13798,7 +13801,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13879,7 +13882,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14098,7 +14101,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -14230,7 +14233,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14262,7 +14265,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14338,7 +14341,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14482,7 +14485,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -14596,7 +14599,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14628,7 +14631,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14709,7 +14712,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14928,7 +14931,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -15060,7 +15063,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15092,7 +15095,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15168,7 +15171,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15387,7 +15390,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -15519,7 +15522,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15551,7 +15554,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15648,7 +15651,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15792,7 +15795,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -15906,7 +15909,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15938,7 +15941,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16019,7 +16022,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16163,7 +16166,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -16279,7 +16282,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16311,7 +16314,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16398,7 +16401,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16554,7 +16557,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16592,7 +16595,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1358560416"/>
@@ -16674,7 +16677,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16706,7 +16709,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1358559584"/>
@@ -16749,7 +16752,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16824,7 +16827,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16986,7 +16989,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17024,7 +17027,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1358562496"/>
@@ -17111,7 +17114,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17143,7 +17146,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1358560832"/>
@@ -17186,7 +17189,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17261,7 +17264,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17417,7 +17420,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17455,7 +17458,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1350877584"/>
@@ -17537,7 +17540,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17569,7 +17572,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1350875920"/>
@@ -17612,7 +17615,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17693,7 +17696,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17855,7 +17858,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17893,7 +17896,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377617904"/>
@@ -17975,7 +17978,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18007,7 +18010,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377617488"/>
@@ -18050,7 +18053,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18138,7 +18141,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -18403,7 +18406,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18441,7 +18444,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="815101552"/>
@@ -18528,7 +18531,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18560,7 +18563,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="815104048"/>
@@ -18602,7 +18605,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -18634,7 +18637,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18708,7 +18711,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -19157,7 +19160,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -19195,7 +19198,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1070881488"/>
@@ -19277,7 +19280,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -19309,7 +19312,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1070875664"/>
@@ -19351,7 +19354,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -19383,7 +19386,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19464,7 +19467,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -19608,7 +19611,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -19722,7 +19725,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -19754,7 +19757,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19828,7 +19831,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -20253,7 +20256,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20291,7 +20294,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1229204880"/>
@@ -20378,7 +20381,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20410,7 +20413,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1229202384"/>
@@ -20452,7 +20455,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -20484,7 +20487,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20571,7 +20574,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -21020,7 +21023,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21058,7 +21061,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1316229376"/>
@@ -21140,7 +21143,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21172,7 +21175,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1316226048"/>
@@ -21214,7 +21217,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -21246,7 +21249,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -21333,7 +21336,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -21782,7 +21785,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21820,7 +21823,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="702719184"/>
@@ -21907,7 +21910,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21939,7 +21942,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="702721680"/>
@@ -21981,7 +21984,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -22013,7 +22016,491 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Ever</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1600" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> f</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>elt</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1600" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> judged because of accent by gender</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráficas!$E$769</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráficas!$B$770:$B$774</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Strongly Agree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Agree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Disagree</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Strongly Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráficas!$E$770:$E$774</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.2631578947368418E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36842105263157893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13157894736842105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26315789473684209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18421052631578946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-963A-4D1E-A387-6001E65D09F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráficas!$F$769</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráficas!$B$770:$B$774</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Strongly Agree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Agree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Disagree</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Strongly Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráficas!$F$770:$F$774</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.14814814814814814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35802469135802467</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14814814814814814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2839506172839506</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1728395061728392E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-963A-4D1E-A387-6001E65D09F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="77361119"/>
+        <c:axId val="77361535"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="77361119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77361535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77361535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77361119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -22089,7 +22576,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -22301,7 +22788,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -22339,7 +22826,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="287666111"/>
@@ -22429,7 +22916,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -22461,7 +22948,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="287658207"/>
@@ -22504,7 +22991,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -22585,7 +23072,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -22779,7 +23266,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -22905,7 +23392,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -22937,7 +23424,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23026,7 +23513,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -23245,7 +23732,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -23377,7 +23864,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -23409,7 +23896,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23490,7 +23977,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -23709,7 +24196,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -23841,7 +24328,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -23873,7 +24360,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23960,7 +24447,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -24161,7 +24648,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -24193,7 +24680,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="498738431"/>
@@ -24275,7 +24762,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -24307,7 +24794,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="498739679"/>
@@ -24350,7 +24837,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -25841,6 +26328,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors43.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -45633,6 +46160,509 @@
 </file>
 
 <file path=xl/charts/style42.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style43.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -50453,6 +51483,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>737235</xdr:colOff>
+      <xdr:row>764</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>491490</xdr:colOff>
+      <xdr:row>778</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18278B2A-8B5D-45AD-BA7C-C0159150F3E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -50795,7 +51861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z120"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -60563,19 +61629,19 @@
       <c r="A1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="98"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -60941,32 +62007,22 @@
       <c r="A22" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="98"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B2:L2"/>
@@ -60979,6 +62035,16 @@
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="B10:L10"/>
     <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -60988,10 +62054,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7370BF-1852-4AC6-B458-05BE13F3FE63}">
-  <dimension ref="B6:H756"/>
+  <dimension ref="B6:H780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A743" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C763" sqref="C763"/>
+    <sheetView tabSelected="1" topLeftCell="A764" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O774" sqref="O774"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61008,10 +62074,10 @@
   <sheetData>
     <row r="6" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="121"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="73"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
@@ -61043,10 +62109,10 @@
     </row>
     <row r="23" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="111" t="s">
+      <c r="C24" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="D24" s="112"/>
+      <c r="D24" s="107"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="29" t="s">
@@ -61077,10 +62143,10 @@
     </row>
     <row r="43" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="113" t="s">
+      <c r="C44" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="120"/>
+      <c r="D44" s="116"/>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" s="32" t="s">
@@ -61126,10 +62192,10 @@
     </row>
     <row r="66" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="117" t="s">
+      <c r="C67" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="117"/>
+      <c r="D67" s="113"/>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="7" t="s">
@@ -61178,10 +62244,10 @@
     </row>
     <row r="81" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="118" t="s">
+      <c r="C82" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="D82" s="119"/>
+      <c r="D82" s="115"/>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="8" t="s">
@@ -61230,10 +62296,10 @@
     </row>
     <row r="98" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="118" t="s">
+      <c r="C99" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="D99" s="119"/>
+      <c r="D99" s="115"/>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="8" t="s">
@@ -61291,10 +62357,10 @@
     </row>
     <row r="116" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="117" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="113" t="s">
+      <c r="C117" s="109" t="s">
         <v>197</v>
       </c>
-      <c r="D117" s="114"/>
+      <c r="D117" s="110"/>
       <c r="E117" s="73"/>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.25">
@@ -61353,10 +62419,10 @@
     </row>
     <row r="132" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C133" s="113" t="s">
+      <c r="C133" s="109" t="s">
         <v>196</v>
       </c>
-      <c r="D133" s="114"/>
+      <c r="D133" s="110"/>
       <c r="E133" s="73"/>
       <c r="F133" s="76"/>
     </row>
@@ -61432,10 +62498,10 @@
     </row>
     <row r="152" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="153" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C153" s="115" t="s">
+      <c r="C153" s="111" t="s">
         <v>198</v>
       </c>
-      <c r="D153" s="116"/>
+      <c r="D153" s="112"/>
     </row>
     <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" s="8" t="s">
@@ -61484,10 +62550,10 @@
     </row>
     <row r="170" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="171" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C171" s="99" t="s">
+      <c r="C171" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="D171" s="100"/>
+      <c r="D171" s="105"/>
     </row>
     <row r="172" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C172" s="8" t="s">
@@ -61545,12 +62611,12 @@
     </row>
     <row r="189" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="190" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B190" s="99" t="s">
+      <c r="B190" s="104" t="s">
         <v>299</v>
       </c>
-      <c r="C190" s="105"/>
-      <c r="D190" s="105"/>
-      <c r="E190" s="100"/>
+      <c r="C190" s="108"/>
+      <c r="D190" s="108"/>
+      <c r="E190" s="105"/>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="17" t="s">
@@ -61647,13 +62713,13 @@
     </row>
     <row r="207" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B208" s="108" t="s">
+      <c r="B208" s="101" t="s">
         <v>300</v>
       </c>
-      <c r="C208" s="109"/>
-      <c r="D208" s="109"/>
-      <c r="E208" s="109"/>
-      <c r="F208" s="110"/>
+      <c r="C208" s="102"/>
+      <c r="D208" s="102"/>
+      <c r="E208" s="102"/>
+      <c r="F208" s="103"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="17" t="s">
@@ -61806,13 +62872,13 @@
     </row>
     <row r="225" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B226" s="108" t="s">
+      <c r="B226" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="C226" s="109"/>
-      <c r="D226" s="109"/>
-      <c r="E226" s="109"/>
-      <c r="F226" s="110"/>
+      <c r="C226" s="102"/>
+      <c r="D226" s="102"/>
+      <c r="E226" s="102"/>
+      <c r="F226" s="103"/>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="17" t="s">
@@ -61971,13 +63037,13 @@
     </row>
     <row r="236" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="237" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B237" s="108" t="s">
+      <c r="B237" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="C237" s="109"/>
-      <c r="D237" s="109"/>
-      <c r="E237" s="109"/>
-      <c r="F237" s="110"/>
+      <c r="C237" s="102"/>
+      <c r="D237" s="102"/>
+      <c r="E237" s="102"/>
+      <c r="F237" s="103"/>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" s="17" t="s">
@@ -62117,14 +63183,14 @@
     </row>
     <row r="252" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="253" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B253" s="99" t="s">
+      <c r="B253" s="104" t="s">
         <v>302</v>
       </c>
-      <c r="C253" s="105"/>
-      <c r="D253" s="105"/>
-      <c r="E253" s="105"/>
-      <c r="F253" s="105"/>
-      <c r="G253" s="100"/>
+      <c r="C253" s="108"/>
+      <c r="D253" s="108"/>
+      <c r="E253" s="108"/>
+      <c r="F253" s="108"/>
+      <c r="G253" s="105"/>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B254" s="17" t="s">
@@ -62261,14 +63327,14 @@
     </row>
     <row r="261" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="262" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B262" s="99" t="s">
+      <c r="B262" s="104" t="s">
         <v>302</v>
       </c>
-      <c r="C262" s="105"/>
-      <c r="D262" s="105"/>
-      <c r="E262" s="105"/>
-      <c r="F262" s="105"/>
-      <c r="G262" s="100"/>
+      <c r="C262" s="108"/>
+      <c r="D262" s="108"/>
+      <c r="E262" s="108"/>
+      <c r="F262" s="108"/>
+      <c r="G262" s="105"/>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="17" t="s">
@@ -62401,13 +63467,13 @@
     </row>
     <row r="275" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="276" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B276" s="108" t="s">
+      <c r="B276" s="101" t="s">
         <v>321</v>
       </c>
-      <c r="C276" s="109"/>
-      <c r="D276" s="109"/>
-      <c r="E276" s="109"/>
-      <c r="F276" s="110"/>
+      <c r="C276" s="102"/>
+      <c r="D276" s="102"/>
+      <c r="E276" s="102"/>
+      <c r="F276" s="103"/>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B277" s="17" t="s">
@@ -62539,13 +63605,13 @@
     </row>
     <row r="290" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="291" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B291" s="108" t="s">
+      <c r="B291" s="101" t="s">
         <v>305</v>
       </c>
-      <c r="C291" s="109"/>
-      <c r="D291" s="109"/>
-      <c r="E291" s="109"/>
-      <c r="F291" s="110"/>
+      <c r="C291" s="102"/>
+      <c r="D291" s="102"/>
+      <c r="E291" s="102"/>
+      <c r="F291" s="103"/>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B292" s="17" t="s">
@@ -62683,13 +63749,13 @@
     </row>
     <row r="301" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="302" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B302" s="108" t="s">
+      <c r="B302" s="101" t="s">
         <v>305</v>
       </c>
-      <c r="C302" s="109"/>
-      <c r="D302" s="109"/>
-      <c r="E302" s="109"/>
-      <c r="F302" s="110"/>
+      <c r="C302" s="102"/>
+      <c r="D302" s="102"/>
+      <c r="E302" s="102"/>
+      <c r="F302" s="103"/>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B303" s="17" t="s">
@@ -62801,12 +63867,12 @@
     </row>
     <row r="315" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="316" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B316" s="99" t="s">
+      <c r="B316" s="104" t="s">
         <v>307</v>
       </c>
-      <c r="C316" s="105"/>
-      <c r="D316" s="105"/>
-      <c r="E316" s="100"/>
+      <c r="C316" s="108"/>
+      <c r="D316" s="108"/>
+      <c r="E316" s="105"/>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317" s="17" t="s">
@@ -62903,13 +63969,13 @@
     </row>
     <row r="333" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="334" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B334" s="108" t="s">
+      <c r="B334" s="101" t="s">
         <v>309</v>
       </c>
-      <c r="C334" s="109"/>
-      <c r="D334" s="109"/>
-      <c r="E334" s="109"/>
-      <c r="F334" s="110"/>
+      <c r="C334" s="102"/>
+      <c r="D334" s="102"/>
+      <c r="E334" s="102"/>
+      <c r="F334" s="103"/>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B335" s="17" t="s">
@@ -63062,13 +64128,13 @@
     </row>
     <row r="351" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="352" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B352" s="108" t="s">
+      <c r="B352" s="101" t="s">
         <v>310</v>
       </c>
-      <c r="C352" s="109"/>
-      <c r="D352" s="109"/>
-      <c r="E352" s="109"/>
-      <c r="F352" s="110"/>
+      <c r="C352" s="102"/>
+      <c r="D352" s="102"/>
+      <c r="E352" s="102"/>
+      <c r="F352" s="103"/>
     </row>
     <row r="353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B353" s="17" t="s">
@@ -63227,13 +64293,13 @@
     </row>
     <row r="362" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="363" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B363" s="108" t="s">
+      <c r="B363" s="101" t="s">
         <v>310</v>
       </c>
-      <c r="C363" s="109"/>
-      <c r="D363" s="109"/>
-      <c r="E363" s="109"/>
-      <c r="F363" s="110"/>
+      <c r="C363" s="102"/>
+      <c r="D363" s="102"/>
+      <c r="E363" s="102"/>
+      <c r="F363" s="103"/>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B364" s="17" t="s">
@@ -63359,10 +64425,10 @@
     </row>
     <row r="377" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="378" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C378" s="99" t="s">
+      <c r="C378" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="D378" s="100"/>
+      <c r="D378" s="105"/>
     </row>
     <row r="379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C379" s="8" t="s">
@@ -63420,13 +64486,13 @@
     </row>
     <row r="395" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="396" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B396" s="108" t="s">
+      <c r="B396" s="101" t="s">
         <v>311</v>
       </c>
-      <c r="C396" s="109"/>
-      <c r="D396" s="109"/>
-      <c r="E396" s="109"/>
-      <c r="F396" s="110"/>
+      <c r="C396" s="102"/>
+      <c r="D396" s="102"/>
+      <c r="E396" s="102"/>
+      <c r="F396" s="103"/>
     </row>
     <row r="397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B397" s="17" t="s">
@@ -63574,13 +64640,13 @@
     </row>
     <row r="414" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="415" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B415" s="108" t="s">
+      <c r="B415" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="C415" s="109"/>
-      <c r="D415" s="109"/>
-      <c r="E415" s="109"/>
-      <c r="F415" s="110"/>
+      <c r="C415" s="102"/>
+      <c r="D415" s="102"/>
+      <c r="E415" s="102"/>
+      <c r="F415" s="103"/>
     </row>
     <row r="416" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B416" s="17" t="s">
@@ -63721,10 +64787,10 @@
     </row>
     <row r="433" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="434" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C434" s="99" t="s">
+      <c r="C434" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="D434" s="100"/>
+      <c r="D434" s="105"/>
     </row>
     <row r="435" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C435" s="8" t="s">
@@ -63782,10 +64848,10 @@
     </row>
     <row r="452" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="453" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C453" s="101" t="s">
+      <c r="C453" s="99" t="s">
         <v>314</v>
       </c>
-      <c r="D453" s="102"/>
+      <c r="D453" s="119"/>
     </row>
     <row r="454" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C454" s="32" t="s">
@@ -63816,7 +64882,7 @@
     </row>
     <row r="459" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="460" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C460" s="103" t="s">
+      <c r="C460" s="120" t="s">
         <v>315</v>
       </c>
       <c r="D460" s="86">
@@ -63825,7 +64891,7 @@
       </c>
     </row>
     <row r="461" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C461" s="104"/>
+      <c r="C461" s="121"/>
       <c r="D461" s="87">
         <f>D460/D455</f>
         <v>0.68</v>
@@ -63833,13 +64899,13 @@
     </row>
     <row r="471" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="472" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B472" s="99" t="s">
+      <c r="B472" s="104" t="s">
         <v>316</v>
       </c>
-      <c r="C472" s="105"/>
-      <c r="D472" s="105"/>
-      <c r="E472" s="105"/>
-      <c r="F472" s="100"/>
+      <c r="C472" s="108"/>
+      <c r="D472" s="108"/>
+      <c r="E472" s="108"/>
+      <c r="F472" s="105"/>
     </row>
     <row r="473" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B473" s="17" t="s">
@@ -63980,10 +65046,10 @@
     </row>
     <row r="481" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="482" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C482" s="106" t="s">
+      <c r="C482" s="117" t="s">
         <v>317</v>
       </c>
-      <c r="D482" s="107"/>
+      <c r="D482" s="118"/>
     </row>
     <row r="483" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C483" s="32" t="s">
@@ -64005,13 +65071,13 @@
     </row>
     <row r="491" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="492" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B492" s="99" t="s">
+      <c r="B492" s="104" t="s">
         <v>318</v>
       </c>
-      <c r="C492" s="105"/>
-      <c r="D492" s="105"/>
-      <c r="E492" s="105"/>
-      <c r="F492" s="100"/>
+      <c r="C492" s="108"/>
+      <c r="D492" s="108"/>
+      <c r="E492" s="108"/>
+      <c r="F492" s="105"/>
     </row>
     <row r="493" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B493" s="17" t="s">
@@ -64152,10 +65218,10 @@
     </row>
     <row r="501" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="502" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C502" s="106" t="s">
+      <c r="C502" s="117" t="s">
         <v>317</v>
       </c>
-      <c r="D502" s="107"/>
+      <c r="D502" s="118"/>
     </row>
     <row r="503" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C503" s="32" t="s">
@@ -64177,13 +65243,13 @@
     </row>
     <row r="513" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="514" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B514" s="99" t="s">
+      <c r="B514" s="104" t="s">
         <v>319</v>
       </c>
-      <c r="C514" s="105"/>
-      <c r="D514" s="105"/>
-      <c r="E514" s="105"/>
-      <c r="F514" s="100"/>
+      <c r="C514" s="108"/>
+      <c r="D514" s="108"/>
+      <c r="E514" s="108"/>
+      <c r="F514" s="105"/>
     </row>
     <row r="515" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B515" s="17" t="s">
@@ -64324,10 +65390,10 @@
     </row>
     <row r="523" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="524" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C524" s="106" t="s">
+      <c r="C524" s="117" t="s">
         <v>317</v>
       </c>
-      <c r="D524" s="107"/>
+      <c r="D524" s="118"/>
     </row>
     <row r="525" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C525" s="32" t="s">
@@ -64349,13 +65415,13 @@
     </row>
     <row r="533" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="534" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B534" s="99" t="s">
+      <c r="B534" s="104" t="s">
         <v>320</v>
       </c>
-      <c r="C534" s="105"/>
-      <c r="D534" s="105"/>
-      <c r="E534" s="105"/>
-      <c r="F534" s="100"/>
+      <c r="C534" s="108"/>
+      <c r="D534" s="108"/>
+      <c r="E534" s="108"/>
+      <c r="F534" s="105"/>
     </row>
     <row r="535" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B535" s="17" t="s">
@@ -64496,10 +65562,10 @@
     </row>
     <row r="543" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="544" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C544" s="106" t="s">
+      <c r="C544" s="117" t="s">
         <v>317</v>
       </c>
-      <c r="D544" s="107"/>
+      <c r="D544" s="118"/>
     </row>
     <row r="545" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C545" s="32" t="s">
@@ -64521,10 +65587,10 @@
     </row>
     <row r="554" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="555" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C555" s="99" t="s">
+      <c r="C555" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="D555" s="100"/>
+      <c r="D555" s="105"/>
     </row>
     <row r="556" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C556" s="8" t="s">
@@ -64582,10 +65648,10 @@
     </row>
     <row r="572" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="573" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C573" s="99" t="s">
+      <c r="C573" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="D573" s="100"/>
+      <c r="D573" s="105"/>
     </row>
     <row r="574" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C574" s="8" t="s">
@@ -64643,10 +65709,10 @@
     </row>
     <row r="589" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="590" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C590" s="99" t="s">
+      <c r="C590" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="D590" s="100"/>
+      <c r="D590" s="105"/>
     </row>
     <row r="591" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C591" s="8" t="s">
@@ -64704,10 +65770,10 @@
     </row>
     <row r="606" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="607" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C607" s="99" t="s">
+      <c r="C607" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="D607" s="100"/>
+      <c r="D607" s="105"/>
     </row>
     <row r="608" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C608" s="8" t="s">
@@ -64765,10 +65831,10 @@
     </row>
     <row r="624" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="625" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C625" s="99" t="s">
+      <c r="C625" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="D625" s="100"/>
+      <c r="D625" s="105"/>
     </row>
     <row r="626" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C626" s="8" t="s">
@@ -64826,10 +65892,10 @@
     </row>
     <row r="643" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="644" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C644" s="99" t="s">
+      <c r="C644" s="104" t="s">
         <v>322</v>
       </c>
-      <c r="D644" s="100"/>
+      <c r="D644" s="105"/>
     </row>
     <row r="645" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C645" s="8" t="s">
@@ -64861,10 +65927,10 @@
     </row>
     <row r="658" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="659" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C659" s="99" t="s">
+      <c r="C659" s="104" t="s">
         <v>323</v>
       </c>
-      <c r="D659" s="100"/>
+      <c r="D659" s="105"/>
     </row>
     <row r="660" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C660" s="8" t="s">
@@ -64886,13 +65952,13 @@
     </row>
     <row r="674" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="675" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B675" s="108" t="s">
+      <c r="B675" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="C675" s="109"/>
-      <c r="D675" s="109"/>
-      <c r="E675" s="109"/>
-      <c r="F675" s="110"/>
+      <c r="C675" s="102"/>
+      <c r="D675" s="102"/>
+      <c r="E675" s="102"/>
+      <c r="F675" s="103"/>
     </row>
     <row r="676" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B676" s="17" t="s">
@@ -65051,13 +66117,13 @@
     </row>
     <row r="685" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="686" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B686" s="108" t="s">
+      <c r="B686" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="C686" s="109"/>
-      <c r="D686" s="109"/>
-      <c r="E686" s="109"/>
-      <c r="F686" s="110"/>
+      <c r="C686" s="102"/>
+      <c r="D686" s="102"/>
+      <c r="E686" s="102"/>
+      <c r="F686" s="103"/>
     </row>
     <row r="687" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B687" s="17" t="s">
@@ -65220,10 +66286,10 @@
     </row>
     <row r="704" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="705" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C705" s="99" t="s">
+      <c r="C705" s="104" t="s">
         <v>327</v>
       </c>
-      <c r="D705" s="100"/>
+      <c r="D705" s="105"/>
     </row>
     <row r="706" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C706" s="8" t="s">
@@ -65281,13 +66347,13 @@
     </row>
     <row r="719" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="720" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B720" s="108" t="s">
+      <c r="B720" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="C720" s="109"/>
-      <c r="D720" s="109"/>
-      <c r="E720" s="109"/>
-      <c r="F720" s="110"/>
+      <c r="C720" s="102"/>
+      <c r="D720" s="102"/>
+      <c r="E720" s="102"/>
+      <c r="F720" s="103"/>
     </row>
     <row r="721" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B721" s="17" t="s">
@@ -65446,13 +66512,13 @@
     </row>
     <row r="730" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="731" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B731" s="108" t="s">
+      <c r="B731" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="C731" s="109"/>
-      <c r="D731" s="109"/>
-      <c r="E731" s="109"/>
-      <c r="F731" s="110"/>
+      <c r="C731" s="102"/>
+      <c r="D731" s="102"/>
+      <c r="E731" s="102"/>
+      <c r="F731" s="103"/>
     </row>
     <row r="732" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B732" s="17" t="s">
@@ -65615,10 +66681,10 @@
     </row>
     <row r="749" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="750" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C750" s="99" t="s">
+      <c r="C750" s="104" t="s">
         <v>326</v>
       </c>
-      <c r="D750" s="100"/>
+      <c r="D750" s="105"/>
     </row>
     <row r="751" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C751" s="8" t="s">
@@ -65638,7 +66704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="753" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C753" s="8" t="s">
         <v>24</v>
       </c>
@@ -65647,7 +66713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="754" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C754" s="8" t="s">
         <v>279</v>
       </c>
@@ -65656,7 +66722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="755" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C755" s="33" t="s">
         <v>280</v>
       </c>
@@ -65665,7 +66731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="756" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C756" s="72" t="s">
         <v>228</v>
       </c>
@@ -65674,8 +66740,216 @@
         <v>34</v>
       </c>
     </row>
+    <row r="767" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="768" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B768" s="104" t="s">
+        <v>329</v>
+      </c>
+      <c r="C768" s="108"/>
+      <c r="D768" s="108"/>
+      <c r="E768" s="108"/>
+      <c r="F768" s="105"/>
+    </row>
+    <row r="769" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B769" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C769" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D769" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="E769" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="F769" s="90" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="770" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B770" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="C770" s="36">
+        <f>COUNTIFS(Datos!D:D, "Masculino",Datos!Y:Y,"Totalmente de acuerdo")</f>
+        <v>2</v>
+      </c>
+      <c r="D770" s="39">
+        <f>COUNTIFS(Datos!D:D, "Femenino",Datos!Y:Y,"Totalmente de acuerdo")</f>
+        <v>12</v>
+      </c>
+      <c r="E770" s="58">
+        <f>C770/C$775</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="F770" s="40">
+        <f>D770/D$775</f>
+        <v>0.14814814814814814</v>
+      </c>
+    </row>
+    <row r="771" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B771" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="C771" s="36">
+        <f>COUNTIFS(Datos!D:D, "Masculino",Datos!Y:Y,"De acuerdo")</f>
+        <v>14</v>
+      </c>
+      <c r="D771" s="39">
+        <f>COUNTIFS(Datos!D:D, "Femenino",Datos!Y:Y,"De acuerdo")</f>
+        <v>29</v>
+      </c>
+      <c r="E771" s="58">
+        <f t="shared" ref="E771:F774" si="35">C771/C$775</f>
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="F771" s="40">
+        <f t="shared" si="35"/>
+        <v>0.35802469135802467</v>
+      </c>
+    </row>
+    <row r="772" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B772" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C772" s="41">
+        <f>COUNTIFS(Datos!D:D, "Masculino",Datos!Y:Y,"Neutral")</f>
+        <v>5</v>
+      </c>
+      <c r="D772" s="42">
+        <f>COUNTIFS(Datos!D:D, "Femenino",Datos!Y:Y,"Neutral")</f>
+        <v>12</v>
+      </c>
+      <c r="E772" s="58">
+        <f t="shared" si="35"/>
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="F772" s="40">
+        <f t="shared" si="35"/>
+        <v>0.14814814814814814</v>
+      </c>
+    </row>
+    <row r="773" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B773" s="84" t="s">
+        <v>279</v>
+      </c>
+      <c r="C773" s="41">
+        <f>COUNTIFS(Datos!D:D, "Masculino",Datos!Y:Y,"En desacuerdo")</f>
+        <v>10</v>
+      </c>
+      <c r="D773" s="42">
+        <f>COUNTIFS(Datos!D:D, "Femenino",Datos!Y:Y,"En desacuerdo")</f>
+        <v>23</v>
+      </c>
+      <c r="E773" s="58">
+        <f t="shared" si="35"/>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="F773" s="40">
+        <f t="shared" si="35"/>
+        <v>0.2839506172839506</v>
+      </c>
+    </row>
+    <row r="774" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B774" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="C774" s="37">
+        <f>COUNTIFS(Datos!D:D, "Masculino",Datos!Y:Y,"Totalmente en desacuerdo")</f>
+        <v>7</v>
+      </c>
+      <c r="D774" s="37">
+        <f>COUNTIFS(Datos!D:D, "Femenino",Datos!Y:Y,"Totalmente en desacuerdo")</f>
+        <v>5</v>
+      </c>
+      <c r="E774" s="58">
+        <f t="shared" si="35"/>
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="F774" s="53">
+        <f t="shared" si="35"/>
+        <v>6.1728395061728392E-2</v>
+      </c>
+    </row>
+    <row r="775" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B775" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C775" s="66">
+        <f>SUM(C770:C774)</f>
+        <v>38</v>
+      </c>
+      <c r="D775" s="66">
+        <f>SUM(D770:D774)</f>
+        <v>81</v>
+      </c>
+      <c r="E775" s="56"/>
+      <c r="F775" s="16"/>
+    </row>
+    <row r="777" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="778" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C778" s="117" t="s">
+        <v>317</v>
+      </c>
+      <c r="D778" s="118"/>
+    </row>
+    <row r="779" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C779" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="D779" s="88">
+        <f>SUM(E770:E771)</f>
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="780" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C780" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="D780" s="53">
+        <f>SUM(F770:F771)</f>
+        <v>0.50617283950617287</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="52">
+    <mergeCell ref="B768:F768"/>
+    <mergeCell ref="C778:D778"/>
+    <mergeCell ref="C750:D750"/>
+    <mergeCell ref="C625:D625"/>
+    <mergeCell ref="C644:D644"/>
+    <mergeCell ref="C659:D659"/>
+    <mergeCell ref="C555:D555"/>
+    <mergeCell ref="C573:D573"/>
+    <mergeCell ref="C590:D590"/>
+    <mergeCell ref="C607:D607"/>
+    <mergeCell ref="C434:D434"/>
+    <mergeCell ref="C453:D453"/>
+    <mergeCell ref="C460:C461"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="C524:D524"/>
+    <mergeCell ref="B534:F534"/>
+    <mergeCell ref="C544:D544"/>
+    <mergeCell ref="B472:F472"/>
+    <mergeCell ref="C482:D482"/>
+    <mergeCell ref="B492:F492"/>
+    <mergeCell ref="C502:D502"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="B253:G253"/>
+    <mergeCell ref="B262:G262"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B316:E316"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B363:F363"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B675:F675"/>
     <mergeCell ref="B686:F686"/>
@@ -65692,40 +66966,6 @@
     <mergeCell ref="C153:D153"/>
     <mergeCell ref="C171:D171"/>
     <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B253:G253"/>
-    <mergeCell ref="B262:G262"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B316:E316"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="B534:F534"/>
-    <mergeCell ref="C544:D544"/>
-    <mergeCell ref="B472:F472"/>
-    <mergeCell ref="C482:D482"/>
-    <mergeCell ref="B492:F492"/>
-    <mergeCell ref="C502:D502"/>
-    <mergeCell ref="C434:D434"/>
-    <mergeCell ref="C453:D453"/>
-    <mergeCell ref="C460:C461"/>
-    <mergeCell ref="B514:F514"/>
-    <mergeCell ref="C524:D524"/>
-    <mergeCell ref="C750:D750"/>
-    <mergeCell ref="C625:D625"/>
-    <mergeCell ref="C644:D644"/>
-    <mergeCell ref="C659:D659"/>
-    <mergeCell ref="C555:D555"/>
-    <mergeCell ref="C573:D573"/>
-    <mergeCell ref="C590:D590"/>
-    <mergeCell ref="C607:D607"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Online Questionnaire Data.xlsx
+++ b/Online Questionnaire Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECAA293-A1FF-4368-8CFE-17234F3029E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C728AE3B-B5E5-4205-A7AC-17F0AF1AB8AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -2025,22 +2025,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2052,22 +2085,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2081,30 +2105,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3084,7 +3084,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1657395567"/>
@@ -3146,7 +3146,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1657398479"/>
@@ -3188,7 +3188,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3225,7 +3225,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3306,7 +3306,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3500,7 +3500,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3626,7 +3626,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3658,7 +3658,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3739,7 +3739,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3958,7 +3958,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4090,7 +4090,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4122,7 +4122,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4196,7 +4196,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4260,7 +4260,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -4425,7 +4425,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4463,7 +4463,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="651593135"/>
@@ -4545,7 +4545,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4577,7 +4577,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="651592719"/>
@@ -4620,7 +4620,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4694,7 +4694,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4880,7 +4880,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4918,7 +4918,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="265446559"/>
@@ -5000,7 +5000,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5032,7 +5032,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="265446143"/>
@@ -5075,7 +5075,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5149,7 +5149,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5414,7 +5414,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5452,7 +5452,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="237391039"/>
@@ -5534,7 +5534,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5566,7 +5566,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="237386047"/>
@@ -5608,7 +5608,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5640,7 +5640,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5727,7 +5727,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6176,7 +6176,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6214,7 +6214,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267384239"/>
@@ -6301,7 +6301,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6333,7 +6333,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267383823"/>
@@ -6375,7 +6375,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6407,7 +6407,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6486,7 +6486,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6739,7 +6739,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6777,7 +6777,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1809772751"/>
@@ -6859,7 +6859,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6891,7 +6891,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1809779823"/>
@@ -6933,7 +6933,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6965,7 +6965,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7039,7 +7039,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7464,7 +7464,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7502,7 +7502,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267380911"/>
@@ -7589,7 +7589,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7621,7 +7621,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267380495"/>
@@ -7663,7 +7663,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7695,7 +7695,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7771,7 +7771,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7990,7 +7990,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -8122,7 +8122,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8154,7 +8154,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8241,7 +8241,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8506,7 +8506,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8544,7 +8544,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="640767216"/>
@@ -8631,7 +8631,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8663,7 +8663,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="640765552"/>
@@ -8705,7 +8705,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8737,7 +8737,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8813,7 +8813,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8957,7 +8957,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -9071,7 +9071,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9103,7 +9103,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9190,7 +9190,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9455,7 +9455,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9493,7 +9493,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="640767632"/>
@@ -9580,7 +9580,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9612,7 +9612,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="640762224"/>
@@ -9654,7 +9654,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9686,7 +9686,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9767,7 +9767,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9986,7 +9986,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -10118,7 +10118,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10150,7 +10150,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10226,7 +10226,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10370,7 +10370,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -10484,7 +10484,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10516,7 +10516,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10603,7 +10603,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10868,7 +10868,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10906,7 +10906,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1548208111"/>
@@ -10993,7 +10993,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11025,7 +11025,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1548190223"/>
@@ -11067,7 +11067,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11099,7 +11099,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11186,7 +11186,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11451,7 +11451,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11489,7 +11489,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1383898831"/>
@@ -11571,7 +11571,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11603,7 +11603,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1383900079"/>
@@ -11645,7 +11645,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11677,7 +11677,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11808,7 +11808,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12073,7 +12073,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12111,7 +12111,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1551808671"/>
@@ -12198,7 +12198,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12230,7 +12230,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1551806591"/>
@@ -12272,7 +12272,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12304,7 +12304,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12387,7 +12387,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12652,7 +12652,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12690,7 +12690,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1687968495"/>
@@ -12772,7 +12772,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12804,7 +12804,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1687976399"/>
@@ -12846,7 +12846,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12878,7 +12878,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12959,7 +12959,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13178,7 +13178,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -13310,7 +13310,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13342,7 +13342,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13418,7 +13418,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13637,7 +13637,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -13769,7 +13769,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13801,7 +13801,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13882,7 +13882,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14101,7 +14101,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -14233,7 +14233,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14265,7 +14265,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14341,7 +14341,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14485,7 +14485,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -14599,7 +14599,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14631,7 +14631,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14712,7 +14712,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14931,7 +14931,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -15063,7 +15063,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15095,7 +15095,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15171,7 +15171,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15390,7 +15390,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -15522,7 +15522,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15554,7 +15554,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15651,7 +15651,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15795,7 +15795,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -15909,7 +15909,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15941,7 +15941,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16022,7 +16022,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16166,7 +16166,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -16282,7 +16282,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16314,7 +16314,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16401,7 +16401,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16557,7 +16557,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16595,7 +16595,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1358560416"/>
@@ -16677,7 +16677,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16709,7 +16709,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1358559584"/>
@@ -16752,7 +16752,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16827,7 +16827,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16989,7 +16989,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17027,7 +17027,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1358562496"/>
@@ -17114,7 +17114,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17146,7 +17146,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1358560832"/>
@@ -17189,7 +17189,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17264,7 +17264,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17420,7 +17420,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17458,7 +17458,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1350877584"/>
@@ -17540,7 +17540,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17572,7 +17572,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1350875920"/>
@@ -17615,7 +17615,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17696,7 +17696,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17858,7 +17858,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17896,7 +17896,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377617904"/>
@@ -17978,7 +17978,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18010,7 +18010,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377617488"/>
@@ -18053,7 +18053,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18141,7 +18141,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -18406,7 +18406,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18444,7 +18444,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="815101552"/>
@@ -18531,7 +18531,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18563,7 +18563,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="815104048"/>
@@ -18605,7 +18605,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -18637,7 +18637,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18711,7 +18711,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -19160,7 +19160,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -19198,7 +19198,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1070881488"/>
@@ -19280,7 +19280,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -19312,7 +19312,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1070875664"/>
@@ -19354,7 +19354,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -19386,7 +19386,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19467,7 +19467,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -19611,7 +19611,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -19725,7 +19725,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -19757,7 +19757,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19831,7 +19831,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -20256,7 +20256,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20294,7 +20294,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1229204880"/>
@@ -20381,7 +20381,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20413,7 +20413,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1229202384"/>
@@ -20455,7 +20455,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -20487,7 +20487,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20574,7 +20574,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -21023,7 +21023,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21061,7 +21061,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1316229376"/>
@@ -21143,7 +21143,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21175,7 +21175,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1316226048"/>
@@ -21217,7 +21217,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -21249,7 +21249,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -21336,7 +21336,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -21785,7 +21785,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21823,7 +21823,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="702719184"/>
@@ -21910,7 +21910,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21942,7 +21942,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="702721680"/>
@@ -21984,7 +21984,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -22016,7 +22016,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -22119,7 +22119,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -22367,7 +22367,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="77361535"/>
@@ -22426,7 +22426,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="77361119"/>
@@ -22468,7 +22468,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -22500,7 +22500,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -22576,7 +22576,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -22788,7 +22788,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -22826,7 +22826,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="287666111"/>
@@ -22916,7 +22916,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -22948,7 +22948,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="287658207"/>
@@ -22991,7 +22991,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23072,7 +23072,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -23266,7 +23266,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -23392,7 +23392,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -23424,7 +23424,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23513,7 +23513,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -23732,7 +23732,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -23864,7 +23864,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -23896,7 +23896,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23977,7 +23977,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -24196,7 +24196,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -24328,7 +24328,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -24360,7 +24360,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -24447,7 +24447,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -24648,7 +24648,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -24680,7 +24680,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="498738431"/>
@@ -24762,7 +24762,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -24794,7 +24794,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="498739679"/>
@@ -24837,7 +24837,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -51861,8 +51861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z120"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52693,7 +52693,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>20</v>
@@ -52774,7 +52774,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>20</v>
@@ -52855,7 +52855,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>19</v>
@@ -52936,7 +52936,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>19</v>
@@ -53017,7 +53017,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>52</v>
@@ -53098,7 +53098,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>19</v>
@@ -53179,7 +53179,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>56</v>
@@ -53260,7 +53260,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>22</v>
@@ -53341,7 +53341,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3">
         <v>20</v>
@@ -53422,7 +53422,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>53</v>
@@ -53503,7 +53503,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
         <v>23</v>
@@ -53584,7 +53584,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
         <v>21</v>
@@ -53665,7 +53665,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3">
         <v>21</v>
@@ -53746,7 +53746,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3">
         <v>52</v>
@@ -53827,7 +53827,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3">
         <v>23</v>
@@ -53908,7 +53908,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>20</v>
@@ -53989,7 +53989,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>27</v>
@@ -54070,7 +54070,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3">
         <v>22</v>
@@ -54151,7 +54151,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3">
         <v>21</v>
@@ -54232,7 +54232,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3">
         <v>20</v>
@@ -54313,7 +54313,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3">
         <v>21</v>
@@ -54394,7 +54394,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3">
         <v>23</v>
@@ -54475,7 +54475,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3">
         <v>22</v>
@@ -54556,7 +54556,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3">
         <v>22</v>
@@ -54637,7 +54637,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3">
         <v>21</v>
@@ -54718,7 +54718,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3">
         <v>22</v>
@@ -54799,7 +54799,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3">
         <v>21</v>
@@ -54880,7 +54880,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3">
         <v>46</v>
@@ -54961,7 +54961,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3">
         <v>23</v>
@@ -55042,7 +55042,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3">
         <v>18</v>
@@ -55123,7 +55123,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3">
         <v>26</v>
@@ -55204,7 +55204,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3">
         <v>24</v>
@@ -55285,7 +55285,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3">
         <v>22</v>
@@ -55366,7 +55366,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3">
         <v>20</v>
@@ -55447,7 +55447,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3">
         <v>52</v>
@@ -55528,7 +55528,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" s="3">
         <v>21</v>
@@ -55609,7 +55609,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" s="3">
         <v>53</v>
@@ -55690,7 +55690,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48" s="3">
         <v>62</v>
@@ -55771,7 +55771,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" s="3">
         <v>45</v>
@@ -55852,7 +55852,7 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50" s="3">
         <v>63</v>
@@ -55933,7 +55933,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51" s="3">
         <v>47</v>
@@ -56014,7 +56014,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3">
         <v>50</v>
@@ -56095,7 +56095,7 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53" s="3">
         <v>47</v>
@@ -56176,7 +56176,7 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" s="3">
         <v>24</v>
@@ -56257,7 +56257,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55" s="3">
         <v>54</v>
@@ -56338,7 +56338,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3">
         <v>61</v>
@@ -56419,7 +56419,7 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57" s="3">
         <v>45</v>
@@ -56500,7 +56500,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3">
         <v>64</v>
@@ -56581,7 +56581,7 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3">
         <v>24</v>
@@ -56662,7 +56662,7 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60" s="3">
         <v>20</v>
@@ -56743,7 +56743,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" s="3">
         <v>23</v>
@@ -56824,7 +56824,7 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3">
         <v>46</v>
@@ -56905,7 +56905,7 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63" s="3">
         <v>27</v>
@@ -56986,7 +56986,7 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" s="3">
         <v>22</v>
@@ -57067,7 +57067,7 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" s="3">
         <v>24</v>
@@ -57148,7 +57148,7 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66" s="3">
         <v>39</v>
@@ -57229,7 +57229,7 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" s="3">
         <v>37</v>
@@ -57310,7 +57310,7 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68" s="3">
         <v>21</v>
@@ -57391,7 +57391,7 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69" s="3">
         <v>27</v>
@@ -57472,7 +57472,7 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70" s="3">
         <v>26</v>
@@ -57553,7 +57553,7 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71" s="3">
         <v>46</v>
@@ -57634,7 +57634,7 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72" s="3">
         <v>24</v>
@@ -57715,7 +57715,7 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73" s="3">
         <v>20</v>
@@ -57796,7 +57796,7 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B74" s="3">
         <v>58</v>
@@ -57877,7 +57877,7 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75" s="3">
         <v>23</v>
@@ -57958,7 +57958,7 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B76" s="3">
         <v>67</v>
@@ -58039,7 +58039,7 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B77" s="3">
         <v>40</v>
@@ -58120,7 +58120,7 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B78" s="3">
         <v>63</v>
@@ -58201,7 +58201,7 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B79" s="3">
         <v>30</v>
@@ -58282,7 +58282,7 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80" s="3">
         <v>23</v>
@@ -58363,7 +58363,7 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B81" s="3">
         <v>43</v>
@@ -58444,7 +58444,7 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82" s="3">
         <v>22</v>
@@ -58525,7 +58525,7 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B83" s="3">
         <v>53</v>
@@ -58606,7 +58606,7 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B84" s="3">
         <v>27</v>
@@ -58687,7 +58687,7 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B85" s="3">
         <v>22</v>
@@ -58768,7 +58768,7 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B86" s="3">
         <v>22</v>
@@ -58849,7 +58849,7 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B87" s="3">
         <v>55</v>
@@ -58930,7 +58930,7 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B88" s="3">
         <v>23</v>
@@ -59011,7 +59011,7 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B89" s="3">
         <v>49</v>
@@ -59092,7 +59092,7 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90" s="3">
         <v>26</v>
@@ -59173,7 +59173,7 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B91" s="3">
         <v>62</v>
@@ -59254,7 +59254,7 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B92" s="3">
         <v>59</v>
@@ -59335,7 +59335,7 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B93" s="3">
         <v>52</v>
@@ -59416,7 +59416,7 @@
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B94" s="3">
         <v>57</v>
@@ -59497,7 +59497,7 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B95" s="3">
         <v>47</v>
@@ -59578,7 +59578,7 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B96" s="3">
         <v>37</v>
@@ -59659,7 +59659,7 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B97" s="3">
         <v>24</v>
@@ -59740,7 +59740,7 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B98" s="3">
         <v>54</v>
@@ -59821,7 +59821,7 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B99" s="3">
         <v>57</v>
@@ -59902,7 +59902,7 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B100" s="3">
         <v>44</v>
@@ -59983,7 +59983,7 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B101" s="3">
         <v>40</v>
@@ -60064,7 +60064,7 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B102" s="3">
         <v>62</v>
@@ -60145,7 +60145,7 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B103" s="3">
         <v>61</v>
@@ -60226,7 +60226,7 @@
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104" s="3">
         <v>62</v>
@@ -60307,7 +60307,7 @@
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B105" s="3">
         <v>60</v>
@@ -60388,7 +60388,7 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B106" s="3">
         <v>48</v>
@@ -60469,7 +60469,7 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B107" s="3">
         <v>45</v>
@@ -60550,7 +60550,7 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B108" s="3">
         <v>59</v>
@@ -60631,7 +60631,7 @@
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B109" s="3">
         <v>45</v>
@@ -60712,7 +60712,7 @@
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B110" s="3">
         <v>54</v>
@@ -60793,7 +60793,7 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B111" s="3">
         <v>53</v>
@@ -60874,7 +60874,7 @@
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112" s="3">
         <v>59</v>
@@ -60955,7 +60955,7 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B113" s="3">
         <v>36</v>
@@ -61036,7 +61036,7 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2">
         <v>53</v>
@@ -61117,7 +61117,7 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B115" s="3">
         <v>36</v>
@@ -61198,7 +61198,7 @@
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B116" s="3">
         <v>18</v>
@@ -61279,7 +61279,7 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B117" s="3">
         <v>53</v>
@@ -61360,7 +61360,7 @@
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B118" s="3">
         <v>23</v>
@@ -61441,7 +61441,7 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B119" s="3">
         <v>26</v>
@@ -61522,7 +61522,7 @@
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B120" s="3">
         <v>21</v>
@@ -61629,19 +61629,19 @@
       <c r="A1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="95" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="98"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -62007,22 +62007,32 @@
       <c r="A22" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="96"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B2:L2"/>
@@ -62035,16 +62045,6 @@
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="B10:L10"/>
     <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62056,7 +62056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7370BF-1852-4AC6-B458-05BE13F3FE63}">
   <dimension ref="B6:H780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A764" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A764" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O774" sqref="O774"/>
     </sheetView>
   </sheetViews>
@@ -62074,10 +62074,10 @@
   <sheetData>
     <row r="6" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="100"/>
+      <c r="D7" s="115"/>
       <c r="E7" s="73"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
@@ -62109,10 +62109,10 @@
     </row>
     <row r="23" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="106" t="s">
+      <c r="C24" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="D24" s="107"/>
+      <c r="D24" s="117"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="29" t="s">
@@ -62143,10 +62143,10 @@
     </row>
     <row r="43" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="109" t="s">
+      <c r="C44" s="110" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="116"/>
+      <c r="D44" s="111"/>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" s="32" t="s">
@@ -62192,10 +62192,10 @@
     </row>
     <row r="66" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="113" t="s">
+      <c r="C67" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="113"/>
+      <c r="D67" s="121"/>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="7" t="s">
@@ -62244,10 +62244,10 @@
     </row>
     <row r="81" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="114" t="s">
+      <c r="C82" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="D82" s="115"/>
+      <c r="D82" s="109"/>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="8" t="s">
@@ -62296,10 +62296,10 @@
     </row>
     <row r="98" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="114" t="s">
+      <c r="C99" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="D99" s="115"/>
+      <c r="D99" s="109"/>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="8" t="s">
@@ -62357,10 +62357,10 @@
     </row>
     <row r="116" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="117" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="109" t="s">
+      <c r="C117" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="D117" s="110"/>
+      <c r="D117" s="118"/>
       <c r="E117" s="73"/>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.25">
@@ -62419,10 +62419,10 @@
     </row>
     <row r="132" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C133" s="109" t="s">
+      <c r="C133" s="110" t="s">
         <v>196</v>
       </c>
-      <c r="D133" s="110"/>
+      <c r="D133" s="118"/>
       <c r="E133" s="73"/>
       <c r="F133" s="76"/>
     </row>
@@ -62498,10 +62498,10 @@
     </row>
     <row r="152" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="153" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C153" s="111" t="s">
+      <c r="C153" s="119" t="s">
         <v>198</v>
       </c>
-      <c r="D153" s="112"/>
+      <c r="D153" s="120"/>
     </row>
     <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" s="8" t="s">
@@ -62550,10 +62550,10 @@
     </row>
     <row r="170" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="171" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C171" s="104" t="s">
+      <c r="C171" s="99" t="s">
         <v>199</v>
       </c>
-      <c r="D171" s="105"/>
+      <c r="D171" s="101"/>
     </row>
     <row r="172" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C172" s="8" t="s">
@@ -62611,12 +62611,12 @@
     </row>
     <row r="189" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="190" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B190" s="104" t="s">
+      <c r="B190" s="99" t="s">
         <v>299</v>
       </c>
-      <c r="C190" s="108"/>
-      <c r="D190" s="108"/>
-      <c r="E190" s="105"/>
+      <c r="C190" s="100"/>
+      <c r="D190" s="100"/>
+      <c r="E190" s="101"/>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="17" t="s">
@@ -62713,13 +62713,13 @@
     </row>
     <row r="207" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B208" s="101" t="s">
+      <c r="B208" s="112" t="s">
         <v>300</v>
       </c>
-      <c r="C208" s="102"/>
-      <c r="D208" s="102"/>
-      <c r="E208" s="102"/>
-      <c r="F208" s="103"/>
+      <c r="C208" s="113"/>
+      <c r="D208" s="113"/>
+      <c r="E208" s="113"/>
+      <c r="F208" s="114"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="17" t="s">
@@ -62872,13 +62872,13 @@
     </row>
     <row r="225" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B226" s="101" t="s">
+      <c r="B226" s="112" t="s">
         <v>301</v>
       </c>
-      <c r="C226" s="102"/>
-      <c r="D226" s="102"/>
-      <c r="E226" s="102"/>
-      <c r="F226" s="103"/>
+      <c r="C226" s="113"/>
+      <c r="D226" s="113"/>
+      <c r="E226" s="113"/>
+      <c r="F226" s="114"/>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="17" t="s">
@@ -63037,13 +63037,13 @@
     </row>
     <row r="236" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="237" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B237" s="101" t="s">
+      <c r="B237" s="112" t="s">
         <v>301</v>
       </c>
-      <c r="C237" s="102"/>
-      <c r="D237" s="102"/>
-      <c r="E237" s="102"/>
-      <c r="F237" s="103"/>
+      <c r="C237" s="113"/>
+      <c r="D237" s="113"/>
+      <c r="E237" s="113"/>
+      <c r="F237" s="114"/>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" s="17" t="s">
@@ -63183,14 +63183,14 @@
     </row>
     <row r="252" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="253" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B253" s="104" t="s">
+      <c r="B253" s="99" t="s">
         <v>302</v>
       </c>
-      <c r="C253" s="108"/>
-      <c r="D253" s="108"/>
-      <c r="E253" s="108"/>
-      <c r="F253" s="108"/>
-      <c r="G253" s="105"/>
+      <c r="C253" s="100"/>
+      <c r="D253" s="100"/>
+      <c r="E253" s="100"/>
+      <c r="F253" s="100"/>
+      <c r="G253" s="101"/>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B254" s="17" t="s">
@@ -63327,14 +63327,14 @@
     </row>
     <row r="261" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="262" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B262" s="104" t="s">
+      <c r="B262" s="99" t="s">
         <v>302</v>
       </c>
-      <c r="C262" s="108"/>
-      <c r="D262" s="108"/>
-      <c r="E262" s="108"/>
-      <c r="F262" s="108"/>
-      <c r="G262" s="105"/>
+      <c r="C262" s="100"/>
+      <c r="D262" s="100"/>
+      <c r="E262" s="100"/>
+      <c r="F262" s="100"/>
+      <c r="G262" s="101"/>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="17" t="s">
@@ -63467,13 +63467,13 @@
     </row>
     <row r="275" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="276" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B276" s="101" t="s">
+      <c r="B276" s="112" t="s">
         <v>321</v>
       </c>
-      <c r="C276" s="102"/>
-      <c r="D276" s="102"/>
-      <c r="E276" s="102"/>
-      <c r="F276" s="103"/>
+      <c r="C276" s="113"/>
+      <c r="D276" s="113"/>
+      <c r="E276" s="113"/>
+      <c r="F276" s="114"/>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B277" s="17" t="s">
@@ -63605,13 +63605,13 @@
     </row>
     <row r="290" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="291" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B291" s="101" t="s">
+      <c r="B291" s="112" t="s">
         <v>305</v>
       </c>
-      <c r="C291" s="102"/>
-      <c r="D291" s="102"/>
-      <c r="E291" s="102"/>
-      <c r="F291" s="103"/>
+      <c r="C291" s="113"/>
+      <c r="D291" s="113"/>
+      <c r="E291" s="113"/>
+      <c r="F291" s="114"/>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B292" s="17" t="s">
@@ -63749,13 +63749,13 @@
     </row>
     <row r="301" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="302" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B302" s="101" t="s">
+      <c r="B302" s="112" t="s">
         <v>305</v>
       </c>
-      <c r="C302" s="102"/>
-      <c r="D302" s="102"/>
-      <c r="E302" s="102"/>
-      <c r="F302" s="103"/>
+      <c r="C302" s="113"/>
+      <c r="D302" s="113"/>
+      <c r="E302" s="113"/>
+      <c r="F302" s="114"/>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B303" s="17" t="s">
@@ -63867,12 +63867,12 @@
     </row>
     <row r="315" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="316" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B316" s="104" t="s">
+      <c r="B316" s="99" t="s">
         <v>307</v>
       </c>
-      <c r="C316" s="108"/>
-      <c r="D316" s="108"/>
-      <c r="E316" s="105"/>
+      <c r="C316" s="100"/>
+      <c r="D316" s="100"/>
+      <c r="E316" s="101"/>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317" s="17" t="s">
@@ -63969,13 +63969,13 @@
     </row>
     <row r="333" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="334" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B334" s="101" t="s">
+      <c r="B334" s="112" t="s">
         <v>309</v>
       </c>
-      <c r="C334" s="102"/>
-      <c r="D334" s="102"/>
-      <c r="E334" s="102"/>
-      <c r="F334" s="103"/>
+      <c r="C334" s="113"/>
+      <c r="D334" s="113"/>
+      <c r="E334" s="113"/>
+      <c r="F334" s="114"/>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B335" s="17" t="s">
@@ -64128,13 +64128,13 @@
     </row>
     <row r="351" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="352" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B352" s="101" t="s">
+      <c r="B352" s="112" t="s">
         <v>310</v>
       </c>
-      <c r="C352" s="102"/>
-      <c r="D352" s="102"/>
-      <c r="E352" s="102"/>
-      <c r="F352" s="103"/>
+      <c r="C352" s="113"/>
+      <c r="D352" s="113"/>
+      <c r="E352" s="113"/>
+      <c r="F352" s="114"/>
     </row>
     <row r="353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B353" s="17" t="s">
@@ -64293,13 +64293,13 @@
     </row>
     <row r="362" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="363" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B363" s="101" t="s">
+      <c r="B363" s="112" t="s">
         <v>310</v>
       </c>
-      <c r="C363" s="102"/>
-      <c r="D363" s="102"/>
-      <c r="E363" s="102"/>
-      <c r="F363" s="103"/>
+      <c r="C363" s="113"/>
+      <c r="D363" s="113"/>
+      <c r="E363" s="113"/>
+      <c r="F363" s="114"/>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B364" s="17" t="s">
@@ -64425,10 +64425,10 @@
     </row>
     <row r="377" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="378" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C378" s="104" t="s">
+      <c r="C378" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="D378" s="105"/>
+      <c r="D378" s="101"/>
     </row>
     <row r="379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C379" s="8" t="s">
@@ -64486,13 +64486,13 @@
     </row>
     <row r="395" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="396" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B396" s="101" t="s">
+      <c r="B396" s="112" t="s">
         <v>311</v>
       </c>
-      <c r="C396" s="102"/>
-      <c r="D396" s="102"/>
-      <c r="E396" s="102"/>
-      <c r="F396" s="103"/>
+      <c r="C396" s="113"/>
+      <c r="D396" s="113"/>
+      <c r="E396" s="113"/>
+      <c r="F396" s="114"/>
     </row>
     <row r="397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B397" s="17" t="s">
@@ -64640,13 +64640,13 @@
     </row>
     <row r="414" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="415" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B415" s="101" t="s">
+      <c r="B415" s="112" t="s">
         <v>313</v>
       </c>
-      <c r="C415" s="102"/>
-      <c r="D415" s="102"/>
-      <c r="E415" s="102"/>
-      <c r="F415" s="103"/>
+      <c r="C415" s="113"/>
+      <c r="D415" s="113"/>
+      <c r="E415" s="113"/>
+      <c r="F415" s="114"/>
     </row>
     <row r="416" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B416" s="17" t="s">
@@ -64787,10 +64787,10 @@
     </row>
     <row r="433" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="434" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C434" s="104" t="s">
+      <c r="C434" s="99" t="s">
         <v>202</v>
       </c>
-      <c r="D434" s="105"/>
+      <c r="D434" s="101"/>
     </row>
     <row r="435" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C435" s="8" t="s">
@@ -64848,10 +64848,10 @@
     </row>
     <row r="452" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="453" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C453" s="99" t="s">
+      <c r="C453" s="104" t="s">
         <v>314</v>
       </c>
-      <c r="D453" s="119"/>
+      <c r="D453" s="105"/>
     </row>
     <row r="454" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C454" s="32" t="s">
@@ -64882,7 +64882,7 @@
     </row>
     <row r="459" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="460" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C460" s="120" t="s">
+      <c r="C460" s="106" t="s">
         <v>315</v>
       </c>
       <c r="D460" s="86">
@@ -64891,7 +64891,7 @@
       </c>
     </row>
     <row r="461" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C461" s="121"/>
+      <c r="C461" s="107"/>
       <c r="D461" s="87">
         <f>D460/D455</f>
         <v>0.68</v>
@@ -64899,13 +64899,13 @@
     </row>
     <row r="471" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="472" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B472" s="104" t="s">
+      <c r="B472" s="99" t="s">
         <v>316</v>
       </c>
-      <c r="C472" s="108"/>
-      <c r="D472" s="108"/>
-      <c r="E472" s="108"/>
-      <c r="F472" s="105"/>
+      <c r="C472" s="100"/>
+      <c r="D472" s="100"/>
+      <c r="E472" s="100"/>
+      <c r="F472" s="101"/>
     </row>
     <row r="473" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B473" s="17" t="s">
@@ -65046,10 +65046,10 @@
     </row>
     <row r="481" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="482" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C482" s="117" t="s">
+      <c r="C482" s="102" t="s">
         <v>317</v>
       </c>
-      <c r="D482" s="118"/>
+      <c r="D482" s="103"/>
     </row>
     <row r="483" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C483" s="32" t="s">
@@ -65071,13 +65071,13 @@
     </row>
     <row r="491" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="492" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B492" s="104" t="s">
+      <c r="B492" s="99" t="s">
         <v>318</v>
       </c>
-      <c r="C492" s="108"/>
-      <c r="D492" s="108"/>
-      <c r="E492" s="108"/>
-      <c r="F492" s="105"/>
+      <c r="C492" s="100"/>
+      <c r="D492" s="100"/>
+      <c r="E492" s="100"/>
+      <c r="F492" s="101"/>
     </row>
     <row r="493" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B493" s="17" t="s">
@@ -65218,10 +65218,10 @@
     </row>
     <row r="501" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="502" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C502" s="117" t="s">
+      <c r="C502" s="102" t="s">
         <v>317</v>
       </c>
-      <c r="D502" s="118"/>
+      <c r="D502" s="103"/>
     </row>
     <row r="503" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C503" s="32" t="s">
@@ -65243,13 +65243,13 @@
     </row>
     <row r="513" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="514" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B514" s="104" t="s">
+      <c r="B514" s="99" t="s">
         <v>319</v>
       </c>
-      <c r="C514" s="108"/>
-      <c r="D514" s="108"/>
-      <c r="E514" s="108"/>
-      <c r="F514" s="105"/>
+      <c r="C514" s="100"/>
+      <c r="D514" s="100"/>
+      <c r="E514" s="100"/>
+      <c r="F514" s="101"/>
     </row>
     <row r="515" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B515" s="17" t="s">
@@ -65390,10 +65390,10 @@
     </row>
     <row r="523" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="524" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C524" s="117" t="s">
+      <c r="C524" s="102" t="s">
         <v>317</v>
       </c>
-      <c r="D524" s="118"/>
+      <c r="D524" s="103"/>
     </row>
     <row r="525" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C525" s="32" t="s">
@@ -65415,13 +65415,13 @@
     </row>
     <row r="533" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="534" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B534" s="104" t="s">
+      <c r="B534" s="99" t="s">
         <v>320</v>
       </c>
-      <c r="C534" s="108"/>
-      <c r="D534" s="108"/>
-      <c r="E534" s="108"/>
-      <c r="F534" s="105"/>
+      <c r="C534" s="100"/>
+      <c r="D534" s="100"/>
+      <c r="E534" s="100"/>
+      <c r="F534" s="101"/>
     </row>
     <row r="535" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B535" s="17" t="s">
@@ -65562,10 +65562,10 @@
     </row>
     <row r="543" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="544" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C544" s="117" t="s">
+      <c r="C544" s="102" t="s">
         <v>317</v>
       </c>
-      <c r="D544" s="118"/>
+      <c r="D544" s="103"/>
     </row>
     <row r="545" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C545" s="32" t="s">
@@ -65587,10 +65587,10 @@
     </row>
     <row r="554" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="555" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C555" s="104" t="s">
+      <c r="C555" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="D555" s="105"/>
+      <c r="D555" s="101"/>
     </row>
     <row r="556" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C556" s="8" t="s">
@@ -65648,10 +65648,10 @@
     </row>
     <row r="572" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="573" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C573" s="104" t="s">
+      <c r="C573" s="99" t="s">
         <v>206</v>
       </c>
-      <c r="D573" s="105"/>
+      <c r="D573" s="101"/>
     </row>
     <row r="574" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C574" s="8" t="s">
@@ -65709,10 +65709,10 @@
     </row>
     <row r="589" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="590" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C590" s="104" t="s">
+      <c r="C590" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="D590" s="105"/>
+      <c r="D590" s="101"/>
     </row>
     <row r="591" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C591" s="8" t="s">
@@ -65770,10 +65770,10 @@
     </row>
     <row r="606" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="607" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C607" s="104" t="s">
+      <c r="C607" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="D607" s="105"/>
+      <c r="D607" s="101"/>
     </row>
     <row r="608" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C608" s="8" t="s">
@@ -65831,10 +65831,10 @@
     </row>
     <row r="624" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="625" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C625" s="104" t="s">
+      <c r="C625" s="99" t="s">
         <v>209</v>
       </c>
-      <c r="D625" s="105"/>
+      <c r="D625" s="101"/>
     </row>
     <row r="626" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C626" s="8" t="s">
@@ -65892,10 +65892,10 @@
     </row>
     <row r="643" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="644" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C644" s="104" t="s">
+      <c r="C644" s="99" t="s">
         <v>322</v>
       </c>
-      <c r="D644" s="105"/>
+      <c r="D644" s="101"/>
     </row>
     <row r="645" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C645" s="8" t="s">
@@ -65927,10 +65927,10 @@
     </row>
     <row r="658" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="659" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C659" s="104" t="s">
+      <c r="C659" s="99" t="s">
         <v>323</v>
       </c>
-      <c r="D659" s="105"/>
+      <c r="D659" s="101"/>
     </row>
     <row r="660" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C660" s="8" t="s">
@@ -65952,13 +65952,13 @@
     </row>
     <row r="674" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="675" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B675" s="101" t="s">
+      <c r="B675" s="112" t="s">
         <v>324</v>
       </c>
-      <c r="C675" s="102"/>
-      <c r="D675" s="102"/>
-      <c r="E675" s="102"/>
-      <c r="F675" s="103"/>
+      <c r="C675" s="113"/>
+      <c r="D675" s="113"/>
+      <c r="E675" s="113"/>
+      <c r="F675" s="114"/>
     </row>
     <row r="676" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B676" s="17" t="s">
@@ -66117,13 +66117,13 @@
     </row>
     <row r="685" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="686" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B686" s="101" t="s">
+      <c r="B686" s="112" t="s">
         <v>324</v>
       </c>
-      <c r="C686" s="102"/>
-      <c r="D686" s="102"/>
-      <c r="E686" s="102"/>
-      <c r="F686" s="103"/>
+      <c r="C686" s="113"/>
+      <c r="D686" s="113"/>
+      <c r="E686" s="113"/>
+      <c r="F686" s="114"/>
     </row>
     <row r="687" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B687" s="17" t="s">
@@ -66286,10 +66286,10 @@
     </row>
     <row r="704" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="705" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C705" s="104" t="s">
+      <c r="C705" s="99" t="s">
         <v>327</v>
       </c>
-      <c r="D705" s="105"/>
+      <c r="D705" s="101"/>
     </row>
     <row r="706" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C706" s="8" t="s">
@@ -66347,13 +66347,13 @@
     </row>
     <row r="719" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="720" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B720" s="101" t="s">
+      <c r="B720" s="112" t="s">
         <v>325</v>
       </c>
-      <c r="C720" s="102"/>
-      <c r="D720" s="102"/>
-      <c r="E720" s="102"/>
-      <c r="F720" s="103"/>
+      <c r="C720" s="113"/>
+      <c r="D720" s="113"/>
+      <c r="E720" s="113"/>
+      <c r="F720" s="114"/>
     </row>
     <row r="721" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B721" s="17" t="s">
@@ -66512,13 +66512,13 @@
     </row>
     <row r="730" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="731" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B731" s="101" t="s">
+      <c r="B731" s="112" t="s">
         <v>325</v>
       </c>
-      <c r="C731" s="102"/>
-      <c r="D731" s="102"/>
-      <c r="E731" s="102"/>
-      <c r="F731" s="103"/>
+      <c r="C731" s="113"/>
+      <c r="D731" s="113"/>
+      <c r="E731" s="113"/>
+      <c r="F731" s="114"/>
     </row>
     <row r="732" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B732" s="17" t="s">
@@ -66681,10 +66681,10 @@
     </row>
     <row r="749" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="750" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C750" s="104" t="s">
+      <c r="C750" s="99" t="s">
         <v>326</v>
       </c>
-      <c r="D750" s="105"/>
+      <c r="D750" s="101"/>
     </row>
     <row r="751" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C751" s="8" t="s">
@@ -66742,13 +66742,13 @@
     </row>
     <row r="767" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="768" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B768" s="104" t="s">
+      <c r="B768" s="99" t="s">
         <v>329</v>
       </c>
-      <c r="C768" s="108"/>
-      <c r="D768" s="108"/>
-      <c r="E768" s="108"/>
-      <c r="F768" s="105"/>
+      <c r="C768" s="100"/>
+      <c r="D768" s="100"/>
+      <c r="E768" s="100"/>
+      <c r="F768" s="101"/>
     </row>
     <row r="769" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B769" s="17" t="s">
@@ -66889,10 +66889,10 @@
     </row>
     <row r="777" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="778" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C778" s="117" t="s">
+      <c r="C778" s="102" t="s">
         <v>317</v>
       </c>
-      <c r="D778" s="118"/>
+      <c r="D778" s="103"/>
     </row>
     <row r="779" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C779" s="32" t="s">
@@ -66914,42 +66914,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B768:F768"/>
-    <mergeCell ref="C778:D778"/>
-    <mergeCell ref="C750:D750"/>
-    <mergeCell ref="C625:D625"/>
-    <mergeCell ref="C644:D644"/>
-    <mergeCell ref="C659:D659"/>
-    <mergeCell ref="C555:D555"/>
-    <mergeCell ref="C573:D573"/>
-    <mergeCell ref="C590:D590"/>
-    <mergeCell ref="C607:D607"/>
-    <mergeCell ref="C434:D434"/>
-    <mergeCell ref="C453:D453"/>
-    <mergeCell ref="C460:C461"/>
-    <mergeCell ref="B514:F514"/>
-    <mergeCell ref="C524:D524"/>
-    <mergeCell ref="B534:F534"/>
-    <mergeCell ref="C544:D544"/>
-    <mergeCell ref="B472:F472"/>
-    <mergeCell ref="C482:D482"/>
-    <mergeCell ref="B492:F492"/>
-    <mergeCell ref="C502:D502"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B253:G253"/>
-    <mergeCell ref="B262:G262"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B316:E316"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B363:F363"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B675:F675"/>
     <mergeCell ref="B686:F686"/>
@@ -66966,6 +66930,42 @@
     <mergeCell ref="C153:D153"/>
     <mergeCell ref="C171:D171"/>
     <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="B253:G253"/>
+    <mergeCell ref="B262:G262"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B316:E316"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="C555:D555"/>
+    <mergeCell ref="C573:D573"/>
+    <mergeCell ref="C590:D590"/>
+    <mergeCell ref="C607:D607"/>
+    <mergeCell ref="C434:D434"/>
+    <mergeCell ref="C453:D453"/>
+    <mergeCell ref="C460:C461"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="C524:D524"/>
+    <mergeCell ref="B534:F534"/>
+    <mergeCell ref="C544:D544"/>
+    <mergeCell ref="B472:F472"/>
+    <mergeCell ref="C482:D482"/>
+    <mergeCell ref="B492:F492"/>
+    <mergeCell ref="C502:D502"/>
+    <mergeCell ref="B768:F768"/>
+    <mergeCell ref="C778:D778"/>
+    <mergeCell ref="C750:D750"/>
+    <mergeCell ref="C625:D625"/>
+    <mergeCell ref="C644:D644"/>
+    <mergeCell ref="C659:D659"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Online Questionnaire Data.xlsx
+++ b/Online Questionnaire Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C728AE3B-B5E5-4205-A7AC-17F0AF1AB8AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D8E377-C46F-4F99-8DC7-073A9A567002}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3143" uniqueCount="332">
   <si>
     <t>ID</t>
   </si>
@@ -1068,6 +1068,12 @@
   <si>
     <t>P21 (Gender)</t>
   </si>
+  <si>
+    <t>P7(Love it) + P13</t>
+  </si>
+  <si>
+    <t>P7(Asset) + P13</t>
+  </si>
 </sst>
 </file>
 
@@ -2025,55 +2031,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2085,13 +2058,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2104,6 +2086,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3084,7 +3090,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1657395567"/>
@@ -3146,7 +3152,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1657398479"/>
@@ -3188,7 +3194,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3225,7 +3231,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3306,7 +3312,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3500,7 +3506,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3626,7 +3632,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3658,7 +3664,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3739,7 +3745,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3958,7 +3964,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4090,7 +4096,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4122,7 +4128,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4196,7 +4202,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4260,7 +4266,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="b"/>
@@ -4425,7 +4431,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4463,7 +4469,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="651593135"/>
@@ -4545,7 +4551,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4577,7 +4583,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="651592719"/>
@@ -4620,7 +4626,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4694,7 +4700,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4880,7 +4886,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4918,7 +4924,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="265446559"/>
@@ -5000,7 +5006,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5032,7 +5038,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="265446143"/>
@@ -5075,7 +5081,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5149,7 +5155,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5414,7 +5420,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5452,7 +5458,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="237391039"/>
@@ -5534,7 +5540,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5566,7 +5572,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="237386047"/>
@@ -5608,7 +5614,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5640,7 +5646,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5727,7 +5733,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6176,7 +6182,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6214,7 +6220,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267384239"/>
@@ -6301,7 +6307,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6333,7 +6339,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267383823"/>
@@ -6375,7 +6381,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6407,7 +6413,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6486,7 +6492,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6739,7 +6745,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6777,7 +6783,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1809772751"/>
@@ -6859,7 +6865,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6891,7 +6897,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1809779823"/>
@@ -6933,7 +6939,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6965,7 +6971,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7039,7 +7045,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7464,7 +7470,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7502,7 +7508,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267380911"/>
@@ -7589,7 +7595,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7621,7 +7627,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="267380495"/>
@@ -7663,7 +7669,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7695,7 +7701,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7771,7 +7777,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7990,7 +7996,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -8122,7 +8128,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8154,7 +8160,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8241,7 +8247,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8506,7 +8512,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8544,7 +8550,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="640767216"/>
@@ -8631,7 +8637,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8663,7 +8669,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="640765552"/>
@@ -8705,7 +8711,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8737,7 +8743,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8813,7 +8819,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8957,7 +8963,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -9071,7 +9077,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9103,7 +9109,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9190,7 +9196,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9455,7 +9461,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9493,7 +9499,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="640767632"/>
@@ -9580,7 +9586,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9612,7 +9618,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="640762224"/>
@@ -9654,7 +9660,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9686,7 +9692,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9767,7 +9773,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9986,7 +9992,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -10118,7 +10124,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10150,7 +10156,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10226,7 +10232,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10370,7 +10376,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -10484,7 +10490,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10516,7 +10522,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10603,7 +10609,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10868,7 +10874,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10906,7 +10912,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1548208111"/>
@@ -10993,7 +10999,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11025,7 +11031,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1548190223"/>
@@ -11067,7 +11073,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11099,7 +11105,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11186,7 +11192,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11451,7 +11457,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11489,7 +11495,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1383898831"/>
@@ -11571,7 +11577,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11603,7 +11609,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1383900079"/>
@@ -11645,7 +11651,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11677,7 +11683,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11808,7 +11814,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12073,7 +12079,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12111,7 +12117,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1551808671"/>
@@ -12198,7 +12204,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12230,7 +12236,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1551806591"/>
@@ -12272,7 +12278,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12304,7 +12310,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12387,7 +12393,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12652,7 +12658,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12690,7 +12696,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1687968495"/>
@@ -12772,7 +12778,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12804,7 +12810,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1687976399"/>
@@ -12846,7 +12852,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12878,7 +12884,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12959,7 +12965,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13178,7 +13184,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -13310,7 +13316,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13342,7 +13348,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13418,7 +13424,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13637,7 +13643,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -13769,7 +13775,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13801,7 +13807,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13882,7 +13888,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14101,7 +14107,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -14233,7 +14239,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14265,7 +14271,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14341,7 +14347,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14485,7 +14491,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -14599,7 +14605,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14631,7 +14637,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14712,7 +14718,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14931,7 +14937,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -15063,7 +15069,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15095,7 +15101,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15171,7 +15177,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15390,7 +15396,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -15522,7 +15528,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15554,7 +15560,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15651,7 +15657,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -15795,7 +15801,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -15909,7 +15915,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15941,7 +15947,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16022,7 +16028,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16166,7 +16172,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -16282,7 +16288,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16314,7 +16320,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16401,7 +16407,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16557,7 +16563,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16595,7 +16601,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1358560416"/>
@@ -16677,7 +16683,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16709,7 +16715,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1358559584"/>
@@ -16752,7 +16758,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16827,7 +16833,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16989,7 +16995,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17027,7 +17033,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1358562496"/>
@@ -17114,7 +17120,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17146,7 +17152,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1358560832"/>
@@ -17189,7 +17195,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17264,7 +17270,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17420,7 +17426,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17458,7 +17464,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1350877584"/>
@@ -17540,7 +17546,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17572,7 +17578,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1350875920"/>
@@ -17615,7 +17621,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17696,7 +17702,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17858,7 +17864,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17896,7 +17902,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377617904"/>
@@ -17978,7 +17984,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18010,7 +18016,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377617488"/>
@@ -18053,7 +18059,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18141,7 +18147,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -18406,7 +18412,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18444,7 +18450,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="815101552"/>
@@ -18531,7 +18537,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18563,7 +18569,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="815104048"/>
@@ -18605,7 +18611,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -18637,7 +18643,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18711,7 +18717,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -19160,7 +19166,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -19198,7 +19204,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1070881488"/>
@@ -19280,7 +19286,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -19312,7 +19318,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1070875664"/>
@@ -19354,7 +19360,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -19386,7 +19392,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19467,7 +19473,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -19611,7 +19617,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -19725,7 +19731,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -19757,7 +19763,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19831,7 +19837,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -20256,7 +20262,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20294,7 +20300,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1229204880"/>
@@ -20381,7 +20387,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20413,7 +20419,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1229202384"/>
@@ -20455,7 +20461,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -20487,7 +20493,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20574,7 +20580,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -21023,7 +21029,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21061,7 +21067,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1316229376"/>
@@ -21143,7 +21149,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21175,7 +21181,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1316226048"/>
@@ -21217,7 +21223,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -21249,7 +21255,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -21336,7 +21342,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -21785,7 +21791,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21823,7 +21829,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="702719184"/>
@@ -21910,7 +21916,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -21942,7 +21948,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="702721680"/>
@@ -21984,7 +21990,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -22016,7 +22022,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -22119,7 +22125,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -22367,7 +22373,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="77361535"/>
@@ -22426,7 +22432,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="77361119"/>
@@ -22468,7 +22474,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -22500,7 +22506,457 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Love it</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráficas!$C$789:$C$793</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Strongly Agree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Agree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Disagree</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Strongly Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráficas!$D$789:$D$793</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30E5-4F4F-A77E-33A52AD998BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Asset</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráficas!$D$799:$D$803</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-30E5-4F4F-A77E-33A52AD998BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="72353200"/>
+        <c:axId val="72351952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="72353200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72351952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="72351952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72353200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -22576,7 +23032,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -22788,7 +23244,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -22826,7 +23282,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="287666111"/>
@@ -22916,7 +23372,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -22948,7 +23404,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="287658207"/>
@@ -22991,7 +23447,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23072,7 +23528,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -23266,7 +23722,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -23392,7 +23848,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -23424,7 +23880,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23513,7 +23969,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -23732,7 +24188,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -23864,7 +24320,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -23896,7 +24352,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23977,7 +24433,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -24196,7 +24652,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -24328,7 +24784,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -24360,7 +24816,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -24447,7 +24903,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -24648,7 +25104,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -24680,7 +25136,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="498738431"/>
@@ -24762,7 +25218,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -24794,7 +25250,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="498739679"/>
@@ -24837,7 +25293,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -26368,6 +26824,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors44.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -46663,6 +47159,509 @@
 </file>
 
 <file path=xl/charts/style43.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style44.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -51519,6 +52518,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1036320</xdr:colOff>
+      <xdr:row>788</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>803</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="33" name="Chart 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C753B1A6-51B3-46CF-8B25-0C24E0A4F0B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -51861,28 +52896,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A120"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="71.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="70.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="70.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.109375" style="1" customWidth="1"/>
     <col min="14" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="26" max="26" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -51962,7 +52997,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -52043,7 +53078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -52124,7 +53159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -52205,7 +53240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -52286,7 +53321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -52367,7 +53402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -52448,7 +53483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -52529,7 +53564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -52610,7 +53645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -52691,7 +53726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -52772,7 +53807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -52853,7 +53888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -52934,7 +53969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -53015,7 +54050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -53096,7 +54131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -53177,7 +54212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -53258,7 +54293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -53339,7 +54374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -53420,7 +54455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -53501,7 +54536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -53582,7 +54617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -53663,7 +54698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -53744,7 +54779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -53825,7 +54860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -53906,7 +54941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -53987,7 +55022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -54068,7 +55103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -54149,7 +55184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -54230,7 +55265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -54311,7 +55346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -54392,7 +55427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -54473,7 +55508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -54554,7 +55589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -54635,7 +55670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -54716,7 +55751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -54797,7 +55832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -54878,7 +55913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -54959,7 +55994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -55040,7 +56075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -55121,7 +56156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -55202,7 +56237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -55283,7 +56318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -55364,7 +56399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -55445,7 +56480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -55526,7 +56561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -55607,7 +56642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -55688,7 +56723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -55769,7 +56804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -55850,7 +56885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -55931,7 +56966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -56012,7 +57047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -56093,7 +57128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -56174,7 +57209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -56255,7 +57290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -56336,7 +57371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -56417,7 +57452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -56498,7 +57533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -56579,7 +57614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -56660,7 +57695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -56741,7 +57776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -56822,7 +57857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -56903,7 +57938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -56984,7 +58019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -57065,7 +58100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -57146,7 +58181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -57227,7 +58262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -57308,7 +58343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -57389,7 +58424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -57470,7 +58505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -57551,7 +58586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -57632,7 +58667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -57713,7 +58748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -57794,7 +58829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -57875,7 +58910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -57956,7 +58991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -58037,7 +59072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -58118,7 +59153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -58199,7 +59234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -58280,7 +59315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -58361,7 +59396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -58442,7 +59477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -58523,7 +59558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -58604,7 +59639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -58685,7 +59720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -58766,7 +59801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -58847,7 +59882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -58928,7 +59963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -59009,7 +60044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -59090,7 +60125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -59171,7 +60206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -59252,7 +60287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -59333,7 +60368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -59414,7 +60449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -59495,7 +60530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -59576,7 +60611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -59657,7 +60692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -59738,7 +60773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -59819,7 +60854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -59900,7 +60935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -59981,7 +61016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -60062,7 +61097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -60143,7 +61178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -60224,7 +61259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -60305,7 +61340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -60386,7 +61421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -60467,7 +61502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -60548,7 +61583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -60629,7 +61664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -60710,7 +61745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -60791,7 +61826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -60872,7 +61907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -60953,7 +61988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -61034,7 +62069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -61115,7 +62150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -61196,7 +62231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -61277,7 +62312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -61358,7 +62393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -61439,7 +62474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -61520,7 +62555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -61620,30 +62655,30 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="98"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>191</v>
       </c>
@@ -61661,7 +62696,7 @@
       <c r="K2" s="93"/>
       <c r="L2" s="94"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>192</v>
       </c>
@@ -61679,7 +62714,7 @@
       <c r="K3" s="93"/>
       <c r="L3" s="94"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>193</v>
       </c>
@@ -61697,7 +62732,7 @@
       <c r="K4" s="93"/>
       <c r="L4" s="94"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>194</v>
       </c>
@@ -61715,7 +62750,7 @@
       <c r="K5" s="93"/>
       <c r="L5" s="94"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>195</v>
       </c>
@@ -61733,7 +62768,7 @@
       <c r="K6" s="93"/>
       <c r="L6" s="94"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>196</v>
       </c>
@@ -61751,7 +62786,7 @@
       <c r="K7" s="93"/>
       <c r="L7" s="94"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>197</v>
       </c>
@@ -61769,7 +62804,7 @@
       <c r="K8" s="93"/>
       <c r="L8" s="94"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>198</v>
       </c>
@@ -61787,7 +62822,7 @@
       <c r="K9" s="93"/>
       <c r="L9" s="94"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>199</v>
       </c>
@@ -61805,7 +62840,7 @@
       <c r="K10" s="93"/>
       <c r="L10" s="94"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>200</v>
       </c>
@@ -61823,7 +62858,7 @@
       <c r="K11" s="93"/>
       <c r="L11" s="94"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>201</v>
       </c>
@@ -61841,7 +62876,7 @@
       <c r="K12" s="93"/>
       <c r="L12" s="94"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>202</v>
       </c>
@@ -61859,7 +62894,7 @@
       <c r="K13" s="93"/>
       <c r="L13" s="94"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>203</v>
       </c>
@@ -61877,7 +62912,7 @@
       <c r="K14" s="93"/>
       <c r="L14" s="94"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>204</v>
       </c>
@@ -61895,7 +62930,7 @@
       <c r="K15" s="93"/>
       <c r="L15" s="94"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>205</v>
       </c>
@@ -61913,7 +62948,7 @@
       <c r="K16" s="93"/>
       <c r="L16" s="94"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>206</v>
       </c>
@@ -61931,7 +62966,7 @@
       <c r="K17" s="93"/>
       <c r="L17" s="94"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>207</v>
       </c>
@@ -61949,7 +62984,7 @@
       <c r="K18" s="93"/>
       <c r="L18" s="94"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>208</v>
       </c>
@@ -61967,7 +63002,7 @@
       <c r="K19" s="93"/>
       <c r="L19" s="94"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>209</v>
       </c>
@@ -61985,7 +63020,7 @@
       <c r="K20" s="93"/>
       <c r="L20" s="94"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>210</v>
       </c>
@@ -62003,36 +63038,26 @@
       <c r="K21" s="93"/>
       <c r="L21" s="94"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="98"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B2:L2"/>
@@ -62045,6 +63070,16 @@
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="B10:L10"/>
     <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62054,33 +63089,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7370BF-1852-4AC6-B458-05BE13F3FE63}">
-  <dimension ref="B6:H780"/>
+  <dimension ref="B6:H804"/>
   <sheetViews>
-    <sheetView topLeftCell="A764" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O774" sqref="O774"/>
+    <sheetView tabSelected="1" topLeftCell="A783" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L797" sqref="L797"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="17.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="9.109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="104" t="s">
+    <row r="6" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="115"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="73"/>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="23" t="s">
         <v>231</v>
       </c>
@@ -62089,7 +63124,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="25" t="s">
         <v>232</v>
       </c>
@@ -62098,7 +63133,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="27" t="s">
         <v>228</v>
       </c>
@@ -62107,14 +63142,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="116" t="s">
+    <row r="23" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="D24" s="117"/>
+      <c r="D24" s="107"/>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" s="29" t="s">
         <v>229</v>
       </c>
@@ -62123,7 +63158,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="13" t="s">
         <v>230</v>
       </c>
@@ -62132,7 +63167,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="31" t="s">
         <v>228</v>
       </c>
@@ -62141,14 +63176,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="110" t="s">
+    <row r="43" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="111"/>
+      <c r="D44" s="116"/>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" s="32" t="s">
         <v>233</v>
       </c>
@@ -62157,7 +63192,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C46" s="33" t="s">
         <v>232</v>
       </c>
@@ -62166,7 +63201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C47" s="27" t="s">
         <v>228</v>
       </c>
@@ -62175,13 +63210,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="62" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C63" s="74" t="s">
         <v>276</v>
       </c>
@@ -62190,14 +63225,14 @@
         <v>35.815126050420169</v>
       </c>
     </row>
-    <row r="66" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="121" t="s">
+    <row r="66" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C67" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="121"/>
+      <c r="D67" s="113"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C68" s="7" t="s">
         <v>234</v>
       </c>
@@ -62206,7 +63241,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" s="7" t="s">
         <v>281</v>
       </c>
@@ -62215,7 +63250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C70" s="7" t="s">
         <v>282</v>
       </c>
@@ -62224,7 +63259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C71" s="11" t="s">
         <v>235</v>
       </c>
@@ -62233,7 +63268,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C72" s="12" t="s">
         <v>228</v>
       </c>
@@ -62242,14 +63277,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="108" t="s">
+    <row r="81" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C82" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="D82" s="109"/>
+      <c r="D82" s="115"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" s="8" t="s">
         <v>236</v>
       </c>
@@ -62258,7 +63293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" s="8" t="s">
         <v>237</v>
       </c>
@@ -62267,7 +63302,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C85" s="8" t="s">
         <v>238</v>
       </c>
@@ -62276,7 +63311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C86" s="13" t="s">
         <v>239</v>
       </c>
@@ -62285,7 +63320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C87" s="15" t="s">
         <v>228</v>
       </c>
@@ -62294,14 +63329,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="108" t="s">
+    <row r="98" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C99" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="D99" s="109"/>
+      <c r="D99" s="115"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" s="8" t="s">
         <v>240</v>
       </c>
@@ -62310,7 +63345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" s="8" t="s">
         <v>241</v>
       </c>
@@ -62319,7 +63354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102" s="8" t="s">
         <v>242</v>
       </c>
@@ -62328,7 +63363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" s="8" t="s">
         <v>243</v>
       </c>
@@ -62337,7 +63372,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C104" s="33" t="s">
         <v>244</v>
       </c>
@@ -62346,7 +63381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C105" s="15" t="s">
         <v>228</v>
       </c>
@@ -62355,15 +63390,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="110" t="s">
+    <row r="116" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="117" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C117" s="109" t="s">
         <v>197</v>
       </c>
-      <c r="D117" s="118"/>
+      <c r="D117" s="110"/>
       <c r="E117" s="73"/>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C118" s="78" t="s">
         <v>264</v>
       </c>
@@ -62372,7 +63407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C119" s="79" t="s">
         <v>265</v>
       </c>
@@ -62381,7 +63416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C120" s="79" t="s">
         <v>296</v>
       </c>
@@ -62390,7 +63425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C121" s="79" t="s">
         <v>297</v>
       </c>
@@ -62399,7 +63434,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C122" s="80" t="s">
         <v>232</v>
       </c>
@@ -62408,7 +63443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C123" s="75" t="s">
         <v>228</v>
       </c>
@@ -62417,16 +63452,16 @@
         <v>119</v>
       </c>
     </row>
-    <row r="132" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="133" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C133" s="110" t="s">
+    <row r="132" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="133" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C133" s="109" t="s">
         <v>196</v>
       </c>
-      <c r="D133" s="118"/>
+      <c r="D133" s="110"/>
       <c r="E133" s="73"/>
       <c r="F133" s="76"/>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C134" s="32" t="s">
         <v>267</v>
       </c>
@@ -62436,7 +63471,7 @@
       </c>
       <c r="E134" s="10"/>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C135" s="79" t="s">
         <v>268</v>
       </c>
@@ -62446,7 +63481,7 @@
       </c>
       <c r="E135" s="10"/>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C136" s="79" t="s">
         <v>269</v>
       </c>
@@ -62456,7 +63491,7 @@
       </c>
       <c r="E136" s="10"/>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C137" s="79" t="s">
         <v>298</v>
       </c>
@@ -62466,7 +63501,7 @@
       </c>
       <c r="E137" s="10"/>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C138" s="79" t="s">
         <v>270</v>
       </c>
@@ -62476,7 +63511,7 @@
       </c>
       <c r="E138" s="10"/>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C139" s="79" t="s">
         <v>271</v>
       </c>
@@ -62486,7 +63521,7 @@
       </c>
       <c r="E139" s="10"/>
     </row>
-    <row r="140" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C140" s="80" t="s">
         <v>232</v>
       </c>
@@ -62496,14 +63531,14 @@
       </c>
       <c r="E140" s="25"/>
     </row>
-    <row r="152" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C153" s="119" t="s">
+    <row r="152" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C153" s="111" t="s">
         <v>198</v>
       </c>
-      <c r="D153" s="120"/>
+      <c r="D153" s="112"/>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C154" s="8" t="s">
         <v>272</v>
       </c>
@@ -62512,7 +63547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C155" s="8" t="s">
         <v>273</v>
       </c>
@@ -62521,7 +63556,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C156" s="8" t="s">
         <v>274</v>
       </c>
@@ -62530,7 +63565,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="157" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C157" s="33" t="s">
         <v>275</v>
       </c>
@@ -62539,7 +63574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C158" s="77" t="s">
         <v>228</v>
       </c>
@@ -62548,14 +63583,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="170" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C171" s="99" t="s">
+    <row r="170" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C171" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="D171" s="101"/>
+      <c r="D171" s="105"/>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C172" s="8" t="s">
         <v>277</v>
       </c>
@@ -62564,7 +63599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C173" s="8" t="s">
         <v>278</v>
       </c>
@@ -62573,7 +63608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C174" s="8" t="s">
         <v>24</v>
       </c>
@@ -62582,7 +63617,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C175" s="8" t="s">
         <v>279</v>
       </c>
@@ -62591,7 +63626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C176" s="33" t="s">
         <v>280</v>
       </c>
@@ -62600,7 +63635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C177" s="38" t="s">
         <v>228</v>
       </c>
@@ -62609,16 +63644,16 @@
         <v>119</v>
       </c>
     </row>
-    <row r="189" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B190" s="99" t="s">
+    <row r="189" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B190" s="104" t="s">
         <v>299</v>
       </c>
-      <c r="C190" s="100"/>
-      <c r="D190" s="100"/>
-      <c r="E190" s="101"/>
+      <c r="C190" s="108"/>
+      <c r="D190" s="108"/>
+      <c r="E190" s="105"/>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B191" s="17" t="s">
         <v>284</v>
       </c>
@@ -62632,7 +63667,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B192" s="8" t="s">
         <v>234</v>
       </c>
@@ -62649,7 +63684,7 @@
         <v>0.49056603773584906</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
         <v>281</v>
       </c>
@@ -62666,7 +63701,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B194" s="13" t="s">
         <v>282</v>
       </c>
@@ -62683,7 +63718,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="195" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B195" s="43" t="s">
         <v>235</v>
       </c>
@@ -62700,7 +63735,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="196" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B196" s="15" t="s">
         <v>228</v>
       </c>
@@ -62711,17 +63746,17 @@
       <c r="D196" s="45"/>
       <c r="E196" s="16"/>
     </row>
-    <row r="207" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B208" s="112" t="s">
+    <row r="207" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B208" s="101" t="s">
         <v>300</v>
       </c>
-      <c r="C208" s="113"/>
-      <c r="D208" s="113"/>
-      <c r="E208" s="113"/>
-      <c r="F208" s="114"/>
+      <c r="C208" s="102"/>
+      <c r="D208" s="102"/>
+      <c r="E208" s="102"/>
+      <c r="F208" s="103"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="17" t="s">
         <v>286</v>
       </c>
@@ -62738,7 +63773,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="8" t="s">
         <v>277</v>
       </c>
@@ -62759,7 +63794,7 @@
         <v>0.20987654320987653</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" s="8" t="s">
         <v>278</v>
       </c>
@@ -62780,7 +63815,7 @@
         <v>0.32098765432098764</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212" s="13" t="s">
         <v>24</v>
       </c>
@@ -62801,7 +63836,7 @@
         <v>0.20987654320987653</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B213" s="47" t="s">
         <v>279</v>
       </c>
@@ -62822,7 +63857,7 @@
         <v>0.1728395061728395</v>
       </c>
     </row>
-    <row r="214" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B214" s="43" t="s">
         <v>280</v>
       </c>
@@ -62843,7 +63878,7 @@
         <v>8.6419753086419748E-2</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B215" s="48" t="s">
         <v>228</v>
       </c>
@@ -62858,7 +63893,7 @@
       <c r="E215" s="21"/>
       <c r="F215" s="22"/>
     </row>
-    <row r="216" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B216" s="43" t="s">
         <v>291</v>
       </c>
@@ -62870,17 +63905,17 @@
       <c r="E216" s="37"/>
       <c r="F216" s="34"/>
     </row>
-    <row r="225" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B226" s="112" t="s">
+    <row r="225" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B226" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="C226" s="113"/>
-      <c r="D226" s="113"/>
-      <c r="E226" s="113"/>
-      <c r="F226" s="114"/>
+      <c r="C226" s="102"/>
+      <c r="D226" s="102"/>
+      <c r="E226" s="102"/>
+      <c r="F226" s="103"/>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B227" s="17" t="s">
         <v>286</v>
       </c>
@@ -62897,7 +63932,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B228" s="8" t="s">
         <v>277</v>
       </c>
@@ -62918,7 +63953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B229" s="8" t="s">
         <v>278</v>
       </c>
@@ -62939,7 +63974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B230" s="13" t="s">
         <v>24</v>
       </c>
@@ -62960,7 +63995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B231" s="47" t="s">
         <v>279</v>
       </c>
@@ -62981,7 +64016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B232" s="43" t="s">
         <v>280</v>
       </c>
@@ -63002,7 +64037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B233" s="48" t="s">
         <v>228</v>
       </c>
@@ -63023,7 +64058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B234" s="43" t="s">
         <v>291</v>
       </c>
@@ -63035,17 +64070,17 @@
       <c r="E234" s="37"/>
       <c r="F234" s="34"/>
     </row>
-    <row r="236" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B237" s="112" t="s">
+    <row r="236" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B237" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="C237" s="113"/>
-      <c r="D237" s="113"/>
-      <c r="E237" s="113"/>
-      <c r="F237" s="114"/>
+      <c r="C237" s="102"/>
+      <c r="D237" s="102"/>
+      <c r="E237" s="102"/>
+      <c r="F237" s="103"/>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B238" s="17" t="s">
         <v>286</v>
       </c>
@@ -63062,7 +64097,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B239" s="8" t="s">
         <v>277</v>
       </c>
@@ -63083,7 +64118,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B240" s="8" t="s">
         <v>278</v>
       </c>
@@ -63104,7 +64139,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B241" s="13" t="s">
         <v>24</v>
       </c>
@@ -63125,7 +64160,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B242" s="47" t="s">
         <v>279</v>
       </c>
@@ -63146,7 +64181,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="243" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B243" s="43" t="s">
         <v>280</v>
       </c>
@@ -63167,32 +64202,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B244" s="54"/>
       <c r="C244" s="54"/>
       <c r="D244" s="54"/>
       <c r="E244" s="54"/>
       <c r="F244" s="54"/>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B245" s="54"/>
       <c r="C245" s="54"/>
       <c r="D245" s="54"/>
       <c r="E245" s="54"/>
       <c r="F245" s="54"/>
     </row>
-    <row r="252" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B253" s="99" t="s">
+    <row r="252" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B253" s="104" t="s">
         <v>302</v>
       </c>
-      <c r="C253" s="100"/>
-      <c r="D253" s="100"/>
-      <c r="E253" s="100"/>
-      <c r="F253" s="100"/>
-      <c r="G253" s="101"/>
+      <c r="C253" s="108"/>
+      <c r="D253" s="108"/>
+      <c r="E253" s="108"/>
+      <c r="F253" s="108"/>
+      <c r="G253" s="105"/>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B254" s="17" t="s">
         <v>284</v>
       </c>
@@ -63212,7 +64247,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B255" s="8" t="s">
         <v>234</v>
       </c>
@@ -63237,7 +64272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B256" s="8" t="s">
         <v>281</v>
       </c>
@@ -63262,7 +64297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B257" s="13" t="s">
         <v>282</v>
       </c>
@@ -63287,7 +64322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B258" s="43" t="s">
         <v>235</v>
       </c>
@@ -63312,7 +64347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B259" s="15" t="s">
         <v>228</v>
       </c>
@@ -63325,18 +64360,18 @@
       <c r="F259" s="45"/>
       <c r="G259" s="16"/>
     </row>
-    <row r="261" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B262" s="99" t="s">
+    <row r="261" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B262" s="104" t="s">
         <v>302</v>
       </c>
-      <c r="C262" s="100"/>
-      <c r="D262" s="100"/>
-      <c r="E262" s="100"/>
-      <c r="F262" s="100"/>
-      <c r="G262" s="101"/>
+      <c r="C262" s="108"/>
+      <c r="D262" s="108"/>
+      <c r="E262" s="108"/>
+      <c r="F262" s="108"/>
+      <c r="G262" s="105"/>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B263" s="17" t="s">
         <v>284</v>
       </c>
@@ -63356,7 +64391,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B264" s="8" t="s">
         <v>234</v>
       </c>
@@ -63382,7 +64417,7 @@
       </c>
       <c r="H264" s="59"/>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B265" s="8" t="s">
         <v>281</v>
       </c>
@@ -63407,7 +64442,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B266" s="13" t="s">
         <v>282</v>
       </c>
@@ -63432,7 +64467,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="267" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B267" s="43" t="s">
         <v>235</v>
       </c>
@@ -63457,7 +64492,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B268" s="57"/>
       <c r="C268" s="35"/>
       <c r="D268" s="35"/>
@@ -63465,17 +64500,17 @@
       <c r="F268" s="35"/>
       <c r="G268" s="35"/>
     </row>
-    <row r="275" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B276" s="112" t="s">
+    <row r="275" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B276" s="101" t="s">
         <v>321</v>
       </c>
-      <c r="C276" s="113"/>
-      <c r="D276" s="113"/>
-      <c r="E276" s="113"/>
-      <c r="F276" s="114"/>
+      <c r="C276" s="102"/>
+      <c r="D276" s="102"/>
+      <c r="E276" s="102"/>
+      <c r="F276" s="103"/>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B277" s="17" t="s">
         <v>304</v>
       </c>
@@ -63492,7 +64527,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B278" s="8" t="s">
         <v>303</v>
       </c>
@@ -63513,7 +64548,7 @@
         <v>6.1728395061728392E-2</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B279" s="8" t="s">
         <v>273</v>
       </c>
@@ -63534,7 +64569,7 @@
         <v>0.41975308641975306</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B280" s="13" t="s">
         <v>274</v>
       </c>
@@ -63555,7 +64590,7 @@
         <v>0.35802469135802467</v>
       </c>
     </row>
-    <row r="281" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B281" s="47" t="s">
         <v>275</v>
       </c>
@@ -63576,7 +64611,7 @@
         <v>0.16049382716049382</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B282" s="48" t="s">
         <v>228</v>
       </c>
@@ -63591,7 +64626,7 @@
       <c r="E282" s="21"/>
       <c r="F282" s="22"/>
     </row>
-    <row r="283" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B283" s="43" t="s">
         <v>291</v>
       </c>
@@ -63603,17 +64638,17 @@
       <c r="E283" s="37"/>
       <c r="F283" s="34"/>
     </row>
-    <row r="290" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B291" s="112" t="s">
+    <row r="290" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B291" s="101" t="s">
         <v>305</v>
       </c>
-      <c r="C291" s="113"/>
-      <c r="D291" s="113"/>
-      <c r="E291" s="113"/>
-      <c r="F291" s="114"/>
+      <c r="C291" s="102"/>
+      <c r="D291" s="102"/>
+      <c r="E291" s="102"/>
+      <c r="F291" s="103"/>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B292" s="17" t="s">
         <v>304</v>
       </c>
@@ -63630,7 +64665,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B293" s="8" t="s">
         <v>303</v>
       </c>
@@ -63651,7 +64686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B294" s="8" t="s">
         <v>273</v>
       </c>
@@ -63672,7 +64707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B295" s="13" t="s">
         <v>274</v>
       </c>
@@ -63693,7 +64728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B296" s="47" t="s">
         <v>275</v>
       </c>
@@ -63714,7 +64749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B297" s="48" t="s">
         <v>228</v>
       </c>
@@ -63735,7 +64770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B298" s="43" t="s">
         <v>291</v>
       </c>
@@ -63747,17 +64782,17 @@
       <c r="E298" s="37"/>
       <c r="F298" s="34"/>
     </row>
-    <row r="301" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B302" s="112" t="s">
+    <row r="301" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B302" s="101" t="s">
         <v>305</v>
       </c>
-      <c r="C302" s="113"/>
-      <c r="D302" s="113"/>
-      <c r="E302" s="113"/>
-      <c r="F302" s="114"/>
+      <c r="C302" s="102"/>
+      <c r="D302" s="102"/>
+      <c r="E302" s="102"/>
+      <c r="F302" s="103"/>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B303" s="17" t="s">
         <v>304</v>
       </c>
@@ -63774,7 +64809,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B304" s="8" t="s">
         <v>303</v>
       </c>
@@ -63795,7 +64830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B305" s="8" t="s">
         <v>273</v>
       </c>
@@ -63816,7 +64851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B306" s="13" t="s">
         <v>274</v>
       </c>
@@ -63837,7 +64872,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="307" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B307" s="47" t="s">
         <v>275</v>
       </c>
@@ -63858,23 +64893,23 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B308" s="57"/>
       <c r="C308" s="60"/>
       <c r="D308" s="60"/>
       <c r="E308" s="60"/>
       <c r="F308" s="60"/>
     </row>
-    <row r="315" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B316" s="99" t="s">
+    <row r="315" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B316" s="104" t="s">
         <v>307</v>
       </c>
-      <c r="C316" s="100"/>
-      <c r="D316" s="100"/>
-      <c r="E316" s="101"/>
+      <c r="C316" s="108"/>
+      <c r="D316" s="108"/>
+      <c r="E316" s="105"/>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B317" s="17" t="s">
         <v>284</v>
       </c>
@@ -63888,7 +64923,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B318" s="8" t="s">
         <v>234</v>
       </c>
@@ -63905,7 +64940,7 @@
         <v>0.47169811320754718</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B319" s="8" t="s">
         <v>281</v>
       </c>
@@ -63922,7 +64957,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B320" s="13" t="s">
         <v>282</v>
       </c>
@@ -63939,7 +64974,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="321" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B321" s="43" t="s">
         <v>235</v>
       </c>
@@ -63956,7 +64991,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="322" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B322" s="15" t="s">
         <v>228</v>
       </c>
@@ -63967,17 +65002,17 @@
       <c r="D322" s="45"/>
       <c r="E322" s="16"/>
     </row>
-    <row r="333" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B334" s="112" t="s">
+    <row r="333" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B334" s="101" t="s">
         <v>309</v>
       </c>
-      <c r="C334" s="113"/>
-      <c r="D334" s="113"/>
-      <c r="E334" s="113"/>
-      <c r="F334" s="114"/>
+      <c r="C334" s="102"/>
+      <c r="D334" s="102"/>
+      <c r="E334" s="102"/>
+      <c r="F334" s="103"/>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B335" s="17" t="s">
         <v>306</v>
       </c>
@@ -63994,7 +65029,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B336" s="8" t="s">
         <v>277</v>
       </c>
@@ -64015,7 +65050,7 @@
         <v>0.16049382716049382</v>
       </c>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B337" s="8" t="s">
         <v>278</v>
       </c>
@@ -64036,7 +65071,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B338" s="13" t="s">
         <v>24</v>
       </c>
@@ -64057,7 +65092,7 @@
         <v>0.30864197530864196</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B339" s="47" t="s">
         <v>279</v>
       </c>
@@ -64078,7 +65113,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="340" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B340" s="43" t="s">
         <v>280</v>
       </c>
@@ -64099,7 +65134,7 @@
         <v>8.6419753086419748E-2</v>
       </c>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B341" s="48" t="s">
         <v>228</v>
       </c>
@@ -64114,7 +65149,7 @@
       <c r="E341" s="21"/>
       <c r="F341" s="22"/>
     </row>
-    <row r="342" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B342" s="43" t="s">
         <v>291</v>
       </c>
@@ -64126,17 +65161,17 @@
       <c r="E342" s="37"/>
       <c r="F342" s="34"/>
     </row>
-    <row r="351" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B352" s="112" t="s">
+    <row r="351" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B352" s="101" t="s">
         <v>310</v>
       </c>
-      <c r="C352" s="113"/>
-      <c r="D352" s="113"/>
-      <c r="E352" s="113"/>
-      <c r="F352" s="114"/>
+      <c r="C352" s="102"/>
+      <c r="D352" s="102"/>
+      <c r="E352" s="102"/>
+      <c r="F352" s="103"/>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B353" s="17" t="s">
         <v>312</v>
       </c>
@@ -64153,7 +65188,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B354" s="8" t="s">
         <v>277</v>
       </c>
@@ -64174,7 +65209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B355" s="8" t="s">
         <v>278</v>
       </c>
@@ -64195,7 +65230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B356" s="13" t="s">
         <v>24</v>
       </c>
@@ -64216,7 +65251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B357" s="47" t="s">
         <v>279</v>
       </c>
@@ -64237,7 +65272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B358" s="43" t="s">
         <v>280</v>
       </c>
@@ -64258,7 +65293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B359" s="48" t="s">
         <v>228</v>
       </c>
@@ -64279,7 +65314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B360" s="43" t="s">
         <v>291</v>
       </c>
@@ -64291,17 +65326,17 @@
       <c r="E360" s="37"/>
       <c r="F360" s="34"/>
     </row>
-    <row r="362" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B363" s="112" t="s">
+    <row r="362" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B363" s="101" t="s">
         <v>310</v>
       </c>
-      <c r="C363" s="113"/>
-      <c r="D363" s="113"/>
-      <c r="E363" s="113"/>
-      <c r="F363" s="114"/>
+      <c r="C363" s="102"/>
+      <c r="D363" s="102"/>
+      <c r="E363" s="102"/>
+      <c r="F363" s="103"/>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B364" s="17" t="s">
         <v>312</v>
       </c>
@@ -64318,7 +65353,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B365" s="8" t="s">
         <v>277</v>
       </c>
@@ -64339,7 +65374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B366" s="8" t="s">
         <v>278</v>
       </c>
@@ -64360,7 +65395,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B367" s="13" t="s">
         <v>24</v>
       </c>
@@ -64381,7 +65416,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B368" s="47" t="s">
         <v>279</v>
       </c>
@@ -64402,7 +65437,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="369" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B369" s="43" t="s">
         <v>280</v>
       </c>
@@ -64423,14 +65458,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C378" s="99" t="s">
+    <row r="377" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C378" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="D378" s="101"/>
+      <c r="D378" s="105"/>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C379" s="8" t="s">
         <v>277</v>
       </c>
@@ -64439,7 +65474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C380" s="8" t="s">
         <v>278</v>
       </c>
@@ -64448,7 +65483,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C381" s="8" t="s">
         <v>24</v>
       </c>
@@ -64457,7 +65492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C382" s="8" t="s">
         <v>279</v>
       </c>
@@ -64466,7 +65501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C383" s="33" t="s">
         <v>280</v>
       </c>
@@ -64475,7 +65510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C384" s="38" t="s">
         <v>228</v>
       </c>
@@ -64484,17 +65519,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="395" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B396" s="112" t="s">
+    <row r="395" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B396" s="101" t="s">
         <v>311</v>
       </c>
-      <c r="C396" s="113"/>
-      <c r="D396" s="113"/>
-      <c r="E396" s="113"/>
-      <c r="F396" s="114"/>
+      <c r="C396" s="102"/>
+      <c r="D396" s="102"/>
+      <c r="E396" s="102"/>
+      <c r="F396" s="103"/>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B397" s="17" t="s">
         <v>312</v>
       </c>
@@ -64511,7 +65546,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B398" s="81" t="s">
         <v>277</v>
       </c>
@@ -64532,7 +65567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B399" s="82" t="s">
         <v>278</v>
       </c>
@@ -64553,7 +65588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B400" s="83" t="s">
         <v>24</v>
       </c>
@@ -64574,7 +65609,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B401" s="84" t="s">
         <v>279</v>
       </c>
@@ -64595,7 +65630,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="402" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B402" s="85" t="s">
         <v>280</v>
       </c>
@@ -64616,7 +65651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B403" s="68" t="s">
         <v>228</v>
       </c>
@@ -64631,24 +65666,24 @@
       <c r="E403" s="45"/>
       <c r="F403" s="70"/>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B404" s="57"/>
       <c r="C404" s="35"/>
       <c r="D404" s="35"/>
       <c r="E404" s="35"/>
       <c r="F404" s="35"/>
     </row>
-    <row r="414" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B415" s="112" t="s">
+    <row r="414" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="415" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B415" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="C415" s="113"/>
-      <c r="D415" s="113"/>
-      <c r="E415" s="113"/>
-      <c r="F415" s="114"/>
+      <c r="C415" s="102"/>
+      <c r="D415" s="102"/>
+      <c r="E415" s="102"/>
+      <c r="F415" s="103"/>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B416" s="17" t="s">
         <v>312</v>
       </c>
@@ -64665,7 +65700,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B417" s="81" t="s">
         <v>277</v>
       </c>
@@ -64686,7 +65721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B418" s="82" t="s">
         <v>278</v>
       </c>
@@ -64707,7 +65742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B419" s="83" t="s">
         <v>24</v>
       </c>
@@ -64728,7 +65763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B420" s="84" t="s">
         <v>279</v>
       </c>
@@ -64749,7 +65784,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="421" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B421" s="85" t="s">
         <v>280</v>
       </c>
@@ -64770,7 +65805,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="422" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B422" s="15" t="s">
         <v>228</v>
       </c>
@@ -64785,14 +65820,14 @@
       <c r="E422" s="45"/>
       <c r="F422" s="16"/>
     </row>
-    <row r="433" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="434" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C434" s="99" t="s">
+    <row r="433" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="434" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C434" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="D434" s="101"/>
+      <c r="D434" s="105"/>
     </row>
-    <row r="435" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C435" s="8" t="s">
         <v>277</v>
       </c>
@@ -64801,7 +65836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C436" s="8" t="s">
         <v>278</v>
       </c>
@@ -64810,7 +65845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="437" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C437" s="8" t="s">
         <v>24</v>
       </c>
@@ -64819,7 +65854,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="438" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C438" s="8" t="s">
         <v>279</v>
       </c>
@@ -64828,7 +65863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="439" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C439" s="33" t="s">
         <v>280</v>
       </c>
@@ -64837,7 +65872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C440" s="38" t="s">
         <v>228</v>
       </c>
@@ -64846,14 +65881,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="452" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="453" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C453" s="104" t="s">
+    <row r="452" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="453" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C453" s="99" t="s">
         <v>314</v>
       </c>
-      <c r="D453" s="105"/>
+      <c r="D453" s="117"/>
     </row>
-    <row r="454" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C454" s="32" t="s">
         <v>292</v>
       </c>
@@ -64862,7 +65897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="455" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C455" s="33" t="s">
         <v>39</v>
       </c>
@@ -64871,7 +65906,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="456" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C456" s="27" t="s">
         <v>228</v>
       </c>
@@ -64880,9 +65915,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="459" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="460" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C460" s="106" t="s">
+    <row r="459" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="460" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C460" s="118" t="s">
         <v>315</v>
       </c>
       <c r="D460" s="86">
@@ -64890,24 +65925,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="461" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C461" s="107"/>
+    <row r="461" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C461" s="119"/>
       <c r="D461" s="87">
         <f>D460/D455</f>
         <v>0.68</v>
       </c>
     </row>
-    <row r="471" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="472" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B472" s="99" t="s">
+    <row r="471" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="472" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B472" s="104" t="s">
         <v>316</v>
       </c>
-      <c r="C472" s="100"/>
-      <c r="D472" s="100"/>
-      <c r="E472" s="100"/>
-      <c r="F472" s="101"/>
+      <c r="C472" s="108"/>
+      <c r="D472" s="108"/>
+      <c r="E472" s="108"/>
+      <c r="F472" s="105"/>
     </row>
-    <row r="473" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B473" s="17" t="s">
         <v>312</v>
       </c>
@@ -64924,7 +65959,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="474" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B474" s="81" t="s">
         <v>277</v>
       </c>
@@ -64945,7 +65980,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="475" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B475" s="82" t="s">
         <v>278</v>
       </c>
@@ -64966,7 +66001,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="476" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B476" s="83" t="s">
         <v>24</v>
       </c>
@@ -64987,7 +66022,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="477" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B477" s="84" t="s">
         <v>279</v>
       </c>
@@ -65008,7 +66043,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="478" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B478" s="85" t="s">
         <v>280</v>
       </c>
@@ -65029,7 +66064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B479" s="65" t="s">
         <v>228</v>
       </c>
@@ -65044,14 +66079,14 @@
       <c r="E479" s="56"/>
       <c r="F479" s="16"/>
     </row>
-    <row r="481" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="482" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C482" s="102" t="s">
+    <row r="481" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="482" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C482" s="120" t="s">
         <v>317</v>
       </c>
-      <c r="D482" s="103"/>
+      <c r="D482" s="121"/>
     </row>
-    <row r="483" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C483" s="32" t="s">
         <v>234</v>
       </c>
@@ -65060,7 +66095,7 @@
         <v>0.86792452830188682</v>
       </c>
     </row>
-    <row r="484" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C484" s="33" t="s">
         <v>235</v>
       </c>
@@ -65069,17 +66104,17 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="491" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="492" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B492" s="99" t="s">
+    <row r="491" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="492" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B492" s="104" t="s">
         <v>318</v>
       </c>
-      <c r="C492" s="100"/>
-      <c r="D492" s="100"/>
-      <c r="E492" s="100"/>
-      <c r="F492" s="101"/>
+      <c r="C492" s="108"/>
+      <c r="D492" s="108"/>
+      <c r="E492" s="108"/>
+      <c r="F492" s="105"/>
     </row>
-    <row r="493" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B493" s="17" t="s">
         <v>312</v>
       </c>
@@ -65096,7 +66131,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="494" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B494" s="81" t="s">
         <v>277</v>
       </c>
@@ -65117,7 +66152,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="495" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B495" s="82" t="s">
         <v>278</v>
       </c>
@@ -65138,7 +66173,7 @@
         <v>0.28125</v>
       </c>
     </row>
-    <row r="496" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B496" s="83" t="s">
         <v>24</v>
       </c>
@@ -65159,7 +66194,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="497" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B497" s="84" t="s">
         <v>279</v>
       </c>
@@ -65180,7 +66215,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="498" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B498" s="85" t="s">
         <v>280</v>
       </c>
@@ -65201,7 +66236,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="499" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B499" s="65" t="s">
         <v>228</v>
       </c>
@@ -65216,14 +66251,14 @@
       <c r="E499" s="56"/>
       <c r="F499" s="16"/>
     </row>
-    <row r="501" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="502" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C502" s="102" t="s">
+    <row r="501" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="502" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C502" s="120" t="s">
         <v>317</v>
       </c>
-      <c r="D502" s="103"/>
+      <c r="D502" s="121"/>
     </row>
-    <row r="503" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C503" s="32" t="s">
         <v>234</v>
       </c>
@@ -65232,7 +66267,7 @@
         <v>0.49056603773584906</v>
       </c>
     </row>
-    <row r="504" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C504" s="33" t="s">
         <v>235</v>
       </c>
@@ -65241,17 +66276,17 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="513" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="514" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B514" s="99" t="s">
+    <row r="513" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="514" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B514" s="104" t="s">
         <v>319</v>
       </c>
-      <c r="C514" s="100"/>
-      <c r="D514" s="100"/>
-      <c r="E514" s="100"/>
-      <c r="F514" s="101"/>
+      <c r="C514" s="108"/>
+      <c r="D514" s="108"/>
+      <c r="E514" s="108"/>
+      <c r="F514" s="105"/>
     </row>
-    <row r="515" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B515" s="17" t="s">
         <v>286</v>
       </c>
@@ -65268,7 +66303,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="516" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B516" s="81" t="s">
         <v>277</v>
       </c>
@@ -65289,7 +66324,7 @@
         <v>0.48148148148148145</v>
       </c>
     </row>
-    <row r="517" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B517" s="82" t="s">
         <v>278</v>
       </c>
@@ -65310,7 +66345,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="518" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B518" s="83" t="s">
         <v>24</v>
       </c>
@@ -65331,7 +66366,7 @@
         <v>0.13580246913580246</v>
       </c>
     </row>
-    <row r="519" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B519" s="84" t="s">
         <v>279</v>
       </c>
@@ -65352,7 +66387,7 @@
         <v>4.9382716049382713E-2</v>
       </c>
     </row>
-    <row r="520" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B520" s="85" t="s">
         <v>280</v>
       </c>
@@ -65373,7 +66408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B521" s="65" t="s">
         <v>228</v>
       </c>
@@ -65388,14 +66423,14 @@
       <c r="E521" s="56"/>
       <c r="F521" s="16"/>
     </row>
-    <row r="523" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="524" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C524" s="102" t="s">
+    <row r="523" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="524" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C524" s="120" t="s">
         <v>317</v>
       </c>
-      <c r="D524" s="103"/>
+      <c r="D524" s="121"/>
     </row>
-    <row r="525" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C525" s="32" t="s">
         <v>288</v>
       </c>
@@ -65404,7 +66439,7 @@
         <v>0.71052631578947367</v>
       </c>
     </row>
-    <row r="526" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C526" s="33" t="s">
         <v>289</v>
       </c>
@@ -65413,17 +66448,17 @@
         <v>0.81481481481481477</v>
       </c>
     </row>
-    <row r="533" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="534" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B534" s="99" t="s">
+    <row r="533" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="534" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B534" s="104" t="s">
         <v>320</v>
       </c>
-      <c r="C534" s="100"/>
-      <c r="D534" s="100"/>
-      <c r="E534" s="100"/>
-      <c r="F534" s="101"/>
+      <c r="C534" s="108"/>
+      <c r="D534" s="108"/>
+      <c r="E534" s="108"/>
+      <c r="F534" s="105"/>
     </row>
-    <row r="535" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B535" s="17" t="s">
         <v>286</v>
       </c>
@@ -65440,7 +66475,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="536" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B536" s="81" t="s">
         <v>277</v>
       </c>
@@ -65461,7 +66496,7 @@
         <v>0.20987654320987653</v>
       </c>
     </row>
-    <row r="537" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B537" s="82" t="s">
         <v>278</v>
       </c>
@@ -65482,7 +66517,7 @@
         <v>0.32098765432098764</v>
       </c>
     </row>
-    <row r="538" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B538" s="83" t="s">
         <v>24</v>
       </c>
@@ -65503,7 +66538,7 @@
         <v>0.20987654320987653</v>
       </c>
     </row>
-    <row r="539" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B539" s="84" t="s">
         <v>279</v>
       </c>
@@ -65524,7 +66559,7 @@
         <v>0.1728395061728395</v>
       </c>
     </row>
-    <row r="540" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B540" s="85" t="s">
         <v>280</v>
       </c>
@@ -65545,7 +66580,7 @@
         <v>8.6419753086419748E-2</v>
       </c>
     </row>
-    <row r="541" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B541" s="65" t="s">
         <v>228</v>
       </c>
@@ -65560,14 +66595,14 @@
       <c r="E541" s="56"/>
       <c r="F541" s="16"/>
     </row>
-    <row r="543" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="544" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C544" s="102" t="s">
+    <row r="543" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="544" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C544" s="120" t="s">
         <v>317</v>
       </c>
-      <c r="D544" s="103"/>
+      <c r="D544" s="121"/>
     </row>
-    <row r="545" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C545" s="32" t="s">
         <v>288</v>
       </c>
@@ -65576,7 +66611,7 @@
         <v>0.42105263157894735</v>
       </c>
     </row>
-    <row r="546" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C546" s="33" t="s">
         <v>289</v>
       </c>
@@ -65585,14 +66620,14 @@
         <v>0.53086419753086411</v>
       </c>
     </row>
-    <row r="554" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="555" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C555" s="99" t="s">
+    <row r="554" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="555" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C555" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="D555" s="101"/>
+      <c r="D555" s="105"/>
     </row>
-    <row r="556" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C556" s="8" t="s">
         <v>277</v>
       </c>
@@ -65601,7 +66636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="557" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C557" s="8" t="s">
         <v>278</v>
       </c>
@@ -65610,7 +66645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="558" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C558" s="8" t="s">
         <v>24</v>
       </c>
@@ -65619,7 +66654,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="559" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C559" s="8" t="s">
         <v>279</v>
       </c>
@@ -65628,7 +66663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="560" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C560" s="33" t="s">
         <v>280</v>
       </c>
@@ -65637,7 +66672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="561" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C561" s="67" t="s">
         <v>228</v>
       </c>
@@ -65646,14 +66681,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="572" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="573" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C573" s="99" t="s">
+    <row r="572" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="573" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C573" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="D573" s="101"/>
+      <c r="D573" s="105"/>
     </row>
-    <row r="574" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C574" s="8" t="s">
         <v>277</v>
       </c>
@@ -65662,7 +66697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="575" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C575" s="8" t="s">
         <v>278</v>
       </c>
@@ -65671,7 +66706,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="576" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C576" s="8" t="s">
         <v>24</v>
       </c>
@@ -65680,7 +66715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="577" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C577" s="8" t="s">
         <v>279</v>
       </c>
@@ -65689,7 +66724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="578" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C578" s="33" t="s">
         <v>280</v>
       </c>
@@ -65698,7 +66733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="579" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C579" s="67" t="s">
         <v>228</v>
       </c>
@@ -65707,14 +66742,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="589" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="590" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C590" s="99" t="s">
+    <row r="589" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="590" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C590" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="D590" s="101"/>
+      <c r="D590" s="105"/>
     </row>
-    <row r="591" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C591" s="8" t="s">
         <v>277</v>
       </c>
@@ -65723,7 +66758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="592" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C592" s="8" t="s">
         <v>278</v>
       </c>
@@ -65732,7 +66767,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="593" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C593" s="8" t="s">
         <v>24</v>
       </c>
@@ -65741,7 +66776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="594" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C594" s="8" t="s">
         <v>279</v>
       </c>
@@ -65750,7 +66785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="595" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C595" s="33" t="s">
         <v>280</v>
       </c>
@@ -65759,7 +66794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C596" s="67" t="s">
         <v>228</v>
       </c>
@@ -65768,14 +66803,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="606" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="607" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C607" s="99" t="s">
+    <row r="606" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="607" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C607" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="D607" s="101"/>
+      <c r="D607" s="105"/>
     </row>
-    <row r="608" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C608" s="8" t="s">
         <v>277</v>
       </c>
@@ -65784,7 +66819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="609" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C609" s="8" t="s">
         <v>278</v>
       </c>
@@ -65793,7 +66828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="610" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C610" s="8" t="s">
         <v>24</v>
       </c>
@@ -65802,7 +66837,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="611" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C611" s="8" t="s">
         <v>279</v>
       </c>
@@ -65811,7 +66846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="612" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C612" s="33" t="s">
         <v>280</v>
       </c>
@@ -65820,7 +66855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="613" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C613" s="67" t="s">
         <v>228</v>
       </c>
@@ -65829,14 +66864,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="624" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="625" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C625" s="99" t="s">
+    <row r="624" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="625" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C625" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="D625" s="101"/>
+      <c r="D625" s="105"/>
     </row>
-    <row r="626" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C626" s="8" t="s">
         <v>277</v>
       </c>
@@ -65845,7 +66880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="627" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C627" s="8" t="s">
         <v>278</v>
       </c>
@@ -65854,7 +66889,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="628" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C628" s="8" t="s">
         <v>24</v>
       </c>
@@ -65863,7 +66898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="629" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C629" s="8" t="s">
         <v>279</v>
       </c>
@@ -65872,7 +66907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="630" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C630" s="33" t="s">
         <v>280</v>
       </c>
@@ -65881,7 +66916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C631" s="67" t="s">
         <v>228</v>
       </c>
@@ -65890,14 +66925,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="643" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="644" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C644" s="99" t="s">
+    <row r="643" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="644" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C644" s="104" t="s">
         <v>322</v>
       </c>
-      <c r="D644" s="101"/>
+      <c r="D644" s="105"/>
     </row>
-    <row r="645" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C645" s="8" t="s">
         <v>39</v>
       </c>
@@ -65906,7 +66941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="646" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C646" s="33" t="s">
         <v>7</v>
       </c>
@@ -65915,24 +66950,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="647" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B647" s="10"/>
       <c r="C647" s="10"/>
       <c r="D647" s="10"/>
     </row>
-    <row r="648" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B648" s="54"/>
       <c r="C648" s="10"/>
       <c r="D648" s="10"/>
     </row>
-    <row r="658" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="659" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C659" s="99" t="s">
+    <row r="658" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="659" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C659" s="104" t="s">
         <v>323</v>
       </c>
-      <c r="D659" s="101"/>
+      <c r="D659" s="105"/>
     </row>
-    <row r="660" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C660" s="8" t="s">
         <v>39</v>
       </c>
@@ -65941,7 +66976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="661" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C661" s="33" t="s">
         <v>7</v>
       </c>
@@ -65950,17 +66985,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="674" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="675" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B675" s="112" t="s">
+    <row r="674" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="675" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B675" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="C675" s="113"/>
-      <c r="D675" s="113"/>
-      <c r="E675" s="113"/>
-      <c r="F675" s="114"/>
+      <c r="C675" s="102"/>
+      <c r="D675" s="102"/>
+      <c r="E675" s="102"/>
+      <c r="F675" s="103"/>
     </row>
-    <row r="676" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B676" s="17" t="s">
         <v>312</v>
       </c>
@@ -65977,7 +67012,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="677" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B677" s="81" t="s">
         <v>277</v>
       </c>
@@ -65998,7 +67033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="678" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B678" s="82" t="s">
         <v>278</v>
       </c>
@@ -66019,7 +67054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B679" s="83" t="s">
         <v>24</v>
       </c>
@@ -66040,7 +67075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B680" s="84" t="s">
         <v>279</v>
       </c>
@@ -66061,7 +67096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B681" s="85" t="s">
         <v>280</v>
       </c>
@@ -66082,7 +67117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B682" s="48" t="s">
         <v>228</v>
       </c>
@@ -66103,7 +67138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B683" s="43" t="s">
         <v>291</v>
       </c>
@@ -66115,17 +67150,17 @@
       <c r="E683" s="37"/>
       <c r="F683" s="34"/>
     </row>
-    <row r="685" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="686" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B686" s="112" t="s">
+    <row r="685" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="686" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B686" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="C686" s="113"/>
-      <c r="D686" s="113"/>
-      <c r="E686" s="113"/>
-      <c r="F686" s="114"/>
+      <c r="C686" s="102"/>
+      <c r="D686" s="102"/>
+      <c r="E686" s="102"/>
+      <c r="F686" s="103"/>
     </row>
-    <row r="687" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B687" s="17" t="s">
         <v>312</v>
       </c>
@@ -66142,7 +67177,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="688" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B688" s="81" t="s">
         <v>277</v>
       </c>
@@ -66163,7 +67198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B689" s="82" t="s">
         <v>278</v>
       </c>
@@ -66184,7 +67219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B690" s="83" t="s">
         <v>24</v>
       </c>
@@ -66205,7 +67240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B691" s="84" t="s">
         <v>279</v>
       </c>
@@ -66226,7 +67261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B692" s="85" t="s">
         <v>280</v>
       </c>
@@ -66247,8 +67282,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="694" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="694" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C694" s="91" t="s">
         <v>236</v>
       </c>
@@ -66257,7 +67292,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="695" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C695" s="17" t="s">
         <v>237</v>
       </c>
@@ -66266,7 +67301,7 @@
         <v>0.84313725490196079</v>
       </c>
     </row>
-    <row r="696" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C696" s="17" t="s">
         <v>238</v>
       </c>
@@ -66275,7 +67310,7 @@
         <v>0.76470588235294112</v>
       </c>
     </row>
-    <row r="697" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C697" s="92" t="s">
         <v>239</v>
       </c>
@@ -66284,14 +67319,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="705" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C705" s="99" t="s">
+    <row r="704" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="705" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C705" s="104" t="s">
         <v>327</v>
       </c>
-      <c r="D705" s="101"/>
+      <c r="D705" s="105"/>
     </row>
-    <row r="706" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C706" s="8" t="s">
         <v>277</v>
       </c>
@@ -66300,7 +67335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="707" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C707" s="8" t="s">
         <v>278</v>
       </c>
@@ -66309,7 +67344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="708" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C708" s="8" t="s">
         <v>24</v>
       </c>
@@ -66318,7 +67353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="709" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C709" s="8" t="s">
         <v>279</v>
       </c>
@@ -66327,7 +67362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C710" s="33" t="s">
         <v>280</v>
       </c>
@@ -66336,7 +67371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C711" s="72" t="s">
         <v>228</v>
       </c>
@@ -66345,17 +67380,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="719" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="720" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B720" s="112" t="s">
+    <row r="719" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="720" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B720" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="C720" s="113"/>
-      <c r="D720" s="113"/>
-      <c r="E720" s="113"/>
-      <c r="F720" s="114"/>
+      <c r="C720" s="102"/>
+      <c r="D720" s="102"/>
+      <c r="E720" s="102"/>
+      <c r="F720" s="103"/>
     </row>
-    <row r="721" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B721" s="17" t="s">
         <v>312</v>
       </c>
@@ -66372,7 +67407,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="722" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B722" s="81" t="s">
         <v>277</v>
       </c>
@@ -66393,7 +67428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B723" s="82" t="s">
         <v>278</v>
       </c>
@@ -66414,7 +67449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B724" s="83" t="s">
         <v>24</v>
       </c>
@@ -66435,7 +67470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="725" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B725" s="84" t="s">
         <v>279</v>
       </c>
@@ -66456,7 +67491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B726" s="85" t="s">
         <v>280</v>
       </c>
@@ -66477,7 +67512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B727" s="48" t="s">
         <v>228</v>
       </c>
@@ -66498,7 +67533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="728" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B728" s="43" t="s">
         <v>291</v>
       </c>
@@ -66510,17 +67545,17 @@
       <c r="E728" s="37"/>
       <c r="F728" s="34"/>
     </row>
-    <row r="730" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="731" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B731" s="112" t="s">
+    <row r="730" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="731" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B731" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="C731" s="113"/>
-      <c r="D731" s="113"/>
-      <c r="E731" s="113"/>
-      <c r="F731" s="114"/>
+      <c r="C731" s="102"/>
+      <c r="D731" s="102"/>
+      <c r="E731" s="102"/>
+      <c r="F731" s="103"/>
     </row>
-    <row r="732" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B732" s="17" t="s">
         <v>312</v>
       </c>
@@ -66537,7 +67572,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="733" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B733" s="81" t="s">
         <v>277</v>
       </c>
@@ -66558,7 +67593,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="734" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B734" s="82" t="s">
         <v>278</v>
       </c>
@@ -66579,7 +67614,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="735" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B735" s="83" t="s">
         <v>24</v>
       </c>
@@ -66600,7 +67635,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="736" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B736" s="84" t="s">
         <v>279</v>
       </c>
@@ -66621,7 +67656,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="737" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B737" s="85" t="s">
         <v>280</v>
       </c>
@@ -66642,8 +67677,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="739" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="739" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C739" s="91" t="s">
         <v>236</v>
       </c>
@@ -66652,7 +67687,7 @@
         <v>0.43478260869565216</v>
       </c>
     </row>
-    <row r="740" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C740" s="17" t="s">
         <v>237</v>
       </c>
@@ -66661,7 +67696,7 @@
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="741" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C741" s="17" t="s">
         <v>238</v>
       </c>
@@ -66670,7 +67705,7 @@
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="742" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C742" s="92" t="s">
         <v>239</v>
       </c>
@@ -66679,14 +67714,14 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="749" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="750" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C750" s="99" t="s">
+    <row r="749" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="750" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C750" s="104" t="s">
         <v>326</v>
       </c>
-      <c r="D750" s="101"/>
+      <c r="D750" s="105"/>
     </row>
-    <row r="751" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C751" s="8" t="s">
         <v>277</v>
       </c>
@@ -66695,7 +67730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="752" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C752" s="8" t="s">
         <v>278</v>
       </c>
@@ -66704,7 +67739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="753" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C753" s="8" t="s">
         <v>24</v>
       </c>
@@ -66713,7 +67748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="754" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C754" s="8" t="s">
         <v>279</v>
       </c>
@@ -66722,7 +67757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="755" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C755" s="33" t="s">
         <v>280</v>
       </c>
@@ -66731,7 +67766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="756" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C756" s="72" t="s">
         <v>228</v>
       </c>
@@ -66740,17 +67775,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="767" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="768" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B768" s="99" t="s">
+    <row r="767" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="768" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B768" s="104" t="s">
         <v>329</v>
       </c>
-      <c r="C768" s="100"/>
-      <c r="D768" s="100"/>
-      <c r="E768" s="100"/>
-      <c r="F768" s="101"/>
+      <c r="C768" s="108"/>
+      <c r="D768" s="108"/>
+      <c r="E768" s="108"/>
+      <c r="F768" s="105"/>
     </row>
-    <row r="769" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B769" s="17" t="s">
         <v>286</v>
       </c>
@@ -66767,7 +67802,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="770" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B770" s="81" t="s">
         <v>277</v>
       </c>
@@ -66788,7 +67823,7 @@
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="771" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B771" s="82" t="s">
         <v>278</v>
       </c>
@@ -66809,7 +67844,7 @@
         <v>0.35802469135802467</v>
       </c>
     </row>
-    <row r="772" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B772" s="83" t="s">
         <v>24</v>
       </c>
@@ -66830,7 +67865,7 @@
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="773" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B773" s="84" t="s">
         <v>279</v>
       </c>
@@ -66851,7 +67886,7 @@
         <v>0.2839506172839506</v>
       </c>
     </row>
-    <row r="774" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B774" s="85" t="s">
         <v>280</v>
       </c>
@@ -66872,7 +67907,7 @@
         <v>6.1728395061728392E-2</v>
       </c>
     </row>
-    <row r="775" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B775" s="65" t="s">
         <v>228</v>
       </c>
@@ -66887,14 +67922,14 @@
       <c r="E775" s="56"/>
       <c r="F775" s="16"/>
     </row>
-    <row r="777" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="778" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C778" s="102" t="s">
+    <row r="777" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="778" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C778" s="120" t="s">
         <v>317</v>
       </c>
-      <c r="D778" s="103"/>
+      <c r="D778" s="121"/>
     </row>
-    <row r="779" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C779" s="32" t="s">
         <v>288</v>
       </c>
@@ -66903,7 +67938,7 @@
         <v>0.42105263157894735</v>
       </c>
     </row>
-    <row r="780" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C780" s="33" t="s">
         <v>289</v>
       </c>
@@ -66912,8 +67947,168 @@
         <v>0.50617283950617287</v>
       </c>
     </row>
+    <row r="787" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="788" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C788" s="104" t="s">
+        <v>330</v>
+      </c>
+      <c r="D788" s="105"/>
+    </row>
+    <row r="789" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C789" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D789" s="9">
+        <f>COUNTIFS(Datos!I:I,"*¡Me encantan! Incluso estudio idiomas por mi cuenta*", Datos!Q:Q, "Totalmente de acuerdo")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="790" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C790" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D790" s="9">
+        <f>COUNTIFS(Datos!I:I,"*¡Me encantan! Incluso estudio idiomas por mi cuenta*", Datos!Q:Q, "De acuerdo")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="791" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C791" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D791" s="9">
+        <f>COUNTIFS(Datos!I:I,"*¡Me encantan! Incluso estudio idiomas por mi cuenta*", Datos!Q:Q, "Neutral")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="792" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C792" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D792" s="9">
+        <f>COUNTIFS(Datos!I:I,"*¡Me encantan! Incluso estudio idiomas por mi cuenta*", Datos!Q:Q, "En desacuerdo")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="793" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C793" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D793" s="34">
+        <f>COUNTIFS(Datos!I:I,"*¡Me encantan! Incluso estudio idiomas por mi cuenta*", Datos!Q:Q, "Totalmente en desacuerdo")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C794" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="D794" s="16">
+        <f>SUM(D789:D793)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="797" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="798" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C798" s="104" t="s">
+        <v>331</v>
+      </c>
+      <c r="D798" s="105"/>
+    </row>
+    <row r="799" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C799" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D799" s="9">
+        <f>COUNTIFS(Datos!I:I,"*Son un recurso muy importante para buscar trabajo y para mejorar mi currículum*", Datos!Q:Q, "Totalmente de acuerdo")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="800" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C800" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D800" s="9">
+        <f>COUNTIFS(Datos!I:I,"*Son un recurso muy importante para buscar trabajo y para mejorar mi currículum*", Datos!Q:Q, "De acuerdo")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="801" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C801" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D801" s="9">
+        <f>COUNTIFS(Datos!I:I,"*Son un recurso muy importante para buscar trabajo y para mejorar mi currículum*", Datos!Q:Q, "Neutral")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="802" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C802" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D802" s="9">
+        <f>COUNTIFS(Datos!I:I,"*Son un recurso muy importante para buscar trabajo y para mejorar mi currículum*", Datos!Q:Q, "En desacuerdo")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="803" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C803" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D803" s="34">
+        <f>COUNTIFS(Datos!I:I,"*Son un recurso muy importante para buscar trabajo y para mejorar mi currículum*", Datos!Q:Q, "Totalmente en desacuerdo")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C804" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="D804" s="16">
+        <f>SUM(D799:D803)</f>
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="54">
+    <mergeCell ref="C788:D788"/>
+    <mergeCell ref="C798:D798"/>
+    <mergeCell ref="B768:F768"/>
+    <mergeCell ref="C778:D778"/>
+    <mergeCell ref="C750:D750"/>
+    <mergeCell ref="C625:D625"/>
+    <mergeCell ref="C644:D644"/>
+    <mergeCell ref="C659:D659"/>
+    <mergeCell ref="C555:D555"/>
+    <mergeCell ref="C573:D573"/>
+    <mergeCell ref="C590:D590"/>
+    <mergeCell ref="C607:D607"/>
+    <mergeCell ref="C434:D434"/>
+    <mergeCell ref="C453:D453"/>
+    <mergeCell ref="C460:C461"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="C524:D524"/>
+    <mergeCell ref="B534:F534"/>
+    <mergeCell ref="C544:D544"/>
+    <mergeCell ref="B472:F472"/>
+    <mergeCell ref="C482:D482"/>
+    <mergeCell ref="B492:F492"/>
+    <mergeCell ref="C502:D502"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="B253:G253"/>
+    <mergeCell ref="B262:G262"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B316:E316"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B363:F363"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B675:F675"/>
     <mergeCell ref="B686:F686"/>
@@ -66930,42 +68125,6 @@
     <mergeCell ref="C153:D153"/>
     <mergeCell ref="C171:D171"/>
     <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B253:G253"/>
-    <mergeCell ref="B262:G262"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B316:E316"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="C555:D555"/>
-    <mergeCell ref="C573:D573"/>
-    <mergeCell ref="C590:D590"/>
-    <mergeCell ref="C607:D607"/>
-    <mergeCell ref="C434:D434"/>
-    <mergeCell ref="C453:D453"/>
-    <mergeCell ref="C460:C461"/>
-    <mergeCell ref="B514:F514"/>
-    <mergeCell ref="C524:D524"/>
-    <mergeCell ref="B534:F534"/>
-    <mergeCell ref="C544:D544"/>
-    <mergeCell ref="B472:F472"/>
-    <mergeCell ref="C482:D482"/>
-    <mergeCell ref="B492:F492"/>
-    <mergeCell ref="C502:D502"/>
-    <mergeCell ref="B768:F768"/>
-    <mergeCell ref="C778:D778"/>
-    <mergeCell ref="C750:D750"/>
-    <mergeCell ref="C625:D625"/>
-    <mergeCell ref="C644:D644"/>
-    <mergeCell ref="C659:D659"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Online Questionnaire Data.xlsx
+++ b/Online Questionnaire Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D8E377-C46F-4F99-8DC7-073A9A567002}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8928A058-BFB8-43CF-8523-CB7B698FE06D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -1139,7 +1139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1751,11 +1751,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2031,22 +2042,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2058,22 +2102,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2088,28 +2123,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -22545,7 +22562,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -22619,24 +22636,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gráficas!$D$789:$D$793</c:f>
+              <c:f>Gráficas!$E$789:$E$793</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>0.2413793103448276</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>0.27586206896551724</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0.10344827586206896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>3.4482758620689655E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22644,7 +22661,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-30E5-4F4F-A77E-33A52AD998BC}"/>
+              <c16:uniqueId val="{00000000-EB9F-41F3-B830-A5C6DC06D41A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22680,24 +22697,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Gráficas!$D$799:$D$803</c:f>
+              <c:f>Gráficas!$E$799:$E$803</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>8.771929824561403E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>0.24561403508771928</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>0.52631578947368418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>0.12280701754385964</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.7543859649122806E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22705,7 +22722,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-30E5-4F4F-A77E-33A52AD998BC}"/>
+              <c16:uniqueId val="{00000002-EB9F-41F3-B830-A5C6DC06D41A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22719,11 +22736,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="72353200"/>
-        <c:axId val="72351952"/>
+        <c:axId val="1238055183"/>
+        <c:axId val="1238057263"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72353200"/>
+        <c:axId val="1238055183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22796,7 +22813,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72351952"/>
+        <c:crossAx val="1238057263"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22804,7 +22821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72351952"/>
+        <c:axId val="1238057263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22854,7 +22871,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -22885,7 +22902,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72353200"/>
+        <c:crossAx val="1238055183"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -52520,23 +52537,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1036320</xdr:colOff>
-      <xdr:row>788</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>516255</xdr:colOff>
+      <xdr:row>787</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>803</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>802</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="33" name="Chart 32">
+        <xdr:cNvPr id="17" name="Chart 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C753B1A6-51B3-46CF-8B25-0C24E0A4F0B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE496A9-3F03-4695-ADB2-1148413521A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -52900,24 +52917,24 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="71.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="70.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="70.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" style="1" customWidth="1"/>
     <col min="14" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.109375" style="1"/>
+    <col min="26" max="26" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -52997,7 +53014,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -53078,7 +53095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -53159,7 +53176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -53240,7 +53257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -53321,7 +53338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -53402,7 +53419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -53483,7 +53500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -53564,7 +53581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -53645,7 +53662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -53726,7 +53743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -53807,7 +53824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -53888,7 +53905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -53969,7 +53986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -54050,7 +54067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -54131,7 +54148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -54212,7 +54229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -54293,7 +54310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -54374,7 +54391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -54455,7 +54472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -54536,7 +54553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -54617,7 +54634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -54698,7 +54715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -54779,7 +54796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -54860,7 +54877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -54941,7 +54958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -55022,7 +55039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -55103,7 +55120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -55184,7 +55201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -55265,7 +55282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -55346,7 +55363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -55427,7 +55444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -55508,7 +55525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -55589,7 +55606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -55670,7 +55687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -55751,7 +55768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -55832,7 +55849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -55913,7 +55930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -55994,7 +56011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -56075,7 +56092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -56156,7 +56173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -56237,7 +56254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -56318,7 +56335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -56399,7 +56416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -56480,7 +56497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -56561,7 +56578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -56642,7 +56659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -56723,7 +56740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -56804,7 +56821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -56885,7 +56902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -56966,7 +56983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -57047,7 +57064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -57128,7 +57145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -57209,7 +57226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -57290,7 +57307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -57371,7 +57388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -57452,7 +57469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -57533,7 +57550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -57614,7 +57631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -57695,7 +57712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -57776,7 +57793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -57857,7 +57874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -57938,7 +57955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -58019,7 +58036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -58100,7 +58117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -58181,7 +58198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -58262,7 +58279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -58343,7 +58360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -58424,7 +58441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -58505,7 +58522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -58586,7 +58603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -58667,7 +58684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -58748,7 +58765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -58829,7 +58846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -58910,7 +58927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -58991,7 +59008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -59072,7 +59089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -59153,7 +59170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -59234,7 +59251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -59315,7 +59332,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -59396,7 +59413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -59477,7 +59494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -59558,7 +59575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -59639,7 +59656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -59720,7 +59737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -59801,7 +59818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -59882,7 +59899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -59963,7 +59980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -60044,7 +60061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -60125,7 +60142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -60206,7 +60223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -60287,7 +60304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -60368,7 +60385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -60449,7 +60466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -60530,7 +60547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -60611,7 +60628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -60692,7 +60709,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -60773,7 +60790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -60854,7 +60871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -60935,7 +60952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -61016,7 +61033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -61097,7 +61114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -61178,7 +61195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -61259,7 +61276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -61340,7 +61357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -61421,7 +61438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -61502,7 +61519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -61583,7 +61600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -61664,7 +61681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -61745,7 +61762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -61826,7 +61843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -61907,7 +61924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -61988,7 +62005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -62069,7 +62086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -62150,7 +62167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -62231,7 +62248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -62312,7 +62329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -62393,7 +62410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -62474,7 +62491,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -62555,7 +62572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -62655,30 +62672,30 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="95" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="98"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="96"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>191</v>
       </c>
@@ -62696,7 +62713,7 @@
       <c r="K2" s="93"/>
       <c r="L2" s="94"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>192</v>
       </c>
@@ -62714,7 +62731,7 @@
       <c r="K3" s="93"/>
       <c r="L3" s="94"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>193</v>
       </c>
@@ -62732,7 +62749,7 @@
       <c r="K4" s="93"/>
       <c r="L4" s="94"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>194</v>
       </c>
@@ -62750,7 +62767,7 @@
       <c r="K5" s="93"/>
       <c r="L5" s="94"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>195</v>
       </c>
@@ -62768,7 +62785,7 @@
       <c r="K6" s="93"/>
       <c r="L6" s="94"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>196</v>
       </c>
@@ -62786,7 +62803,7 @@
       <c r="K7" s="93"/>
       <c r="L7" s="94"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>197</v>
       </c>
@@ -62804,7 +62821,7 @@
       <c r="K8" s="93"/>
       <c r="L8" s="94"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>198</v>
       </c>
@@ -62822,7 +62839,7 @@
       <c r="K9" s="93"/>
       <c r="L9" s="94"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>199</v>
       </c>
@@ -62840,7 +62857,7 @@
       <c r="K10" s="93"/>
       <c r="L10" s="94"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>200</v>
       </c>
@@ -62858,7 +62875,7 @@
       <c r="K11" s="93"/>
       <c r="L11" s="94"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>201</v>
       </c>
@@ -62876,7 +62893,7 @@
       <c r="K12" s="93"/>
       <c r="L12" s="94"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>202</v>
       </c>
@@ -62894,7 +62911,7 @@
       <c r="K13" s="93"/>
       <c r="L13" s="94"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>203</v>
       </c>
@@ -62912,7 +62929,7 @@
       <c r="K14" s="93"/>
       <c r="L14" s="94"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>204</v>
       </c>
@@ -62930,7 +62947,7 @@
       <c r="K15" s="93"/>
       <c r="L15" s="94"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>205</v>
       </c>
@@ -62948,7 +62965,7 @@
       <c r="K16" s="93"/>
       <c r="L16" s="94"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>206</v>
       </c>
@@ -62966,7 +62983,7 @@
       <c r="K17" s="93"/>
       <c r="L17" s="94"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>207</v>
       </c>
@@ -62984,7 +63001,7 @@
       <c r="K18" s="93"/>
       <c r="L18" s="94"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>208</v>
       </c>
@@ -63002,7 +63019,7 @@
       <c r="K19" s="93"/>
       <c r="L19" s="94"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>209</v>
       </c>
@@ -63020,7 +63037,7 @@
       <c r="K20" s="93"/>
       <c r="L20" s="94"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>210</v>
       </c>
@@ -63038,26 +63055,36 @@
       <c r="K21" s="93"/>
       <c r="L21" s="94"/>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="96"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B2:L2"/>
@@ -63070,16 +63097,6 @@
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="B10:L10"/>
     <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -63091,31 +63108,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7370BF-1852-4AC6-B458-05BE13F3FE63}">
   <dimension ref="B6:H804"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A783" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L797" sqref="L797"/>
+    <sheetView tabSelected="1" topLeftCell="A765" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J781" sqref="J781"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="9.109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="17.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="99" t="s">
+    <row r="6" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="100"/>
+      <c r="D7" s="115"/>
       <c r="E7" s="73"/>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" s="23" t="s">
         <v>231</v>
       </c>
@@ -63124,7 +63141,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="25" t="s">
         <v>232</v>
       </c>
@@ -63133,7 +63150,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="27" t="s">
         <v>228</v>
       </c>
@@ -63142,14 +63159,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="106" t="s">
+    <row r="23" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="D24" s="107"/>
+      <c r="D24" s="117"/>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="29" t="s">
         <v>229</v>
       </c>
@@ -63158,7 +63175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="13" t="s">
         <v>230</v>
       </c>
@@ -63167,7 +63184,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="31" t="s">
         <v>228</v>
       </c>
@@ -63176,14 +63193,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="109" t="s">
+    <row r="43" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="110" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="116"/>
+      <c r="D44" s="111"/>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" s="32" t="s">
         <v>233</v>
       </c>
@@ -63192,7 +63209,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="33" t="s">
         <v>232</v>
       </c>
@@ -63201,7 +63218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C47" s="27" t="s">
         <v>228</v>
       </c>
@@ -63210,13 +63227,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="62" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="74" t="s">
         <v>276</v>
       </c>
@@ -63225,14 +63242,14 @@
         <v>35.815126050420169</v>
       </c>
     </row>
-    <row r="66" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C67" s="113" t="s">
+    <row r="66" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="113"/>
+      <c r="D67" s="121"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="7" t="s">
         <v>234</v>
       </c>
@@ -63241,7 +63258,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="7" t="s">
         <v>281</v>
       </c>
@@ -63250,7 +63267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="7" t="s">
         <v>282</v>
       </c>
@@ -63259,7 +63276,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C71" s="11" t="s">
         <v>235</v>
       </c>
@@ -63268,7 +63285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C72" s="12" t="s">
         <v>228</v>
       </c>
@@ -63277,14 +63294,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C82" s="114" t="s">
+    <row r="81" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="D82" s="115"/>
+      <c r="D82" s="109"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="8" t="s">
         <v>236</v>
       </c>
@@ -63293,7 +63310,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="8" t="s">
         <v>237</v>
       </c>
@@ -63302,7 +63319,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="8" t="s">
         <v>238</v>
       </c>
@@ -63311,7 +63328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C86" s="13" t="s">
         <v>239</v>
       </c>
@@ -63320,7 +63337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C87" s="15" t="s">
         <v>228</v>
       </c>
@@ -63329,14 +63346,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C99" s="114" t="s">
+    <row r="98" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="D99" s="115"/>
+      <c r="D99" s="109"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="8" t="s">
         <v>240</v>
       </c>
@@ -63345,7 +63362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="8" t="s">
         <v>241</v>
       </c>
@@ -63354,7 +63371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="8" t="s">
         <v>242</v>
       </c>
@@ -63363,7 +63380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="8" t="s">
         <v>243</v>
       </c>
@@ -63372,7 +63389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C104" s="33" t="s">
         <v>244</v>
       </c>
@@ -63381,7 +63398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C105" s="15" t="s">
         <v>228</v>
       </c>
@@ -63390,15 +63407,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="117" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C117" s="109" t="s">
+    <row r="116" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="D117" s="110"/>
+      <c r="D117" s="118"/>
       <c r="E117" s="73"/>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C118" s="78" t="s">
         <v>264</v>
       </c>
@@ -63407,7 +63424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C119" s="79" t="s">
         <v>265</v>
       </c>
@@ -63416,7 +63433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C120" s="79" t="s">
         <v>296</v>
       </c>
@@ -63425,7 +63442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C121" s="79" t="s">
         <v>297</v>
       </c>
@@ -63434,7 +63451,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C122" s="80" t="s">
         <v>232</v>
       </c>
@@ -63443,7 +63460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C123" s="75" t="s">
         <v>228</v>
       </c>
@@ -63452,16 +63469,16 @@
         <v>119</v>
       </c>
     </row>
-    <row r="132" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="133" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C133" s="109" t="s">
+    <row r="132" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="110" t="s">
         <v>196</v>
       </c>
-      <c r="D133" s="110"/>
+      <c r="D133" s="118"/>
       <c r="E133" s="73"/>
       <c r="F133" s="76"/>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C134" s="32" t="s">
         <v>267</v>
       </c>
@@ -63471,7 +63488,7 @@
       </c>
       <c r="E134" s="10"/>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C135" s="79" t="s">
         <v>268</v>
       </c>
@@ -63481,7 +63498,7 @@
       </c>
       <c r="E135" s="10"/>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C136" s="79" t="s">
         <v>269</v>
       </c>
@@ -63491,7 +63508,7 @@
       </c>
       <c r="E136" s="10"/>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C137" s="79" t="s">
         <v>298</v>
       </c>
@@ -63501,7 +63518,7 @@
       </c>
       <c r="E137" s="10"/>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C138" s="79" t="s">
         <v>270</v>
       </c>
@@ -63511,7 +63528,7 @@
       </c>
       <c r="E138" s="10"/>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C139" s="79" t="s">
         <v>271</v>
       </c>
@@ -63521,7 +63538,7 @@
       </c>
       <c r="E139" s="10"/>
     </row>
-    <row r="140" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C140" s="80" t="s">
         <v>232</v>
       </c>
@@ -63531,14 +63548,14 @@
       </c>
       <c r="E140" s="25"/>
     </row>
-    <row r="152" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C153" s="111" t="s">
+    <row r="152" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C153" s="119" t="s">
         <v>198</v>
       </c>
-      <c r="D153" s="112"/>
+      <c r="D153" s="120"/>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" s="8" t="s">
         <v>272</v>
       </c>
@@ -63547,7 +63564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" s="8" t="s">
         <v>273</v>
       </c>
@@ -63556,7 +63573,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" s="8" t="s">
         <v>274</v>
       </c>
@@ -63565,7 +63582,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="157" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C157" s="33" t="s">
         <v>275</v>
       </c>
@@ -63574,7 +63591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C158" s="77" t="s">
         <v>228</v>
       </c>
@@ -63583,14 +63600,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="170" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C171" s="104" t="s">
+    <row r="170" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C171" s="99" t="s">
         <v>199</v>
       </c>
-      <c r="D171" s="105"/>
+      <c r="D171" s="100"/>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C172" s="8" t="s">
         <v>277</v>
       </c>
@@ -63599,7 +63616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C173" s="8" t="s">
         <v>278</v>
       </c>
@@ -63608,7 +63625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C174" s="8" t="s">
         <v>24</v>
       </c>
@@ -63617,7 +63634,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C175" s="8" t="s">
         <v>279</v>
       </c>
@@ -63626,7 +63643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C176" s="33" t="s">
         <v>280</v>
       </c>
@@ -63635,7 +63652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C177" s="38" t="s">
         <v>228</v>
       </c>
@@ -63644,16 +63661,16 @@
         <v>119</v>
       </c>
     </row>
-    <row r="189" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B190" s="104" t="s">
+    <row r="189" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="99" t="s">
         <v>299</v>
       </c>
-      <c r="C190" s="108"/>
-      <c r="D190" s="108"/>
-      <c r="E190" s="105"/>
+      <c r="C190" s="101"/>
+      <c r="D190" s="101"/>
+      <c r="E190" s="100"/>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="17" t="s">
         <v>284</v>
       </c>
@@ -63667,7 +63684,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" s="8" t="s">
         <v>234</v>
       </c>
@@ -63684,7 +63701,7 @@
         <v>0.49056603773584906</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="s">
         <v>281</v>
       </c>
@@ -63701,7 +63718,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="13" t="s">
         <v>282</v>
       </c>
@@ -63718,7 +63735,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="195" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B195" s="43" t="s">
         <v>235</v>
       </c>
@@ -63735,7 +63752,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="196" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B196" s="15" t="s">
         <v>228</v>
       </c>
@@ -63746,17 +63763,17 @@
       <c r="D196" s="45"/>
       <c r="E196" s="16"/>
     </row>
-    <row r="207" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B208" s="101" t="s">
+    <row r="207" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B208" s="112" t="s">
         <v>300</v>
       </c>
-      <c r="C208" s="102"/>
-      <c r="D208" s="102"/>
-      <c r="E208" s="102"/>
-      <c r="F208" s="103"/>
+      <c r="C208" s="113"/>
+      <c r="D208" s="113"/>
+      <c r="E208" s="113"/>
+      <c r="F208" s="114"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="17" t="s">
         <v>286</v>
       </c>
@@ -63773,7 +63790,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="8" t="s">
         <v>277</v>
       </c>
@@ -63794,7 +63811,7 @@
         <v>0.20987654320987653</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="8" t="s">
         <v>278</v>
       </c>
@@ -63815,7 +63832,7 @@
         <v>0.32098765432098764</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="13" t="s">
         <v>24</v>
       </c>
@@ -63836,7 +63853,7 @@
         <v>0.20987654320987653</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="47" t="s">
         <v>279</v>
       </c>
@@ -63857,7 +63874,7 @@
         <v>0.1728395061728395</v>
       </c>
     </row>
-    <row r="214" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B214" s="43" t="s">
         <v>280</v>
       </c>
@@ -63878,7 +63895,7 @@
         <v>8.6419753086419748E-2</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="48" t="s">
         <v>228</v>
       </c>
@@ -63893,7 +63910,7 @@
       <c r="E215" s="21"/>
       <c r="F215" s="22"/>
     </row>
-    <row r="216" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B216" s="43" t="s">
         <v>291</v>
       </c>
@@ -63905,17 +63922,17 @@
       <c r="E216" s="37"/>
       <c r="F216" s="34"/>
     </row>
-    <row r="225" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B226" s="101" t="s">
+    <row r="225" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B226" s="112" t="s">
         <v>301</v>
       </c>
-      <c r="C226" s="102"/>
-      <c r="D226" s="102"/>
-      <c r="E226" s="102"/>
-      <c r="F226" s="103"/>
+      <c r="C226" s="113"/>
+      <c r="D226" s="113"/>
+      <c r="E226" s="113"/>
+      <c r="F226" s="114"/>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="17" t="s">
         <v>286</v>
       </c>
@@ -63932,7 +63949,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" s="8" t="s">
         <v>277</v>
       </c>
@@ -63953,7 +63970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229" s="8" t="s">
         <v>278</v>
       </c>
@@ -63974,7 +63991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B230" s="13" t="s">
         <v>24</v>
       </c>
@@ -63995,7 +64012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B231" s="47" t="s">
         <v>279</v>
       </c>
@@ -64016,7 +64033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B232" s="43" t="s">
         <v>280</v>
       </c>
@@ -64037,7 +64054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B233" s="48" t="s">
         <v>228</v>
       </c>
@@ -64058,7 +64075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B234" s="43" t="s">
         <v>291</v>
       </c>
@@ -64070,17 +64087,17 @@
       <c r="E234" s="37"/>
       <c r="F234" s="34"/>
     </row>
-    <row r="236" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B237" s="101" t="s">
+    <row r="236" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B237" s="112" t="s">
         <v>301</v>
       </c>
-      <c r="C237" s="102"/>
-      <c r="D237" s="102"/>
-      <c r="E237" s="102"/>
-      <c r="F237" s="103"/>
+      <c r="C237" s="113"/>
+      <c r="D237" s="113"/>
+      <c r="E237" s="113"/>
+      <c r="F237" s="114"/>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" s="17" t="s">
         <v>286</v>
       </c>
@@ -64097,7 +64114,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B239" s="8" t="s">
         <v>277</v>
       </c>
@@ -64118,7 +64135,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B240" s="8" t="s">
         <v>278</v>
       </c>
@@ -64139,7 +64156,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B241" s="13" t="s">
         <v>24</v>
       </c>
@@ -64160,7 +64177,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B242" s="47" t="s">
         <v>279</v>
       </c>
@@ -64181,7 +64198,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="243" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B243" s="43" t="s">
         <v>280</v>
       </c>
@@ -64202,32 +64219,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B244" s="54"/>
       <c r="C244" s="54"/>
       <c r="D244" s="54"/>
       <c r="E244" s="54"/>
       <c r="F244" s="54"/>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B245" s="54"/>
       <c r="C245" s="54"/>
       <c r="D245" s="54"/>
       <c r="E245" s="54"/>
       <c r="F245" s="54"/>
     </row>
-    <row r="252" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B253" s="104" t="s">
+    <row r="252" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B253" s="99" t="s">
         <v>302</v>
       </c>
-      <c r="C253" s="108"/>
-      <c r="D253" s="108"/>
-      <c r="E253" s="108"/>
-      <c r="F253" s="108"/>
-      <c r="G253" s="105"/>
+      <c r="C253" s="101"/>
+      <c r="D253" s="101"/>
+      <c r="E253" s="101"/>
+      <c r="F253" s="101"/>
+      <c r="G253" s="100"/>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B254" s="17" t="s">
         <v>284</v>
       </c>
@@ -64247,7 +64264,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B255" s="8" t="s">
         <v>234</v>
       </c>
@@ -64272,7 +64289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B256" s="8" t="s">
         <v>281</v>
       </c>
@@ -64297,7 +64314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" s="13" t="s">
         <v>282</v>
       </c>
@@ -64322,7 +64339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B258" s="43" t="s">
         <v>235</v>
       </c>
@@ -64347,7 +64364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B259" s="15" t="s">
         <v>228</v>
       </c>
@@ -64360,18 +64377,18 @@
       <c r="F259" s="45"/>
       <c r="G259" s="16"/>
     </row>
-    <row r="261" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B262" s="104" t="s">
+    <row r="261" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B262" s="99" t="s">
         <v>302</v>
       </c>
-      <c r="C262" s="108"/>
-      <c r="D262" s="108"/>
-      <c r="E262" s="108"/>
-      <c r="F262" s="108"/>
-      <c r="G262" s="105"/>
+      <c r="C262" s="101"/>
+      <c r="D262" s="101"/>
+      <c r="E262" s="101"/>
+      <c r="F262" s="101"/>
+      <c r="G262" s="100"/>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="17" t="s">
         <v>284</v>
       </c>
@@ -64391,7 +64408,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" s="8" t="s">
         <v>234</v>
       </c>
@@ -64417,7 +64434,7 @@
       </c>
       <c r="H264" s="59"/>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B265" s="8" t="s">
         <v>281</v>
       </c>
@@ -64442,7 +64459,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B266" s="13" t="s">
         <v>282</v>
       </c>
@@ -64467,7 +64484,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="267" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B267" s="43" t="s">
         <v>235</v>
       </c>
@@ -64492,7 +64509,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B268" s="57"/>
       <c r="C268" s="35"/>
       <c r="D268" s="35"/>
@@ -64500,17 +64517,17 @@
       <c r="F268" s="35"/>
       <c r="G268" s="35"/>
     </row>
-    <row r="275" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B276" s="101" t="s">
+    <row r="275" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B276" s="112" t="s">
         <v>321</v>
       </c>
-      <c r="C276" s="102"/>
-      <c r="D276" s="102"/>
-      <c r="E276" s="102"/>
-      <c r="F276" s="103"/>
+      <c r="C276" s="113"/>
+      <c r="D276" s="113"/>
+      <c r="E276" s="113"/>
+      <c r="F276" s="114"/>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B277" s="17" t="s">
         <v>304</v>
       </c>
@@ -64527,7 +64544,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B278" s="8" t="s">
         <v>303</v>
       </c>
@@ -64548,7 +64565,7 @@
         <v>6.1728395061728392E-2</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B279" s="8" t="s">
         <v>273</v>
       </c>
@@ -64569,7 +64586,7 @@
         <v>0.41975308641975306</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B280" s="13" t="s">
         <v>274</v>
       </c>
@@ -64590,7 +64607,7 @@
         <v>0.35802469135802467</v>
       </c>
     </row>
-    <row r="281" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B281" s="47" t="s">
         <v>275</v>
       </c>
@@ -64611,7 +64628,7 @@
         <v>0.16049382716049382</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B282" s="48" t="s">
         <v>228</v>
       </c>
@@ -64626,7 +64643,7 @@
       <c r="E282" s="21"/>
       <c r="F282" s="22"/>
     </row>
-    <row r="283" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B283" s="43" t="s">
         <v>291</v>
       </c>
@@ -64638,17 +64655,17 @@
       <c r="E283" s="37"/>
       <c r="F283" s="34"/>
     </row>
-    <row r="290" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B291" s="101" t="s">
+    <row r="290" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B291" s="112" t="s">
         <v>305</v>
       </c>
-      <c r="C291" s="102"/>
-      <c r="D291" s="102"/>
-      <c r="E291" s="102"/>
-      <c r="F291" s="103"/>
+      <c r="C291" s="113"/>
+      <c r="D291" s="113"/>
+      <c r="E291" s="113"/>
+      <c r="F291" s="114"/>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B292" s="17" t="s">
         <v>304</v>
       </c>
@@ -64665,7 +64682,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B293" s="8" t="s">
         <v>303</v>
       </c>
@@ -64686,7 +64703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B294" s="8" t="s">
         <v>273</v>
       </c>
@@ -64707,7 +64724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B295" s="13" t="s">
         <v>274</v>
       </c>
@@ -64728,7 +64745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B296" s="47" t="s">
         <v>275</v>
       </c>
@@ -64749,7 +64766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B297" s="48" t="s">
         <v>228</v>
       </c>
@@ -64770,7 +64787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B298" s="43" t="s">
         <v>291</v>
       </c>
@@ -64782,17 +64799,17 @@
       <c r="E298" s="37"/>
       <c r="F298" s="34"/>
     </row>
-    <row r="301" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B302" s="101" t="s">
+    <row r="301" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B302" s="112" t="s">
         <v>305</v>
       </c>
-      <c r="C302" s="102"/>
-      <c r="D302" s="102"/>
-      <c r="E302" s="102"/>
-      <c r="F302" s="103"/>
+      <c r="C302" s="113"/>
+      <c r="D302" s="113"/>
+      <c r="E302" s="113"/>
+      <c r="F302" s="114"/>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B303" s="17" t="s">
         <v>304</v>
       </c>
@@ -64809,7 +64826,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B304" s="8" t="s">
         <v>303</v>
       </c>
@@ -64830,7 +64847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B305" s="8" t="s">
         <v>273</v>
       </c>
@@ -64851,7 +64868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B306" s="13" t="s">
         <v>274</v>
       </c>
@@ -64872,7 +64889,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="307" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B307" s="47" t="s">
         <v>275</v>
       </c>
@@ -64893,23 +64910,23 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B308" s="57"/>
       <c r="C308" s="60"/>
       <c r="D308" s="60"/>
       <c r="E308" s="60"/>
       <c r="F308" s="60"/>
     </row>
-    <row r="315" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B316" s="104" t="s">
+    <row r="315" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B316" s="99" t="s">
         <v>307</v>
       </c>
-      <c r="C316" s="108"/>
-      <c r="D316" s="108"/>
-      <c r="E316" s="105"/>
+      <c r="C316" s="101"/>
+      <c r="D316" s="101"/>
+      <c r="E316" s="100"/>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317" s="17" t="s">
         <v>284</v>
       </c>
@@ -64923,7 +64940,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B318" s="8" t="s">
         <v>234</v>
       </c>
@@ -64940,7 +64957,7 @@
         <v>0.47169811320754718</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B319" s="8" t="s">
         <v>281</v>
       </c>
@@ -64957,7 +64974,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B320" s="13" t="s">
         <v>282</v>
       </c>
@@ -64974,7 +64991,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="321" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B321" s="43" t="s">
         <v>235</v>
       </c>
@@ -64991,7 +65008,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="322" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B322" s="15" t="s">
         <v>228</v>
       </c>
@@ -65002,17 +65019,17 @@
       <c r="D322" s="45"/>
       <c r="E322" s="16"/>
     </row>
-    <row r="333" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B334" s="101" t="s">
+    <row r="333" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B334" s="112" t="s">
         <v>309</v>
       </c>
-      <c r="C334" s="102"/>
-      <c r="D334" s="102"/>
-      <c r="E334" s="102"/>
-      <c r="F334" s="103"/>
+      <c r="C334" s="113"/>
+      <c r="D334" s="113"/>
+      <c r="E334" s="113"/>
+      <c r="F334" s="114"/>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B335" s="17" t="s">
         <v>306</v>
       </c>
@@ -65029,7 +65046,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B336" s="8" t="s">
         <v>277</v>
       </c>
@@ -65050,7 +65067,7 @@
         <v>0.16049382716049382</v>
       </c>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B337" s="8" t="s">
         <v>278</v>
       </c>
@@ -65071,7 +65088,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B338" s="13" t="s">
         <v>24</v>
       </c>
@@ -65092,7 +65109,7 @@
         <v>0.30864197530864196</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B339" s="47" t="s">
         <v>279</v>
       </c>
@@ -65113,7 +65130,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="340" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B340" s="43" t="s">
         <v>280</v>
       </c>
@@ -65134,7 +65151,7 @@
         <v>8.6419753086419748E-2</v>
       </c>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B341" s="48" t="s">
         <v>228</v>
       </c>
@@ -65149,7 +65166,7 @@
       <c r="E341" s="21"/>
       <c r="F341" s="22"/>
     </row>
-    <row r="342" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B342" s="43" t="s">
         <v>291</v>
       </c>
@@ -65161,17 +65178,17 @@
       <c r="E342" s="37"/>
       <c r="F342" s="34"/>
     </row>
-    <row r="351" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B352" s="101" t="s">
+    <row r="351" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B352" s="112" t="s">
         <v>310</v>
       </c>
-      <c r="C352" s="102"/>
-      <c r="D352" s="102"/>
-      <c r="E352" s="102"/>
-      <c r="F352" s="103"/>
+      <c r="C352" s="113"/>
+      <c r="D352" s="113"/>
+      <c r="E352" s="113"/>
+      <c r="F352" s="114"/>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B353" s="17" t="s">
         <v>312</v>
       </c>
@@ -65188,7 +65205,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B354" s="8" t="s">
         <v>277</v>
       </c>
@@ -65209,7 +65226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B355" s="8" t="s">
         <v>278</v>
       </c>
@@ -65230,7 +65247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B356" s="13" t="s">
         <v>24</v>
       </c>
@@ -65251,7 +65268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B357" s="47" t="s">
         <v>279</v>
       </c>
@@ -65272,7 +65289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B358" s="43" t="s">
         <v>280</v>
       </c>
@@ -65293,7 +65310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B359" s="48" t="s">
         <v>228</v>
       </c>
@@ -65314,7 +65331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B360" s="43" t="s">
         <v>291</v>
       </c>
@@ -65326,17 +65343,17 @@
       <c r="E360" s="37"/>
       <c r="F360" s="34"/>
     </row>
-    <row r="362" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B363" s="101" t="s">
+    <row r="362" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B363" s="112" t="s">
         <v>310</v>
       </c>
-      <c r="C363" s="102"/>
-      <c r="D363" s="102"/>
-      <c r="E363" s="102"/>
-      <c r="F363" s="103"/>
+      <c r="C363" s="113"/>
+      <c r="D363" s="113"/>
+      <c r="E363" s="113"/>
+      <c r="F363" s="114"/>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B364" s="17" t="s">
         <v>312</v>
       </c>
@@ -65353,7 +65370,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B365" s="8" t="s">
         <v>277</v>
       </c>
@@ -65374,7 +65391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B366" s="8" t="s">
         <v>278</v>
       </c>
@@ -65395,7 +65412,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B367" s="13" t="s">
         <v>24</v>
       </c>
@@ -65416,7 +65433,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B368" s="47" t="s">
         <v>279</v>
       </c>
@@ -65437,7 +65454,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="369" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B369" s="43" t="s">
         <v>280</v>
       </c>
@@ -65458,14 +65475,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C378" s="104" t="s">
+    <row r="377" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C378" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="D378" s="105"/>
+      <c r="D378" s="100"/>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C379" s="8" t="s">
         <v>277</v>
       </c>
@@ -65474,7 +65491,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C380" s="8" t="s">
         <v>278</v>
       </c>
@@ -65483,7 +65500,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C381" s="8" t="s">
         <v>24</v>
       </c>
@@ -65492,7 +65509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C382" s="8" t="s">
         <v>279</v>
       </c>
@@ -65501,7 +65518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C383" s="33" t="s">
         <v>280</v>
       </c>
@@ -65510,7 +65527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C384" s="38" t="s">
         <v>228</v>
       </c>
@@ -65519,17 +65536,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="395" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B396" s="101" t="s">
+    <row r="395" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B396" s="112" t="s">
         <v>311</v>
       </c>
-      <c r="C396" s="102"/>
-      <c r="D396" s="102"/>
-      <c r="E396" s="102"/>
-      <c r="F396" s="103"/>
+      <c r="C396" s="113"/>
+      <c r="D396" s="113"/>
+      <c r="E396" s="113"/>
+      <c r="F396" s="114"/>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B397" s="17" t="s">
         <v>312</v>
       </c>
@@ -65546,7 +65563,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B398" s="81" t="s">
         <v>277</v>
       </c>
@@ -65567,7 +65584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B399" s="82" t="s">
         <v>278</v>
       </c>
@@ -65588,7 +65605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B400" s="83" t="s">
         <v>24</v>
       </c>
@@ -65609,7 +65626,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B401" s="84" t="s">
         <v>279</v>
       </c>
@@ -65630,7 +65647,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="402" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B402" s="85" t="s">
         <v>280</v>
       </c>
@@ -65651,7 +65668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B403" s="68" t="s">
         <v>228</v>
       </c>
@@ -65666,24 +65683,24 @@
       <c r="E403" s="45"/>
       <c r="F403" s="70"/>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B404" s="57"/>
       <c r="C404" s="35"/>
       <c r="D404" s="35"/>
       <c r="E404" s="35"/>
       <c r="F404" s="35"/>
     </row>
-    <row r="414" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B415" s="101" t="s">
+    <row r="414" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B415" s="112" t="s">
         <v>313</v>
       </c>
-      <c r="C415" s="102"/>
-      <c r="D415" s="102"/>
-      <c r="E415" s="102"/>
-      <c r="F415" s="103"/>
+      <c r="C415" s="113"/>
+      <c r="D415" s="113"/>
+      <c r="E415" s="113"/>
+      <c r="F415" s="114"/>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B416" s="17" t="s">
         <v>312</v>
       </c>
@@ -65700,7 +65717,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B417" s="81" t="s">
         <v>277</v>
       </c>
@@ -65721,7 +65738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B418" s="82" t="s">
         <v>278</v>
       </c>
@@ -65742,7 +65759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B419" s="83" t="s">
         <v>24</v>
       </c>
@@ -65763,7 +65780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B420" s="84" t="s">
         <v>279</v>
       </c>
@@ -65784,7 +65801,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="421" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B421" s="85" t="s">
         <v>280</v>
       </c>
@@ -65805,7 +65822,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="422" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B422" s="15" t="s">
         <v>228</v>
       </c>
@@ -65820,14 +65837,14 @@
       <c r="E422" s="45"/>
       <c r="F422" s="16"/>
     </row>
-    <row r="433" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="434" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C434" s="104" t="s">
+    <row r="433" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="434" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C434" s="99" t="s">
         <v>202</v>
       </c>
-      <c r="D434" s="105"/>
+      <c r="D434" s="100"/>
     </row>
-    <row r="435" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C435" s="8" t="s">
         <v>277</v>
       </c>
@@ -65836,7 +65853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C436" s="8" t="s">
         <v>278</v>
       </c>
@@ -65845,7 +65862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="437" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C437" s="8" t="s">
         <v>24</v>
       </c>
@@ -65854,7 +65871,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="438" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C438" s="8" t="s">
         <v>279</v>
       </c>
@@ -65863,7 +65880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="439" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C439" s="33" t="s">
         <v>280</v>
       </c>
@@ -65872,7 +65889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C440" s="38" t="s">
         <v>228</v>
       </c>
@@ -65881,14 +65898,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="452" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="453" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C453" s="99" t="s">
+    <row r="452" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="453" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C453" s="104" t="s">
         <v>314</v>
       </c>
-      <c r="D453" s="117"/>
+      <c r="D453" s="105"/>
     </row>
-    <row r="454" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C454" s="32" t="s">
         <v>292</v>
       </c>
@@ -65897,7 +65914,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="455" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C455" s="33" t="s">
         <v>39</v>
       </c>
@@ -65906,7 +65923,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="456" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C456" s="27" t="s">
         <v>228</v>
       </c>
@@ -65915,9 +65932,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="459" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="460" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C460" s="118" t="s">
+    <row r="459" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="460" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C460" s="106" t="s">
         <v>315</v>
       </c>
       <c r="D460" s="86">
@@ -65925,24 +65942,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="461" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C461" s="119"/>
+    <row r="461" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C461" s="107"/>
       <c r="D461" s="87">
         <f>D460/D455</f>
         <v>0.68</v>
       </c>
     </row>
-    <row r="471" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="472" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B472" s="104" t="s">
+    <row r="471" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="472" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B472" s="99" t="s">
         <v>316</v>
       </c>
-      <c r="C472" s="108"/>
-      <c r="D472" s="108"/>
-      <c r="E472" s="108"/>
-      <c r="F472" s="105"/>
+      <c r="C472" s="101"/>
+      <c r="D472" s="101"/>
+      <c r="E472" s="101"/>
+      <c r="F472" s="100"/>
     </row>
-    <row r="473" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B473" s="17" t="s">
         <v>312</v>
       </c>
@@ -65959,7 +65976,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="474" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B474" s="81" t="s">
         <v>277</v>
       </c>
@@ -65980,7 +65997,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="475" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B475" s="82" t="s">
         <v>278</v>
       </c>
@@ -66001,7 +66018,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="476" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B476" s="83" t="s">
         <v>24</v>
       </c>
@@ -66022,7 +66039,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="477" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B477" s="84" t="s">
         <v>279</v>
       </c>
@@ -66043,7 +66060,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="478" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B478" s="85" t="s">
         <v>280</v>
       </c>
@@ -66064,7 +66081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B479" s="65" t="s">
         <v>228</v>
       </c>
@@ -66079,14 +66096,14 @@
       <c r="E479" s="56"/>
       <c r="F479" s="16"/>
     </row>
-    <row r="481" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="482" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C482" s="120" t="s">
+    <row r="481" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="482" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C482" s="102" t="s">
         <v>317</v>
       </c>
-      <c r="D482" s="121"/>
+      <c r="D482" s="103"/>
     </row>
-    <row r="483" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C483" s="32" t="s">
         <v>234</v>
       </c>
@@ -66095,7 +66112,7 @@
         <v>0.86792452830188682</v>
       </c>
     </row>
-    <row r="484" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C484" s="33" t="s">
         <v>235</v>
       </c>
@@ -66104,17 +66121,17 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="491" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="492" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B492" s="104" t="s">
+    <row r="491" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="492" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B492" s="99" t="s">
         <v>318</v>
       </c>
-      <c r="C492" s="108"/>
-      <c r="D492" s="108"/>
-      <c r="E492" s="108"/>
-      <c r="F492" s="105"/>
+      <c r="C492" s="101"/>
+      <c r="D492" s="101"/>
+      <c r="E492" s="101"/>
+      <c r="F492" s="100"/>
     </row>
-    <row r="493" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B493" s="17" t="s">
         <v>312</v>
       </c>
@@ -66131,7 +66148,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="494" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B494" s="81" t="s">
         <v>277</v>
       </c>
@@ -66152,7 +66169,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="495" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B495" s="82" t="s">
         <v>278</v>
       </c>
@@ -66173,7 +66190,7 @@
         <v>0.28125</v>
       </c>
     </row>
-    <row r="496" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B496" s="83" t="s">
         <v>24</v>
       </c>
@@ -66194,7 +66211,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="497" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B497" s="84" t="s">
         <v>279</v>
       </c>
@@ -66215,7 +66232,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="498" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B498" s="85" t="s">
         <v>280</v>
       </c>
@@ -66236,7 +66253,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="499" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B499" s="65" t="s">
         <v>228</v>
       </c>
@@ -66251,14 +66268,14 @@
       <c r="E499" s="56"/>
       <c r="F499" s="16"/>
     </row>
-    <row r="501" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="502" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C502" s="120" t="s">
+    <row r="501" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="502" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C502" s="102" t="s">
         <v>317</v>
       </c>
-      <c r="D502" s="121"/>
+      <c r="D502" s="103"/>
     </row>
-    <row r="503" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C503" s="32" t="s">
         <v>234</v>
       </c>
@@ -66267,7 +66284,7 @@
         <v>0.49056603773584906</v>
       </c>
     </row>
-    <row r="504" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C504" s="33" t="s">
         <v>235</v>
       </c>
@@ -66276,17 +66293,17 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="513" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="514" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B514" s="104" t="s">
+    <row r="513" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="514" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B514" s="99" t="s">
         <v>319</v>
       </c>
-      <c r="C514" s="108"/>
-      <c r="D514" s="108"/>
-      <c r="E514" s="108"/>
-      <c r="F514" s="105"/>
+      <c r="C514" s="101"/>
+      <c r="D514" s="101"/>
+      <c r="E514" s="101"/>
+      <c r="F514" s="100"/>
     </row>
-    <row r="515" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B515" s="17" t="s">
         <v>286</v>
       </c>
@@ -66303,7 +66320,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="516" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B516" s="81" t="s">
         <v>277</v>
       </c>
@@ -66324,7 +66341,7 @@
         <v>0.48148148148148145</v>
       </c>
     </row>
-    <row r="517" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B517" s="82" t="s">
         <v>278</v>
       </c>
@@ -66345,7 +66362,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="518" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B518" s="83" t="s">
         <v>24</v>
       </c>
@@ -66366,7 +66383,7 @@
         <v>0.13580246913580246</v>
       </c>
     </row>
-    <row r="519" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B519" s="84" t="s">
         <v>279</v>
       </c>
@@ -66387,7 +66404,7 @@
         <v>4.9382716049382713E-2</v>
       </c>
     </row>
-    <row r="520" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B520" s="85" t="s">
         <v>280</v>
       </c>
@@ -66408,7 +66425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B521" s="65" t="s">
         <v>228</v>
       </c>
@@ -66423,14 +66440,14 @@
       <c r="E521" s="56"/>
       <c r="F521" s="16"/>
     </row>
-    <row r="523" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="524" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C524" s="120" t="s">
+    <row r="523" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="524" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C524" s="102" t="s">
         <v>317</v>
       </c>
-      <c r="D524" s="121"/>
+      <c r="D524" s="103"/>
     </row>
-    <row r="525" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C525" s="32" t="s">
         <v>288</v>
       </c>
@@ -66439,7 +66456,7 @@
         <v>0.71052631578947367</v>
       </c>
     </row>
-    <row r="526" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C526" s="33" t="s">
         <v>289</v>
       </c>
@@ -66448,17 +66465,17 @@
         <v>0.81481481481481477</v>
       </c>
     </row>
-    <row r="533" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="534" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B534" s="104" t="s">
+    <row r="533" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="534" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B534" s="99" t="s">
         <v>320</v>
       </c>
-      <c r="C534" s="108"/>
-      <c r="D534" s="108"/>
-      <c r="E534" s="108"/>
-      <c r="F534" s="105"/>
+      <c r="C534" s="101"/>
+      <c r="D534" s="101"/>
+      <c r="E534" s="101"/>
+      <c r="F534" s="100"/>
     </row>
-    <row r="535" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B535" s="17" t="s">
         <v>286</v>
       </c>
@@ -66475,7 +66492,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="536" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B536" s="81" t="s">
         <v>277</v>
       </c>
@@ -66496,7 +66513,7 @@
         <v>0.20987654320987653</v>
       </c>
     </row>
-    <row r="537" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B537" s="82" t="s">
         <v>278</v>
       </c>
@@ -66517,7 +66534,7 @@
         <v>0.32098765432098764</v>
       </c>
     </row>
-    <row r="538" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B538" s="83" t="s">
         <v>24</v>
       </c>
@@ -66538,7 +66555,7 @@
         <v>0.20987654320987653</v>
       </c>
     </row>
-    <row r="539" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B539" s="84" t="s">
         <v>279</v>
       </c>
@@ -66559,7 +66576,7 @@
         <v>0.1728395061728395</v>
       </c>
     </row>
-    <row r="540" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B540" s="85" t="s">
         <v>280</v>
       </c>
@@ -66580,7 +66597,7 @@
         <v>8.6419753086419748E-2</v>
       </c>
     </row>
-    <row r="541" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B541" s="65" t="s">
         <v>228</v>
       </c>
@@ -66595,14 +66612,14 @@
       <c r="E541" s="56"/>
       <c r="F541" s="16"/>
     </row>
-    <row r="543" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="544" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C544" s="120" t="s">
+    <row r="543" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="544" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C544" s="102" t="s">
         <v>317</v>
       </c>
-      <c r="D544" s="121"/>
+      <c r="D544" s="103"/>
     </row>
-    <row r="545" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C545" s="32" t="s">
         <v>288</v>
       </c>
@@ -66611,7 +66628,7 @@
         <v>0.42105263157894735</v>
       </c>
     </row>
-    <row r="546" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C546" s="33" t="s">
         <v>289</v>
       </c>
@@ -66620,14 +66637,14 @@
         <v>0.53086419753086411</v>
       </c>
     </row>
-    <row r="554" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="555" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C555" s="104" t="s">
+    <row r="554" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="555" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C555" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="D555" s="105"/>
+      <c r="D555" s="100"/>
     </row>
-    <row r="556" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C556" s="8" t="s">
         <v>277</v>
       </c>
@@ -66636,7 +66653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="557" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C557" s="8" t="s">
         <v>278</v>
       </c>
@@ -66645,7 +66662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="558" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C558" s="8" t="s">
         <v>24</v>
       </c>
@@ -66654,7 +66671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="559" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C559" s="8" t="s">
         <v>279</v>
       </c>
@@ -66663,7 +66680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="560" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C560" s="33" t="s">
         <v>280</v>
       </c>
@@ -66672,7 +66689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="561" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C561" s="67" t="s">
         <v>228</v>
       </c>
@@ -66681,14 +66698,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="572" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="573" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C573" s="104" t="s">
+    <row r="572" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="573" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C573" s="99" t="s">
         <v>206</v>
       </c>
-      <c r="D573" s="105"/>
+      <c r="D573" s="100"/>
     </row>
-    <row r="574" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C574" s="8" t="s">
         <v>277</v>
       </c>
@@ -66697,7 +66714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="575" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C575" s="8" t="s">
         <v>278</v>
       </c>
@@ -66706,7 +66723,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="576" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C576" s="8" t="s">
         <v>24</v>
       </c>
@@ -66715,7 +66732,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="577" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C577" s="8" t="s">
         <v>279</v>
       </c>
@@ -66724,7 +66741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="578" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C578" s="33" t="s">
         <v>280</v>
       </c>
@@ -66733,7 +66750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="579" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C579" s="67" t="s">
         <v>228</v>
       </c>
@@ -66742,14 +66759,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="589" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="590" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C590" s="104" t="s">
+    <row r="589" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="590" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C590" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="D590" s="105"/>
+      <c r="D590" s="100"/>
     </row>
-    <row r="591" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C591" s="8" t="s">
         <v>277</v>
       </c>
@@ -66758,7 +66775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="592" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C592" s="8" t="s">
         <v>278</v>
       </c>
@@ -66767,7 +66784,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="593" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C593" s="8" t="s">
         <v>24</v>
       </c>
@@ -66776,7 +66793,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="594" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C594" s="8" t="s">
         <v>279</v>
       </c>
@@ -66785,7 +66802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="595" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C595" s="33" t="s">
         <v>280</v>
       </c>
@@ -66794,7 +66811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C596" s="67" t="s">
         <v>228</v>
       </c>
@@ -66803,14 +66820,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="606" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="607" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C607" s="104" t="s">
+    <row r="606" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="607" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C607" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="D607" s="105"/>
+      <c r="D607" s="100"/>
     </row>
-    <row r="608" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C608" s="8" t="s">
         <v>277</v>
       </c>
@@ -66819,7 +66836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="609" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C609" s="8" t="s">
         <v>278</v>
       </c>
@@ -66828,7 +66845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="610" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C610" s="8" t="s">
         <v>24</v>
       </c>
@@ -66837,7 +66854,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="611" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C611" s="8" t="s">
         <v>279</v>
       </c>
@@ -66846,7 +66863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="612" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C612" s="33" t="s">
         <v>280</v>
       </c>
@@ -66855,7 +66872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="613" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C613" s="67" t="s">
         <v>228</v>
       </c>
@@ -66864,14 +66881,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="624" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="625" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C625" s="104" t="s">
+    <row r="624" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="625" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C625" s="99" t="s">
         <v>209</v>
       </c>
-      <c r="D625" s="105"/>
+      <c r="D625" s="100"/>
     </row>
-    <row r="626" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C626" s="8" t="s">
         <v>277</v>
       </c>
@@ -66880,7 +66897,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="627" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C627" s="8" t="s">
         <v>278</v>
       </c>
@@ -66889,7 +66906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="628" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C628" s="8" t="s">
         <v>24</v>
       </c>
@@ -66898,7 +66915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="629" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C629" s="8" t="s">
         <v>279</v>
       </c>
@@ -66907,7 +66924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="630" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C630" s="33" t="s">
         <v>280</v>
       </c>
@@ -66916,7 +66933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C631" s="67" t="s">
         <v>228</v>
       </c>
@@ -66925,14 +66942,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="643" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="644" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C644" s="104" t="s">
+    <row r="643" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="644" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C644" s="99" t="s">
         <v>322</v>
       </c>
-      <c r="D644" s="105"/>
+      <c r="D644" s="100"/>
     </row>
-    <row r="645" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C645" s="8" t="s">
         <v>39</v>
       </c>
@@ -66941,7 +66958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="646" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C646" s="33" t="s">
         <v>7</v>
       </c>
@@ -66950,24 +66967,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="647" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B647" s="10"/>
       <c r="C647" s="10"/>
       <c r="D647" s="10"/>
     </row>
-    <row r="648" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B648" s="54"/>
       <c r="C648" s="10"/>
       <c r="D648" s="10"/>
     </row>
-    <row r="658" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="659" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C659" s="104" t="s">
+    <row r="658" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="659" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C659" s="99" t="s">
         <v>323</v>
       </c>
-      <c r="D659" s="105"/>
+      <c r="D659" s="100"/>
     </row>
-    <row r="660" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="660" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C660" s="8" t="s">
         <v>39</v>
       </c>
@@ -66976,7 +66993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="661" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C661" s="33" t="s">
         <v>7</v>
       </c>
@@ -66985,17 +67002,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="674" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="675" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B675" s="101" t="s">
+    <row r="674" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="675" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B675" s="112" t="s">
         <v>324</v>
       </c>
-      <c r="C675" s="102"/>
-      <c r="D675" s="102"/>
-      <c r="E675" s="102"/>
-      <c r="F675" s="103"/>
+      <c r="C675" s="113"/>
+      <c r="D675" s="113"/>
+      <c r="E675" s="113"/>
+      <c r="F675" s="114"/>
     </row>
-    <row r="676" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="676" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B676" s="17" t="s">
         <v>312</v>
       </c>
@@ -67012,7 +67029,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="677" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="677" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B677" s="81" t="s">
         <v>277</v>
       </c>
@@ -67033,7 +67050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="678" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="678" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B678" s="82" t="s">
         <v>278</v>
       </c>
@@ -67054,7 +67071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="679" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B679" s="83" t="s">
         <v>24</v>
       </c>
@@ -67075,7 +67092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="680" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B680" s="84" t="s">
         <v>279</v>
       </c>
@@ -67096,7 +67113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B681" s="85" t="s">
         <v>280</v>
       </c>
@@ -67117,7 +67134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="682" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B682" s="48" t="s">
         <v>228</v>
       </c>
@@ -67138,7 +67155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B683" s="43" t="s">
         <v>291</v>
       </c>
@@ -67150,17 +67167,17 @@
       <c r="E683" s="37"/>
       <c r="F683" s="34"/>
     </row>
-    <row r="685" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="686" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B686" s="101" t="s">
+    <row r="685" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="686" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B686" s="112" t="s">
         <v>324</v>
       </c>
-      <c r="C686" s="102"/>
-      <c r="D686" s="102"/>
-      <c r="E686" s="102"/>
-      <c r="F686" s="103"/>
+      <c r="C686" s="113"/>
+      <c r="D686" s="113"/>
+      <c r="E686" s="113"/>
+      <c r="F686" s="114"/>
     </row>
-    <row r="687" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="687" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B687" s="17" t="s">
         <v>312</v>
       </c>
@@ -67177,7 +67194,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="688" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="688" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B688" s="81" t="s">
         <v>277</v>
       </c>
@@ -67198,7 +67215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="689" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B689" s="82" t="s">
         <v>278</v>
       </c>
@@ -67219,7 +67236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="690" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B690" s="83" t="s">
         <v>24</v>
       </c>
@@ -67240,7 +67257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="691" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B691" s="84" t="s">
         <v>279</v>
       </c>
@@ -67261,7 +67278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B692" s="85" t="s">
         <v>280</v>
       </c>
@@ -67282,8 +67299,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="694" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="693" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="694" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C694" s="91" t="s">
         <v>236</v>
       </c>
@@ -67292,7 +67309,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="695" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="695" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C695" s="17" t="s">
         <v>237</v>
       </c>
@@ -67301,7 +67318,7 @@
         <v>0.84313725490196079</v>
       </c>
     </row>
-    <row r="696" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="696" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C696" s="17" t="s">
         <v>238</v>
       </c>
@@ -67310,7 +67327,7 @@
         <v>0.76470588235294112</v>
       </c>
     </row>
-    <row r="697" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C697" s="92" t="s">
         <v>239</v>
       </c>
@@ -67319,14 +67336,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="705" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C705" s="104" t="s">
+    <row r="704" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="705" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C705" s="99" t="s">
         <v>327</v>
       </c>
-      <c r="D705" s="105"/>
+      <c r="D705" s="100"/>
     </row>
-    <row r="706" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="706" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C706" s="8" t="s">
         <v>277</v>
       </c>
@@ -67335,7 +67352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="707" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="707" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C707" s="8" t="s">
         <v>278</v>
       </c>
@@ -67344,7 +67361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="708" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="708" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C708" s="8" t="s">
         <v>24</v>
       </c>
@@ -67353,7 +67370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="709" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="709" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C709" s="8" t="s">
         <v>279</v>
       </c>
@@ -67362,7 +67379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C710" s="33" t="s">
         <v>280</v>
       </c>
@@ -67371,7 +67388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C711" s="72" t="s">
         <v>228</v>
       </c>
@@ -67380,17 +67397,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="719" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="720" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B720" s="101" t="s">
+    <row r="719" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="720" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B720" s="112" t="s">
         <v>325</v>
       </c>
-      <c r="C720" s="102"/>
-      <c r="D720" s="102"/>
-      <c r="E720" s="102"/>
-      <c r="F720" s="103"/>
+      <c r="C720" s="113"/>
+      <c r="D720" s="113"/>
+      <c r="E720" s="113"/>
+      <c r="F720" s="114"/>
     </row>
-    <row r="721" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="721" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B721" s="17" t="s">
         <v>312</v>
       </c>
@@ -67407,7 +67424,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="722" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="722" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B722" s="81" t="s">
         <v>277</v>
       </c>
@@ -67428,7 +67445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="723" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B723" s="82" t="s">
         <v>278</v>
       </c>
@@ -67449,7 +67466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="724" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B724" s="83" t="s">
         <v>24</v>
       </c>
@@ -67470,7 +67487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="725" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="725" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B725" s="84" t="s">
         <v>279</v>
       </c>
@@ -67491,7 +67508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B726" s="85" t="s">
         <v>280</v>
       </c>
@@ -67512,7 +67529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="727" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B727" s="48" t="s">
         <v>228</v>
       </c>
@@ -67533,7 +67550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="728" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B728" s="43" t="s">
         <v>291</v>
       </c>
@@ -67545,17 +67562,17 @@
       <c r="E728" s="37"/>
       <c r="F728" s="34"/>
     </row>
-    <row r="730" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="731" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B731" s="101" t="s">
+    <row r="730" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="731" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B731" s="112" t="s">
         <v>325</v>
       </c>
-      <c r="C731" s="102"/>
-      <c r="D731" s="102"/>
-      <c r="E731" s="102"/>
-      <c r="F731" s="103"/>
+      <c r="C731" s="113"/>
+      <c r="D731" s="113"/>
+      <c r="E731" s="113"/>
+      <c r="F731" s="114"/>
     </row>
-    <row r="732" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="732" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B732" s="17" t="s">
         <v>312</v>
       </c>
@@ -67572,7 +67589,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="733" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="733" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B733" s="81" t="s">
         <v>277</v>
       </c>
@@ -67593,7 +67610,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="734" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="734" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B734" s="82" t="s">
         <v>278</v>
       </c>
@@ -67614,7 +67631,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="735" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="735" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B735" s="83" t="s">
         <v>24</v>
       </c>
@@ -67635,7 +67652,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="736" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="736" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B736" s="84" t="s">
         <v>279</v>
       </c>
@@ -67656,7 +67673,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="737" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B737" s="85" t="s">
         <v>280</v>
       </c>
@@ -67677,8 +67694,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="739" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="738" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="739" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C739" s="91" t="s">
         <v>236</v>
       </c>
@@ -67687,7 +67704,7 @@
         <v>0.43478260869565216</v>
       </c>
     </row>
-    <row r="740" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="740" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C740" s="17" t="s">
         <v>237</v>
       </c>
@@ -67696,7 +67713,7 @@
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="741" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="741" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C741" s="17" t="s">
         <v>238</v>
       </c>
@@ -67705,7 +67722,7 @@
         <v>0.58823529411764708</v>
       </c>
     </row>
-    <row r="742" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C742" s="92" t="s">
         <v>239</v>
       </c>
@@ -67714,14 +67731,14 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="749" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="750" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C750" s="104" t="s">
+    <row r="749" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="750" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C750" s="99" t="s">
         <v>326</v>
       </c>
-      <c r="D750" s="105"/>
+      <c r="D750" s="100"/>
     </row>
-    <row r="751" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="751" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C751" s="8" t="s">
         <v>277</v>
       </c>
@@ -67730,7 +67747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="752" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="752" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C752" s="8" t="s">
         <v>278</v>
       </c>
@@ -67739,7 +67756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="753" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="753" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C753" s="8" t="s">
         <v>24</v>
       </c>
@@ -67748,7 +67765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="754" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="754" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C754" s="8" t="s">
         <v>279</v>
       </c>
@@ -67757,7 +67774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="755" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C755" s="33" t="s">
         <v>280</v>
       </c>
@@ -67766,7 +67783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="756" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C756" s="72" t="s">
         <v>228</v>
       </c>
@@ -67775,17 +67792,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="767" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="768" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B768" s="104" t="s">
+    <row r="767" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="768" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B768" s="99" t="s">
         <v>329</v>
       </c>
-      <c r="C768" s="108"/>
-      <c r="D768" s="108"/>
-      <c r="E768" s="108"/>
-      <c r="F768" s="105"/>
+      <c r="C768" s="101"/>
+      <c r="D768" s="101"/>
+      <c r="E768" s="101"/>
+      <c r="F768" s="100"/>
     </row>
-    <row r="769" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="769" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B769" s="17" t="s">
         <v>286</v>
       </c>
@@ -67802,7 +67819,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="770" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="770" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B770" s="81" t="s">
         <v>277</v>
       </c>
@@ -67823,7 +67840,7 @@
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="771" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="771" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B771" s="82" t="s">
         <v>278</v>
       </c>
@@ -67844,7 +67861,7 @@
         <v>0.35802469135802467</v>
       </c>
     </row>
-    <row r="772" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="772" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B772" s="83" t="s">
         <v>24</v>
       </c>
@@ -67865,7 +67882,7 @@
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="773" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="773" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B773" s="84" t="s">
         <v>279</v>
       </c>
@@ -67886,7 +67903,7 @@
         <v>0.2839506172839506</v>
       </c>
     </row>
-    <row r="774" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B774" s="85" t="s">
         <v>280</v>
       </c>
@@ -67907,7 +67924,7 @@
         <v>6.1728395061728392E-2</v>
       </c>
     </row>
-    <row r="775" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B775" s="65" t="s">
         <v>228</v>
       </c>
@@ -67922,14 +67939,14 @@
       <c r="E775" s="56"/>
       <c r="F775" s="16"/>
     </row>
-    <row r="777" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="778" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C778" s="120" t="s">
+    <row r="777" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="778" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C778" s="102" t="s">
         <v>317</v>
       </c>
-      <c r="D778" s="121"/>
+      <c r="D778" s="103"/>
     </row>
-    <row r="779" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="779" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C779" s="32" t="s">
         <v>288</v>
       </c>
@@ -67938,7 +67955,7 @@
         <v>0.42105263157894735</v>
       </c>
     </row>
-    <row r="780" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C780" s="33" t="s">
         <v>289</v>
       </c>
@@ -67947,168 +67964,174 @@
         <v>0.50617283950617287</v>
       </c>
     </row>
-    <row r="787" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="788" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C788" s="104" t="s">
+    <row r="787" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="788" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C788" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="D788" s="105"/>
+      <c r="D788" s="101"/>
+      <c r="E788" s="100"/>
     </row>
-    <row r="789" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C789" s="8" t="s">
+    <row r="789" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C789" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="D789" s="9">
+      <c r="D789" s="122">
         <f>COUNTIFS(Datos!I:I,"*¡Me encantan! Incluso estudio idiomas por mi cuenta*", Datos!Q:Q, "Totalmente de acuerdo")</f>
         <v>7</v>
       </c>
+      <c r="E789" s="123">
+        <f>D789/D$794</f>
+        <v>0.2413793103448276</v>
+      </c>
     </row>
-    <row r="790" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="790" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C790" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D790" s="9">
+      <c r="D790" s="39">
         <f>COUNTIFS(Datos!I:I,"*¡Me encantan! Incluso estudio idiomas por mi cuenta*", Datos!Q:Q, "De acuerdo")</f>
         <v>10</v>
       </c>
+      <c r="E790" s="40">
+        <f t="shared" ref="E790:E793" si="36">D790/D$794</f>
+        <v>0.34482758620689657</v>
+      </c>
     </row>
-    <row r="791" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="791" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C791" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D791" s="9">
+      <c r="D791" s="39">
         <f>COUNTIFS(Datos!I:I,"*¡Me encantan! Incluso estudio idiomas por mi cuenta*", Datos!Q:Q, "Neutral")</f>
         <v>8</v>
       </c>
+      <c r="E791" s="40">
+        <f t="shared" si="36"/>
+        <v>0.27586206896551724</v>
+      </c>
     </row>
-    <row r="792" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="792" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C792" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D792" s="9">
+      <c r="D792" s="39">
         <f>COUNTIFS(Datos!I:I,"*¡Me encantan! Incluso estudio idiomas por mi cuenta*", Datos!Q:Q, "En desacuerdo")</f>
         <v>3</v>
       </c>
+      <c r="E792" s="40">
+        <f t="shared" si="36"/>
+        <v>0.10344827586206896</v>
+      </c>
     </row>
-    <row r="793" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C793" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="D793" s="34">
+      <c r="D793" s="44">
         <f>COUNTIFS(Datos!I:I,"*¡Me encantan! Incluso estudio idiomas por mi cuenta*", Datos!Q:Q, "Totalmente en desacuerdo")</f>
         <v>1</v>
       </c>
+      <c r="E793" s="53">
+        <f t="shared" si="36"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
     </row>
-    <row r="794" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C794" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="D794" s="16">
+      <c r="D794" s="56">
         <f>SUM(D789:D793)</f>
         <v>29</v>
       </c>
+      <c r="E794" s="16"/>
     </row>
-    <row r="797" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="798" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C798" s="104" t="s">
+    <row r="797" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="798" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C798" s="99" t="s">
         <v>331</v>
       </c>
-      <c r="D798" s="105"/>
+      <c r="D798" s="101"/>
+      <c r="E798" s="100"/>
     </row>
-    <row r="799" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="799" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C799" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="D799" s="9">
+      <c r="D799" s="39">
         <f>COUNTIFS(Datos!I:I,"*Son un recurso muy importante para buscar trabajo y para mejorar mi currículum*", Datos!Q:Q, "Totalmente de acuerdo")</f>
         <v>5</v>
       </c>
+      <c r="E799" s="40">
+        <f>D799/D$804</f>
+        <v>8.771929824561403E-2</v>
+      </c>
     </row>
-    <row r="800" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="800" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C800" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D800" s="9">
+      <c r="D800" s="39">
         <f>COUNTIFS(Datos!I:I,"*Son un recurso muy importante para buscar trabajo y para mejorar mi currículum*", Datos!Q:Q, "De acuerdo")</f>
         <v>14</v>
       </c>
+      <c r="E800" s="40">
+        <f t="shared" ref="E800:E803" si="37">D800/D$804</f>
+        <v>0.24561403508771928</v>
+      </c>
     </row>
-    <row r="801" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="801" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C801" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D801" s="9">
+      <c r="D801" s="39">
         <f>COUNTIFS(Datos!I:I,"*Son un recurso muy importante para buscar trabajo y para mejorar mi currículum*", Datos!Q:Q, "Neutral")</f>
         <v>30</v>
       </c>
+      <c r="E801" s="40">
+        <f t="shared" si="37"/>
+        <v>0.52631578947368418</v>
+      </c>
     </row>
-    <row r="802" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="802" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C802" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D802" s="9">
+      <c r="D802" s="39">
         <f>COUNTIFS(Datos!I:I,"*Son un recurso muy importante para buscar trabajo y para mejorar mi currículum*", Datos!Q:Q, "En desacuerdo")</f>
         <v>7</v>
       </c>
+      <c r="E802" s="40">
+        <f t="shared" si="37"/>
+        <v>0.12280701754385964</v>
+      </c>
     </row>
-    <row r="803" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C803" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="D803" s="34">
+      <c r="D803" s="44">
         <f>COUNTIFS(Datos!I:I,"*Son un recurso muy importante para buscar trabajo y para mejorar mi currículum*", Datos!Q:Q, "Totalmente en desacuerdo")</f>
         <v>1</v>
       </c>
+      <c r="E803" s="53">
+        <f t="shared" si="37"/>
+        <v>1.7543859649122806E-2</v>
+      </c>
     </row>
-    <row r="804" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C804" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="D804" s="16">
+      <c r="D804" s="56">
         <f>SUM(D799:D803)</f>
         <v>57</v>
       </c>
+      <c r="E804" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C788:D788"/>
-    <mergeCell ref="C798:D798"/>
-    <mergeCell ref="B768:F768"/>
-    <mergeCell ref="C778:D778"/>
-    <mergeCell ref="C750:D750"/>
-    <mergeCell ref="C625:D625"/>
-    <mergeCell ref="C644:D644"/>
-    <mergeCell ref="C659:D659"/>
-    <mergeCell ref="C555:D555"/>
-    <mergeCell ref="C573:D573"/>
-    <mergeCell ref="C590:D590"/>
-    <mergeCell ref="C607:D607"/>
-    <mergeCell ref="C434:D434"/>
-    <mergeCell ref="C453:D453"/>
-    <mergeCell ref="C460:C461"/>
-    <mergeCell ref="B514:F514"/>
-    <mergeCell ref="C524:D524"/>
-    <mergeCell ref="B534:F534"/>
-    <mergeCell ref="C544:D544"/>
-    <mergeCell ref="B472:F472"/>
-    <mergeCell ref="C482:D482"/>
-    <mergeCell ref="B492:F492"/>
-    <mergeCell ref="C502:D502"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B253:G253"/>
-    <mergeCell ref="B262:G262"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B316:E316"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B363:F363"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B675:F675"/>
     <mergeCell ref="B686:F686"/>
@@ -68125,6 +68148,44 @@
     <mergeCell ref="C153:D153"/>
     <mergeCell ref="C171:D171"/>
     <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="B253:G253"/>
+    <mergeCell ref="B262:G262"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B316:E316"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="B534:F534"/>
+    <mergeCell ref="C544:D544"/>
+    <mergeCell ref="B472:F472"/>
+    <mergeCell ref="C482:D482"/>
+    <mergeCell ref="B492:F492"/>
+    <mergeCell ref="C502:D502"/>
+    <mergeCell ref="C434:D434"/>
+    <mergeCell ref="C453:D453"/>
+    <mergeCell ref="C460:C461"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="C524:D524"/>
+    <mergeCell ref="C625:D625"/>
+    <mergeCell ref="C644:D644"/>
+    <mergeCell ref="C659:D659"/>
+    <mergeCell ref="C555:D555"/>
+    <mergeCell ref="C573:D573"/>
+    <mergeCell ref="C590:D590"/>
+    <mergeCell ref="C607:D607"/>
+    <mergeCell ref="B768:F768"/>
+    <mergeCell ref="C778:D778"/>
+    <mergeCell ref="C750:D750"/>
+    <mergeCell ref="C788:E788"/>
+    <mergeCell ref="C798:E798"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
